--- a/kadry_users.xlsx
+++ b/kadry_users.xlsx
@@ -13,7 +13,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$B$283</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst/>
 </workbook>
 </file>
@@ -3142,20 +3142,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C296"/>
+  <dimension ref="A1:D296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="12" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="12" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="48.425" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.1416666666667" style="2" customWidth="1"/>
-    <col min="3" max="16380" width="9.14166666666667" style="3"/>
+    <col min="3" max="3" width="9.14166666666667" style="3"/>
+    <col min="4" max="4" width="41.875" style="3" customWidth="1"/>
+    <col min="5" max="16380" width="9.14166666666667" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" spans="1:3">
+    <row r="1" ht="36" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3165,8 +3167,12 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="36" spans="1:3">
+      <c r="D1" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A1,"', raion:'",B1,"',password:",C1,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Абинский район "Центральная районная больница"', raion:'Абинский',password:6682},</v>
+      </c>
+    </row>
+    <row r="2" ht="36" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -3176,8 +3182,12 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="36" spans="1:3">
+      <c r="D2" s="3" t="str">
+        <f t="shared" ref="D2:D65" si="0">CONCATENATE("{ username:'",A2,"', raion:'",B2,"',password:",C2,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Абинский район "Холмская районная больница №2"', raion:'Абинский',password:5137},</v>
+      </c>
+    </row>
+    <row r="3" ht="36" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3187,8 +3197,12 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" ht="36" spans="1:3">
+      <c r="D3" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A3,"', raion:'",B3,"',password:",C3,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Абинский район "Ахтырская районная больница №3"', raion:'Абинский',password:2244},</v>
+      </c>
+    </row>
+    <row r="4" ht="36" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -3198,8 +3212,12 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" ht="36" spans="1:3">
+      <c r="D4" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A4,"', raion:'",B4,"',password:",C4,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:2416},</v>
+      </c>
+    </row>
+    <row r="5" ht="36" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3209,8 +3227,12 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" ht="36" spans="1:3">
+      <c r="D5" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A5,"', raion:'",B5,"',password:",C5,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Детская городская больница управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:3518},</v>
+      </c>
+    </row>
+    <row r="6" ht="36" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -3220,8 +3242,12 @@
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" ht="36" spans="1:3">
+      <c r="D6" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A6,"', raion:'",B6,"',password:",C6,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Участковая больница №1 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:5880},</v>
+      </c>
+    </row>
+    <row r="7" ht="36" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -3231,8 +3257,12 @@
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" ht="36" spans="1:3">
+      <c r="D7" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A7,"', raion:'",B7,"',password:",C7,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Участковая больница №2 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:1919},</v>
+      </c>
+    </row>
+    <row r="8" ht="36" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -3242,8 +3272,12 @@
       <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" ht="36" spans="1:3">
+      <c r="D8" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A8,"', raion:'",B8,"',password:",C8,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Участковая больница №3 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:9856},</v>
+      </c>
+    </row>
+    <row r="9" ht="36" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -3253,8 +3287,12 @@
       <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" ht="36" spans="1:3">
+      <c r="D9" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A9,"', raion:'",B9,"',password:",C9,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №1 управления здравоохранения администрации муниципального образования город-курорт Анапа "', raion:'Анапский',password:5418},</v>
+      </c>
+    </row>
+    <row r="10" ht="36" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -3264,8 +3302,12 @@
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" ht="36" spans="1:3">
+      <c r="D10" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A10,"', raion:'",B10,"',password:",C10,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №3 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:5838},</v>
+      </c>
+    </row>
+    <row r="11" ht="36" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -3275,8 +3317,12 @@
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" ht="36" spans="1:3">
+      <c r="D11" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A11,"', raion:'",B11,"',password:",C11,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №4 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:3573},</v>
+      </c>
+    </row>
+    <row r="12" ht="36" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -3286,8 +3332,12 @@
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" ht="36" spans="1:3">
+      <c r="D12" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A12,"', raion:'",B12,"',password:",C12,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №6 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:0340},</v>
+      </c>
+    </row>
+    <row r="13" ht="36" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -3297,8 +3347,12 @@
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" ht="36" spans="1:3">
+      <c r="D13" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A13,"', raion:'",B13,"',password:",C13,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №7 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:0315},</v>
+      </c>
+    </row>
+    <row r="14" ht="36" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -3308,8 +3362,12 @@
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" ht="36" spans="1:3">
+      <c r="D14" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A14,"', raion:'",B14,"',password:",C14,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №8 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:5515},</v>
+      </c>
+    </row>
+    <row r="15" ht="36" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -3319,8 +3377,12 @@
       <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" ht="36" spans="1:3">
+      <c r="D15" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A15,"', raion:'",B15,"',password:",C15,"},")</f>
+        <v>{ username:'Муниципальное автономное учреждение здравоохранения "Стоматологическая поликлиника управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:7848},</v>
+      </c>
+    </row>
+    <row r="16" ht="36" spans="1:4">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -3330,8 +3392,12 @@
       <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" ht="36" spans="1:3">
+      <c r="D16" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A16,"', raion:'",B16,"',password:",C16,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Станция скорой медицинской помощи управления здравоохранения администрации муниципального образования город-курорт Анапа" ', raion:'Анапский',password:7063},</v>
+      </c>
+    </row>
+    <row r="17" ht="36" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>34</v>
       </c>
@@ -3341,8 +3407,12 @@
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" ht="36" spans="1:3">
+      <c r="D17" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A17,"', raion:'",B17,"',password:",C17,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центр медицинской профилактики управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:0181},</v>
+      </c>
+    </row>
+    <row r="18" ht="36" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
@@ -3352,8 +3422,12 @@
       <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" ht="51.75" customHeight="1" spans="1:3">
+      <c r="D18" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A18,"', raion:'",B18,"',password:",C18,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Патологоанатомическое бюро управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:1105},</v>
+      </c>
+    </row>
+    <row r="19" ht="51.75" customHeight="1" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
@@ -3363,8 +3437,12 @@
       <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" ht="30.75" customHeight="1" spans="1:3">
+      <c r="D19" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A19,"', raion:'",B19,"',password:",C19,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Медицинский информационно-аналитический центр управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:8942},</v>
+      </c>
+    </row>
+    <row r="20" ht="30.75" customHeight="1" spans="1:4">
       <c r="A20" s="10" t="s">
         <v>40</v>
       </c>
@@ -3374,8 +3452,12 @@
       <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" ht="24" spans="1:3">
+      <c r="D20" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A20,"', raion:'",B20,"',password:",C20,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница г. Хадыженск"', raion:'Апшеронский',password:9117},</v>
+      </c>
+    </row>
+    <row r="21" ht="24" spans="1:4">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -3385,8 +3467,12 @@
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" ht="24" spans="1:3">
+      <c r="D21" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A21,"', raion:'",B21,"',password:",C21,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница Апшеронского района"', raion:'Апшеронский',password:5374},</v>
+      </c>
+    </row>
+    <row r="22" ht="24" spans="1:4">
       <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
@@ -3396,8 +3482,12 @@
       <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" ht="24" spans="1:3">
+      <c r="D22" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A22,"', raion:'",B22,"',password:",C22,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Хадыженская стоматологическая поликлиника"', raion:'Апшеронский',password:1605},</v>
+      </c>
+    </row>
+    <row r="23" ht="24" spans="1:4">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
@@ -3407,8 +3497,12 @@
       <c r="C23" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" ht="24" spans="1:3">
+      <c r="D23" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A23,"', raion:'",B23,"',password:",C23,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница"', raion:'Армавир',password:4111},</v>
+      </c>
+    </row>
+    <row r="24" ht="24" spans="1:4">
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
@@ -3418,8 +3512,12 @@
       <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" ht="24" spans="1:3">
+      <c r="D24" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A24,"', raion:'",B24,"',password:",C24,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Детская городская больница"', raion:'Армавир',password:4068},</v>
+      </c>
+    </row>
+    <row r="25" ht="24" spans="1:4">
       <c r="A25" s="4" t="s">
         <v>52</v>
       </c>
@@ -3429,8 +3527,12 @@
       <c r="C25" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" ht="24" spans="1:3">
+      <c r="D25" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A25,"', raion:'",B25,"',password:",C25,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская поликлиника №1"', raion:'Армавир',password:0442},</v>
+      </c>
+    </row>
+    <row r="26" ht="24" spans="1:4">
       <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
@@ -3440,8 +3542,12 @@
       <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" ht="24" spans="1:3">
+      <c r="D26" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A26,"', raion:'",B26,"',password:",C26,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская поликлиника №4"', raion:'Армавир',password:5208},</v>
+      </c>
+    </row>
+    <row r="27" ht="24" spans="1:4">
       <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
@@ -3451,8 +3557,12 @@
       <c r="C27" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" ht="24" spans="1:3">
+      <c r="D27" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A27,"', raion:'",B27,"',password:",C27,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская поликлиника №3"', raion:'Армавир',password:3566},</v>
+      </c>
+    </row>
+    <row r="28" ht="24" spans="1:4">
       <c r="A28" s="7" t="s">
         <v>58</v>
       </c>
@@ -3462,8 +3572,12 @@
       <c r="C28" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" ht="24" spans="1:3">
+      <c r="D28" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A28,"', raion:'",B28,"',password:",C28,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская стоматологическая поликлиника"', raion:'Армавир',password:2530},</v>
+      </c>
+    </row>
+    <row r="29" ht="24" spans="1:4">
       <c r="A29" s="7" t="s">
         <v>60</v>
       </c>
@@ -3473,8 +3587,12 @@
       <c r="C29" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" ht="24" spans="1:3">
+      <c r="D29" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A29,"', raion:'",B29,"',password:",C29,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская детская стоматологическая поликлиника"', raion:'Армавир',password:4941},</v>
+      </c>
+    </row>
+    <row r="30" ht="24" spans="1:4">
       <c r="A30" s="7" t="s">
         <v>62</v>
       </c>
@@ -3484,8 +3602,12 @@
       <c r="C30" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" ht="24" spans="1:3">
+      <c r="D30" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A30,"', raion:'",B30,"',password:",C30,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Станция скорой медицинской помощи"', raion:'Армавир',password:6687},</v>
+      </c>
+    </row>
+    <row r="31" ht="24" spans="1:4">
       <c r="A31" s="7" t="s">
         <v>64</v>
       </c>
@@ -3495,8 +3617,12 @@
       <c r="C31" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" ht="24" spans="1:3">
+      <c r="D31" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A31,"', raion:'",B31,"',password:",C31,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Армавира "Перинатальный центр"', raion:'Армавир',password:0817},</v>
+      </c>
+    </row>
+    <row r="32" ht="24" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>66</v>
       </c>
@@ -3506,8 +3632,12 @@
       <c r="C32" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" ht="24" spans="1:3">
+      <c r="D32" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A32,"', raion:'",B32,"',password:",C32,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центр медицинской профилактики"', raion:'Армавир',password:7947},</v>
+      </c>
+    </row>
+    <row r="33" ht="24" spans="1:4">
       <c r="A33" s="8" t="s">
         <v>68</v>
       </c>
@@ -3517,8 +3647,12 @@
       <c r="C33" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" ht="24" spans="1:3">
+      <c r="D33" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A33,"', raion:'",B33,"',password:",C33,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Армавирское специализированное автохозяйство"', raion:'Армавир',password:5207},</v>
+      </c>
+    </row>
+    <row r="34" ht="24" spans="1:4">
       <c r="A34" s="4" t="s">
         <v>70</v>
       </c>
@@ -3528,8 +3662,12 @@
       <c r="C34" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" ht="36" spans="1:3">
+      <c r="D34" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A34,"', raion:'",B34,"',password:",C34,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница администрации Белоглинского района"', raion:'Белоглинский',password:8201},</v>
+      </c>
+    </row>
+    <row r="35" ht="36" spans="1:4">
       <c r="A35" s="7" t="s">
         <v>73</v>
       </c>
@@ -3539,8 +3677,12 @@
       <c r="C35" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" ht="36" spans="1:3">
+      <c r="D35" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A35,"', raion:'",B35,"',password:",C35,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Стоматологическая поликлиника муниципального образования Белоглинский район"', raion:'Белоглинский',password:6812},</v>
+      </c>
+    </row>
+    <row r="36" ht="36" spans="1:4">
       <c r="A36" s="4" t="s">
         <v>75</v>
       </c>
@@ -3550,8 +3692,12 @@
       <c r="C36" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" ht="36" spans="1:3">
+      <c r="D36" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A36,"', raion:'",B36,"',password:",C36,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница муниципального образования Белореченский район"', raion:'Белореченский',password:6509},</v>
+      </c>
+    </row>
+    <row r="37" ht="36" spans="1:4">
       <c r="A37" s="7" t="s">
         <v>78</v>
       </c>
@@ -3561,8 +3707,12 @@
       <c r="C37" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" ht="24" spans="1:3">
+      <c r="D37" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A37,"', raion:'",B37,"',password:",C37,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Стоматологическая поликлиника муниципального образования Белореченский район"', raion:'Белореченский',password:8692},</v>
+      </c>
+    </row>
+    <row r="38" ht="24" spans="1:4">
       <c r="A38" s="4" t="s">
         <v>80</v>
       </c>
@@ -3572,8 +3722,12 @@
       <c r="C38" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" ht="36" spans="1:3">
+      <c r="D38" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A38,"', raion:'",B38,"',password:",C38,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница" Брюховецкого района', raion:'Брюховецкий',password:1493},</v>
+      </c>
+    </row>
+    <row r="39" ht="36" spans="1:4">
       <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
@@ -3583,8 +3737,12 @@
       <c r="C39" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="40" ht="36" spans="1:3">
+      <c r="D39" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A39,"', raion:'",B39,"',password:",C39,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Центральная районная больница имени заслуженного врача РФ В.Ф.Долгополова Выселковского района Краснодарского края', raion:'Выселковский',password:9844},</v>
+      </c>
+    </row>
+    <row r="40" ht="36" spans="1:4">
       <c r="A40" s="4" t="s">
         <v>86</v>
       </c>
@@ -3594,8 +3752,12 @@
       <c r="C40" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" ht="36" spans="1:3">
+      <c r="D40" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A40,"', raion:'",B40,"',password:",C40,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:9407},</v>
+      </c>
+    </row>
+    <row r="41" ht="36" spans="1:4">
       <c r="A41" s="4" t="s">
         <v>89</v>
       </c>
@@ -3605,8 +3767,12 @@
       <c r="C41" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" ht="36" spans="1:3">
+      <c r="D41" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A41,"', raion:'",B41,"',password:",C41,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница №2" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:6900},</v>
+      </c>
+    </row>
+    <row r="42" ht="36" spans="1:4">
       <c r="A42" s="4" t="s">
         <v>91</v>
       </c>
@@ -3616,8 +3782,12 @@
       <c r="C42" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" ht="36" spans="1:3">
+      <c r="D42" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A42,"', raion:'",B42,"',password:",C42,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница №3" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:5044},</v>
+      </c>
+    </row>
+    <row r="43" ht="36" spans="1:4">
       <c r="A43" s="4" t="s">
         <v>93</v>
       </c>
@@ -3627,8 +3797,12 @@
       <c r="C43" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="44" ht="36" spans="1:3">
+      <c r="D43" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A43,"', raion:'",B43,"',password:",C43,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская поликлиника" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:2191},</v>
+      </c>
+    </row>
+    <row r="44" ht="36" spans="1:4">
       <c r="A44" s="7" t="s">
         <v>95</v>
       </c>
@@ -3638,8 +3812,12 @@
       <c r="C44" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="45" ht="36" spans="1:3">
+      <c r="D44" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A44,"', raion:'",B44,"',password:",C44,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Стоматологическая поликлиника" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:4368},</v>
+      </c>
+    </row>
+    <row r="45" ht="36" spans="1:4">
       <c r="A45" s="7" t="s">
         <v>97</v>
       </c>
@@ -3649,8 +3827,12 @@
       <c r="C45" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="46" ht="24" spans="1:3">
+      <c r="D45" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A45,"', raion:'",B45,"',password:",C45,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Станция скорой медицинской помощи" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:4820},</v>
+      </c>
+    </row>
+    <row r="46" ht="24" spans="1:4">
       <c r="A46" s="7" t="s">
         <v>99</v>
       </c>
@@ -3660,8 +3842,12 @@
       <c r="C46" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" ht="36" spans="1:3">
+      <c r="D46" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A46,"', raion:'",B46,"',password:",C46,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Родильный дом" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:3905},</v>
+      </c>
+    </row>
+    <row r="47" ht="36" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>101</v>
       </c>
@@ -3671,8 +3857,12 @@
       <c r="C47" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="48" ht="36" spans="1:3">
+      <c r="D47" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A47,"', raion:'",B47,"',password:",C47,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная городская больница" муниципального образования город Горячий Ключ', raion:'Горячий Ключ',password:8854},</v>
+      </c>
+    </row>
+    <row r="48" ht="36" spans="1:4">
       <c r="A48" s="4" t="s">
         <v>104</v>
       </c>
@@ -3682,8 +3872,12 @@
       <c r="C48" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="49" ht="24" spans="1:3">
+      <c r="D48" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A48,"', raion:'",B48,"',password:",C48,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Стоматологическая поликлиника" муниципального образования город Горячий Ключ', raion:'Горячий Ключ',password:7816},</v>
+      </c>
+    </row>
+    <row r="49" ht="24" spans="1:4">
       <c r="A49" s="4" t="s">
         <v>106</v>
       </c>
@@ -3693,8 +3887,12 @@
       <c r="C49" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="50" ht="24" spans="1:3">
+      <c r="D49" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A49,"', raion:'",B49,"',password:",C49,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница Гулькевичского района"', raion:'Гулькевичский',password:8473},</v>
+      </c>
+    </row>
+    <row r="50" ht="24" spans="1:4">
       <c r="A50" s="7" t="s">
         <v>109</v>
       </c>
@@ -3704,8 +3902,12 @@
       <c r="C50" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="51" ht="24" spans="1:3">
+      <c r="D50" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A50,"', raion:'",B50,"',password:",C50,"},")</f>
+        <v>{ username:'Муниципальное автономное учреждение здравоохранения "Гулькевичская стоматологическая поликлиника"', raion:'Гулькевичский',password:4665},</v>
+      </c>
+    </row>
+    <row r="51" ht="24" spans="1:4">
       <c r="A51" s="4" t="s">
         <v>111</v>
       </c>
@@ -3715,8 +3917,12 @@
       <c r="C51" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="52" ht="24" spans="1:3">
+      <c r="D51" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A51,"', raion:'",B51,"',password:",C51,"},")</f>
+        <v>{ username:'Бюджетное учреждение здравоохранения муниципального образования Динской район "Центральная районная больница"', raion:'Динской',password:2489},</v>
+      </c>
+    </row>
+    <row r="52" ht="24" spans="1:4">
       <c r="A52" s="4" t="s">
         <v>114</v>
       </c>
@@ -3726,8 +3932,12 @@
       <c r="C52" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="53" ht="24" spans="1:3">
+      <c r="D52" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A52,"', raion:'",B52,"',password:",C52,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Ейского района "Центральная районная больница"', raion:'Ейский',password:9389},</v>
+      </c>
+    </row>
+    <row r="53" ht="24" spans="1:4">
       <c r="A53" s="7" t="s">
         <v>117</v>
       </c>
@@ -3737,8 +3947,12 @@
       <c r="C53" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="54" ht="36" spans="1:3">
+      <c r="D53" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A53,"', raion:'",B53,"',password:",C53,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Ейского района "Стоматологическая поликлиника"', raion:'Ейский',password:6867},</v>
+      </c>
+    </row>
+    <row r="54" ht="36" spans="1:4">
       <c r="A54" s="7" t="s">
         <v>119</v>
       </c>
@@ -3748,8 +3962,12 @@
       <c r="C54" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="55" ht="36" spans="1:3">
+      <c r="D54" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A54,"', raion:'",B54,"',password:",C54,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Ейский район "Станция скорой медицинской помощи"', raion:'Ейский',password:4194},</v>
+      </c>
+    </row>
+    <row r="55" ht="36" spans="1:4">
       <c r="A55" s="8" t="s">
         <v>121</v>
       </c>
@@ -3759,8 +3977,12 @@
       <c r="C55" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="56" ht="36" spans="1:3">
+      <c r="D55" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A55,"', raion:'",B55,"',password:",C55,"},")</f>
+        <v>{ username:'Муниципальное казенное учреждение здравоохранения муниципального образования Ейский район "Медицинский информационно-аналитический центр"', raion:'Ейский',password:3541},</v>
+      </c>
+    </row>
+    <row r="56" ht="36" spans="1:4">
       <c r="A56" s="6" t="s">
         <v>123</v>
       </c>
@@ -3770,8 +3992,12 @@
       <c r="C56" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="57" ht="36" spans="1:3">
+      <c r="D56" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A56,"', raion:'",B56,"',password:",C56,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Кропоткинская городская больница" муниципального образования Кавказский район', raion:'Кавказский',password:8250},</v>
+      </c>
+    </row>
+    <row r="57" ht="36" spans="1:4">
       <c r="A57" s="4" t="s">
         <v>126</v>
       </c>
@@ -3781,8 +4007,12 @@
       <c r="C57" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="58" ht="36" spans="1:3">
+      <c r="D57" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A57,"', raion:'",B57,"',password:",C57,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница" муниципального образования Кавказский район', raion:'Кавказский',password:8343},</v>
+      </c>
+    </row>
+    <row r="58" ht="36" spans="1:4">
       <c r="A58" s="7" t="s">
         <v>128</v>
       </c>
@@ -3792,8 +4022,12 @@
       <c r="C58" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="59" ht="36" spans="1:3">
+      <c r="D58" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A58,"', raion:'",B58,"',password:",C58,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Станция скорой медицинской помощи" муниципального образования Кавказский район ', raion:'Кавказский',password:1210},</v>
+      </c>
+    </row>
+    <row r="59" ht="36" spans="1:4">
       <c r="A59" s="7" t="s">
         <v>130</v>
       </c>
@@ -3803,8 +4037,12 @@
       <c r="C59" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="60" ht="36" spans="1:3">
+      <c r="D59" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A59,"', raion:'",B59,"',password:",C59,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница муниципального образования Калининский район"', raion:'Калининский',password:5977},</v>
+      </c>
+    </row>
+    <row r="60" ht="36" spans="1:4">
       <c r="A60" s="4" t="s">
         <v>133</v>
       </c>
@@ -3814,8 +4052,12 @@
       <c r="C60" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="61" ht="24" spans="1:3">
+      <c r="D60" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A60,"', raion:'",B60,"',password:",C60,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Каневская центральная районная больница" муниципального образования Каневской район ', raion:'Каневской',password:3519},</v>
+      </c>
+    </row>
+    <row r="61" ht="24" spans="1:4">
       <c r="A61" s="4" t="s">
         <v>136</v>
       </c>
@@ -3825,8 +4067,12 @@
       <c r="C61" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="62" ht="24" spans="1:3">
+      <c r="D61" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A61,"', raion:'",B61,"',password:",C61,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Кореновская центральная районная больница"', raion:'Кореновский',password:9062},</v>
+      </c>
+    </row>
+    <row r="62" ht="24" spans="1:4">
       <c r="A62" s="4" t="s">
         <v>139</v>
       </c>
@@ -3836,8 +4082,12 @@
       <c r="C62" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="63" ht="24" spans="1:3">
+      <c r="D62" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A62,"', raion:'",B62,"',password:",C62,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Красноармейская центральная районная больница"', raion:'Красноармейский',password:0029},</v>
+      </c>
+    </row>
+    <row r="63" ht="24" spans="1:4">
       <c r="A63" s="7" t="s">
         <v>142</v>
       </c>
@@ -3847,8 +4097,12 @@
       <c r="C63" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="64" ht="24" spans="1:3">
+      <c r="D63" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A63,"', raion:'",B63,"',password:",C63,"},")</f>
+        <v>{ username:'Муниципальное автономное учреждение "Красноармейская стоматологическая поликлиника"', raion:'Красноармейский',password:7882},</v>
+      </c>
+    </row>
+    <row r="64" ht="24" spans="1:4">
       <c r="A64" s="4" t="s">
         <v>144</v>
       </c>
@@ -3858,8 +4112,12 @@
       <c r="C64" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="65" ht="24" spans="1:3">
+      <c r="D64" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A64,"', raion:'",B64,"',password:",C64,"},")</f>
+        <v>{ username:'Муниципальное казенное учреждение здравоохранения Хоспис детский', raion:'Краснодар',password:8450},</v>
+      </c>
+    </row>
+    <row r="65" ht="24" spans="1:4">
       <c r="A65" s="6" t="s">
         <v>147</v>
       </c>
@@ -3869,8 +4127,12 @@
       <c r="C65" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="66" ht="24" spans="1:3">
+      <c r="D65" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A65,"', raion:'",B65,"',password:",C65,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская клиническая больница №1', raion:'Краснодар',password:7317},</v>
+      </c>
+    </row>
+    <row r="66" ht="24" spans="1:4">
       <c r="A66" s="6" t="s">
         <v>149</v>
       </c>
@@ -3880,8 +4142,12 @@
       <c r="C66" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="67" ht="24" spans="1:3">
+      <c r="D66" s="3" t="str">
+        <f t="shared" ref="D66:D129" si="1">CONCATENATE("{ username:'",A66,"', raion:'",B66,"',password:",C66,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская клиническая больница №3', raion:'Краснодар',password:3314},</v>
+      </c>
+    </row>
+    <row r="67" ht="24" spans="1:4">
       <c r="A67" s="6" t="s">
         <v>151</v>
       </c>
@@ -3891,8 +4157,12 @@
       <c r="C67" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="68" ht="24" spans="1:3">
+      <c r="D67" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A67,"', raion:'",B67,"',password:",C67,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Краснодарская городская больница №4', raion:'Краснодар',password:7318},</v>
+      </c>
+    </row>
+    <row r="68" ht="24" spans="1:4">
       <c r="A68" s="4" t="s">
         <v>153</v>
       </c>
@@ -3902,8 +4172,12 @@
       <c r="C68" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="69" ht="24" spans="1:3">
+      <c r="D68" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A68,"', raion:'",B68,"',password:",C68,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Медико-санитарная часть "Масложиркомбинат Краснодарский"', raion:'Краснодар',password:1172},</v>
+      </c>
+    </row>
+    <row r="69" ht="24" spans="1:4">
       <c r="A69" s="4" t="s">
         <v>155</v>
       </c>
@@ -3913,8 +4187,12 @@
       <c r="C69" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="70" ht="36" spans="1:3">
+      <c r="D69" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A69,"', raion:'",B69,"',password:",C69,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская клиническая больница №1', raion:'Краснодар',password:3719},</v>
+      </c>
+    </row>
+    <row r="70" ht="36" spans="1:4">
       <c r="A70" s="4" t="s">
         <v>157</v>
       </c>
@@ -3924,8 +4202,12 @@
       <c r="C70" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="71" ht="24" spans="1:3">
+      <c r="D70" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A70,"', raion:'",B70,"',password:",C70,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Краснодарская городская клиническая больница скорой медицинской помощи', raion:'Краснодар',password:3940},</v>
+      </c>
+    </row>
+    <row r="71" ht="24" spans="1:4">
       <c r="A71" s="4" t="s">
         <v>159</v>
       </c>
@@ -3935,8 +4217,12 @@
       <c r="C71" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="72" ht="24" spans="1:3">
+      <c r="D71" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A71,"', raion:'",B71,"',password:",C71,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Участковая больница "Старокорсунская"', raion:'Краснодар',password:6150},</v>
+      </c>
+    </row>
+    <row r="72" ht="24" spans="1:4">
       <c r="A72" s="4" t="s">
         <v>161</v>
       </c>
@@ -3946,8 +4232,12 @@
       <c r="C72" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="73" ht="24" spans="1:3">
+      <c r="D72" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A72,"', raion:'",B72,"',password:",C72,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №1', raion:'Краснодар',password:7232},</v>
+      </c>
+    </row>
+    <row r="73" ht="24" spans="1:4">
       <c r="A73" s="4" t="s">
         <v>163</v>
       </c>
@@ -3957,8 +4247,12 @@
       <c r="C73" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="74" ht="24" spans="1:3">
+      <c r="D73" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A73,"', raion:'",B73,"',password:",C73,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №2', raion:'Краснодар',password:3614},</v>
+      </c>
+    </row>
+    <row r="74" ht="24" spans="1:4">
       <c r="A74" s="4" t="s">
         <v>165</v>
       </c>
@@ -3968,8 +4262,12 @@
       <c r="C74" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="75" ht="24" spans="1:3">
+      <c r="D74" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A74,"', raion:'",B74,"',password:",C74,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №3', raion:'Краснодар',password:3610},</v>
+      </c>
+    </row>
+    <row r="75" ht="24" spans="1:4">
       <c r="A75" s="4" t="s">
         <v>167</v>
       </c>
@@ -3979,8 +4277,12 @@
       <c r="C75" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="76" ht="24" spans="1:3">
+      <c r="D75" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A75,"', raion:'",B75,"',password:",C75,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №4', raion:'Краснодар',password:3599},</v>
+      </c>
+    </row>
+    <row r="76" ht="24" spans="1:4">
       <c r="A76" s="4" t="s">
         <v>169</v>
       </c>
@@ -3990,8 +4292,12 @@
       <c r="C76" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="77" ht="24" spans="1:3">
+      <c r="D76" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A76,"', raion:'",B76,"',password:",C76,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №5', raion:'Краснодар',password:6369},</v>
+      </c>
+    </row>
+    <row r="77" ht="24" spans="1:4">
       <c r="A77" s="4" t="s">
         <v>171</v>
       </c>
@@ -4001,8 +4307,12 @@
       <c r="C77" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="78" ht="24" spans="1:3">
+      <c r="D77" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A77,"', raion:'",B77,"',password:",C77,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №6', raion:'Краснодар',password:7429},</v>
+      </c>
+    </row>
+    <row r="78" ht="24" spans="1:4">
       <c r="A78" s="4" t="s">
         <v>173</v>
       </c>
@@ -4012,8 +4322,12 @@
       <c r="C78" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="79" ht="24" spans="1:3">
+      <c r="D78" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A78,"', raion:'",B78,"',password:",C78,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №7', raion:'Краснодар',password:3632},</v>
+      </c>
+    </row>
+    <row r="79" ht="24" spans="1:4">
       <c r="A79" s="4" t="s">
         <v>175</v>
       </c>
@@ -4023,8 +4337,12 @@
       <c r="C79" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="80" ht="24" spans="1:3">
+      <c r="D79" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A79,"', raion:'",B79,"',password:",C79,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №9', raion:'Краснодар',password:4888},</v>
+      </c>
+    </row>
+    <row r="80" ht="24" spans="1:4">
       <c r="A80" s="4" t="s">
         <v>177</v>
       </c>
@@ -4034,8 +4352,12 @@
       <c r="C80" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="81" ht="24" spans="1:3">
+      <c r="D80" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A80,"', raion:'",B80,"',password:",C80,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №10', raion:'Краснодар',password:6274},</v>
+      </c>
+    </row>
+    <row r="81" ht="24" spans="1:4">
       <c r="A81" s="4" t="s">
         <v>179</v>
       </c>
@@ -4045,8 +4367,12 @@
       <c r="C81" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="82" ht="24" spans="1:3">
+      <c r="D81" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A81,"', raion:'",B81,"',password:",C81,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №11', raion:'Краснодар',password:1470},</v>
+      </c>
+    </row>
+    <row r="82" ht="24" spans="1:4">
       <c r="A82" s="4" t="s">
         <v>181</v>
       </c>
@@ -4056,8 +4382,12 @@
       <c r="C82" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="83" ht="24" spans="1:3">
+      <c r="D82" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A82,"', raion:'",B82,"',password:",C82,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №12', raion:'Краснодар',password:7422},</v>
+      </c>
+    </row>
+    <row r="83" ht="24" spans="1:4">
       <c r="A83" s="4" t="s">
         <v>183</v>
       </c>
@@ -4067,8 +4397,12 @@
       <c r="C83" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="84" ht="24" spans="1:3">
+      <c r="D83" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A83,"', raion:'",B83,"',password:",C83,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №13 "Калининская"', raion:'Краснодар',password:1167},</v>
+      </c>
+    </row>
+    <row r="84" ht="24" spans="1:4">
       <c r="A84" s="7" t="s">
         <v>185</v>
       </c>
@@ -4078,8 +4412,12 @@
       <c r="C84" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="85" ht="24" spans="1:3">
+      <c r="D84" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A84,"', raion:'",B84,"',password:",C84,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №14', raion:'Краснодар',password:5732},</v>
+      </c>
+    </row>
+    <row r="85" ht="24" spans="1:4">
       <c r="A85" s="4" t="s">
         <v>187</v>
       </c>
@@ -4089,8 +4427,12 @@
       <c r="C85" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="86" ht="24" spans="1:3">
+      <c r="D85" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A85,"', raion:'",B85,"',password:",C85,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №15', raion:'Краснодар',password:6079},</v>
+      </c>
+    </row>
+    <row r="86" ht="24" spans="1:4">
       <c r="A86" s="4" t="s">
         <v>189</v>
       </c>
@@ -4100,8 +4442,12 @@
       <c r="C86" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="87" ht="24" spans="1:3">
+      <c r="D86" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A86,"', raion:'",B86,"',password:",C86,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №16', raion:'Краснодар',password:0895},</v>
+      </c>
+    </row>
+    <row r="87" ht="24" spans="1:4">
       <c r="A87" s="4" t="s">
         <v>191</v>
       </c>
@@ -4111,8 +4457,12 @@
       <c r="C87" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="88" ht="24" spans="1:3">
+      <c r="D87" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A87,"', raion:'",B87,"',password:",C87,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №17', raion:'Краснодар',password:0357},</v>
+      </c>
+    </row>
+    <row r="88" ht="24" spans="1:4">
       <c r="A88" s="4" t="s">
         <v>193</v>
       </c>
@@ -4122,8 +4472,12 @@
       <c r="C88" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="89" ht="24" spans="1:3">
+      <c r="D88" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A88,"', raion:'",B88,"',password:",C88,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №19', raion:'Краснодар',password:7860},</v>
+      </c>
+    </row>
+    <row r="89" ht="24" spans="1:4">
       <c r="A89" s="4" t="s">
         <v>195</v>
       </c>
@@ -4133,8 +4487,12 @@
       <c r="C89" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="90" ht="24" spans="1:3">
+      <c r="D89" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A89,"', raion:'",B89,"',password:",C89,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №22', raion:'Краснодар',password:9497},</v>
+      </c>
+    </row>
+    <row r="90" ht="24" spans="1:4">
       <c r="A90" s="4" t="s">
         <v>197</v>
       </c>
@@ -4144,8 +4502,12 @@
       <c r="C90" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="91" ht="24" spans="1:3">
+      <c r="D90" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A90,"', raion:'",B90,"',password:",C90,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №25', raion:'Краснодар',password:0589},</v>
+      </c>
+    </row>
+    <row r="91" ht="24" spans="1:4">
       <c r="A91" s="4" t="s">
         <v>199</v>
       </c>
@@ -4155,8 +4517,12 @@
       <c r="C91" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="92" ht="24" spans="1:3">
+      <c r="D91" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A91,"', raion:'",B91,"',password:",C91,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №26', raion:'Краснодар',password:4097},</v>
+      </c>
+    </row>
+    <row r="92" ht="24" spans="1:4">
       <c r="A92" s="4" t="s">
         <v>201</v>
       </c>
@@ -4166,8 +4532,12 @@
       <c r="C92" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="93" ht="24" spans="1:3">
+      <c r="D92" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A92,"', raion:'",B92,"',password:",C92,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №23', raion:'Краснодар',password:6419},</v>
+      </c>
+    </row>
+    <row r="93" ht="24" spans="1:4">
       <c r="A93" s="4" t="s">
         <v>203</v>
       </c>
@@ -4177,8 +4547,12 @@
       <c r="C93" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="94" ht="24" spans="1:3">
+      <c r="D93" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A93,"', raion:'",B93,"',password:",C93,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №27', raion:'Краснодар',password:9846},</v>
+      </c>
+    </row>
+    <row r="94" ht="24" spans="1:4">
       <c r="A94" s="4" t="s">
         <v>205</v>
       </c>
@@ -4188,8 +4562,12 @@
       <c r="C94" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="95" ht="24" spans="1:3">
+      <c r="D94" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A94,"', raion:'",B94,"',password:",C94,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №1', raion:'Краснодар',password:0908},</v>
+      </c>
+    </row>
+    <row r="95" ht="24" spans="1:4">
       <c r="A95" s="4" t="s">
         <v>207</v>
       </c>
@@ -4199,8 +4577,12 @@
       <c r="C95" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="96" ht="24" spans="1:3">
+      <c r="D95" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A95,"', raion:'",B95,"',password:",C95,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №2', raion:'Краснодар',password:7821},</v>
+      </c>
+    </row>
+    <row r="96" ht="24" spans="1:4">
       <c r="A96" s="4" t="s">
         <v>209</v>
       </c>
@@ -4210,8 +4592,12 @@
       <c r="C96" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="97" ht="24" spans="1:3">
+      <c r="D96" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A96,"', raion:'",B96,"',password:",C96,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №4', raion:'Краснодар',password:6727},</v>
+      </c>
+    </row>
+    <row r="97" ht="24" spans="1:4">
       <c r="A97" s="4" t="s">
         <v>211</v>
       </c>
@@ -4221,8 +4607,12 @@
       <c r="C97" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="98" ht="24" spans="1:3">
+      <c r="D97" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A97,"', raion:'",B97,"',password:",C97,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №5', raion:'Краснодар',password:7280},</v>
+      </c>
+    </row>
+    <row r="98" ht="24" spans="1:4">
       <c r="A98" s="4" t="s">
         <v>213</v>
       </c>
@@ -4232,8 +4622,12 @@
       <c r="C98" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="99" ht="24" spans="1:3">
+      <c r="D98" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A98,"', raion:'",B98,"',password:",C98,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №6', raion:'Краснодар',password:2523},</v>
+      </c>
+    </row>
+    <row r="99" ht="24" spans="1:4">
       <c r="A99" s="4" t="s">
         <v>215</v>
       </c>
@@ -4243,8 +4637,12 @@
       <c r="C99" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="100" ht="24" spans="1:3">
+      <c r="D99" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A99,"', raion:'",B99,"',password:",C99,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №7', raion:'Краснодар',password:6816},</v>
+      </c>
+    </row>
+    <row r="100" ht="24" spans="1:4">
       <c r="A100" s="4" t="s">
         <v>217</v>
       </c>
@@ -4254,8 +4652,12 @@
       <c r="C100" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="101" ht="24" spans="1:3">
+      <c r="D100" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A100,"', raion:'",B100,"',password:",C100,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №8', raion:'Краснодар',password:9314},</v>
+      </c>
+    </row>
+    <row r="101" ht="24" spans="1:4">
       <c r="A101" s="4" t="s">
         <v>219</v>
       </c>
@@ -4265,8 +4667,12 @@
       <c r="C101" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="102" ht="24" spans="1:3">
+      <c r="D101" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A101,"', raion:'",B101,"',password:",C101,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №9', raion:'Краснодар',password:7451},</v>
+      </c>
+    </row>
+    <row r="102" ht="24" spans="1:4">
       <c r="A102" s="4" t="s">
         <v>221</v>
       </c>
@@ -4276,8 +4682,12 @@
       <c r="C102" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="103" ht="24" spans="1:3">
+      <c r="D102" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A102,"', raion:'",B102,"',password:",C102,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №3', raion:'Краснодар',password:6364},</v>
+      </c>
+    </row>
+    <row r="103" ht="24" spans="1:4">
       <c r="A103" s="7" t="s">
         <v>223</v>
       </c>
@@ -4287,8 +4697,12 @@
       <c r="C103" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="104" ht="36" spans="1:3">
+      <c r="D103" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A103,"', raion:'",B103,"',password:",C103,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Стоматологическая поликлиника №1', raion:'Краснодар',password:6010},</v>
+      </c>
+    </row>
+    <row r="104" ht="36" spans="1:4">
       <c r="A104" s="7" t="s">
         <v>225</v>
       </c>
@@ -4298,8 +4712,12 @@
       <c r="C104" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="105" ht="24" spans="1:3">
+      <c r="D104" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A104,"', raion:'",B104,"',password:",C104,"},")</f>
+        <v>{ username:'Муниципальное автономное учреждение здравоохранения муниципального образования город Краснодар Стоматологическая поликлиника №2', raion:'Краснодар',password:7180},</v>
+      </c>
+    </row>
+    <row r="105" ht="24" spans="1:4">
       <c r="A105" s="7" t="s">
         <v>227</v>
       </c>
@@ -4309,8 +4727,12 @@
       <c r="C105" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="106" ht="24" spans="1:3">
+      <c r="D105" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A105,"', raion:'",B105,"',password:",C105,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Стоматологическая поликлиника №3', raion:'Краснодар',password:6397},</v>
+      </c>
+    </row>
+    <row r="106" ht="24" spans="1:4">
       <c r="A106" s="7" t="s">
         <v>229</v>
       </c>
@@ -4320,8 +4742,12 @@
       <c r="C106" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="107" ht="24" spans="1:3">
+      <c r="D106" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A106,"', raion:'",B106,"',password:",C106,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская стоматологическая поликлиника №1', raion:'Краснодар',password:6193},</v>
+      </c>
+    </row>
+    <row r="107" ht="24" spans="1:4">
       <c r="A107" s="7" t="s">
         <v>231</v>
       </c>
@@ -4331,8 +4757,12 @@
       <c r="C107" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="108" ht="24" spans="1:3">
+      <c r="D107" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A107,"', raion:'",B107,"',password:",C107,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская стоматологическая поликлиника №2', raion:'Краснодар',password:5899},</v>
+      </c>
+    </row>
+    <row r="108" ht="24" spans="1:4">
       <c r="A108" s="7" t="s">
         <v>233</v>
       </c>
@@ -4342,8 +4772,12 @@
       <c r="C108" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="109" ht="24" spans="1:3">
+      <c r="D108" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A108,"', raion:'",B108,"',password:",C108,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская стоматологическая поликлиника №3', raion:'Краснодар',password:9248},</v>
+      </c>
+    </row>
+    <row r="109" ht="24" spans="1:4">
       <c r="A109" s="7" t="s">
         <v>235</v>
       </c>
@@ -4353,8 +4787,12 @@
       <c r="C109" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="110" ht="24" spans="1:3">
+      <c r="D109" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A109,"', raion:'",B109,"',password:",C109,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Центр восстановительной медицины и реабилитации', raion:'Краснодар',password:0505},</v>
+      </c>
+    </row>
+    <row r="110" ht="24" spans="1:4">
       <c r="A110" s="7" t="s">
         <v>237</v>
       </c>
@@ -4364,8 +4802,12 @@
       <c r="C110" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="111" ht="24" spans="1:3">
+      <c r="D110" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A110,"', raion:'",B110,"',password:",C110,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Центр реабилитации "Источник"', raion:'Краснодар',password:3073},</v>
+      </c>
+    </row>
+    <row r="111" ht="24" spans="1:4">
       <c r="A111" s="7" t="s">
         <v>239</v>
       </c>
@@ -4375,8 +4817,12 @@
       <c r="C111" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="112" ht="24" spans="1:3">
+      <c r="D111" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A111,"', raion:'",B111,"',password:",C111,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Родильный дом', raion:'Краснодар',password:5931},</v>
+      </c>
+    </row>
+    <row r="112" ht="24" spans="1:4">
       <c r="A112" s="7" t="s">
         <v>241</v>
       </c>
@@ -4386,8 +4832,12 @@
       <c r="C112" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="113" ht="24" spans="1:3">
+      <c r="D112" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A112,"', raion:'",B112,"',password:",C112,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Женская консультация', raion:'Краснодар',password:8799},</v>
+      </c>
+    </row>
+    <row r="113" ht="24" spans="1:4">
       <c r="A113" s="8" t="s">
         <v>243</v>
       </c>
@@ -4397,8 +4847,12 @@
       <c r="C113" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="114" ht="36" spans="1:3">
+      <c r="D113" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A113,"', raion:'",B113,"',password:",C113,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Бюро патологоанатомическое', raion:'Краснодар',password:6268},</v>
+      </c>
+    </row>
+    <row r="114" ht="36" spans="1:4">
       <c r="A114" s="4" t="s">
         <v>245</v>
       </c>
@@ -4408,8 +4862,12 @@
       <c r="C114" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="115" ht="36" spans="1:3">
+      <c r="D114" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A114,"', raion:'",B114,"',password:",C114,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Крыловская центральная районная больница" муниципального образования Крыловский район', raion:'Крыловский',password:8860},</v>
+      </c>
+    </row>
+    <row r="115" ht="36" spans="1:4">
       <c r="A115" s="7" t="s">
         <v>248</v>
       </c>
@@ -4419,8 +4877,12 @@
       <c r="C115" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="116" ht="36" spans="1:3">
+      <c r="D115" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A115,"', raion:'",B115,"',password:",C115,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Крыловская стоматологическая поликлиника муниципального образования Крыловский район', raion:'Крыловский',password:3204},</v>
+      </c>
+    </row>
+    <row r="116" ht="36" spans="1:4">
       <c r="A116" s="4" t="s">
         <v>250</v>
       </c>
@@ -4430,8 +4892,12 @@
       <c r="C116" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="117" ht="24" spans="1:3">
+      <c r="D116" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A116,"', raion:'",B116,"',password:",C116,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Крымская центральная районная больница" муниципального образования Крымский район', raion:'Крымский',password:3635},</v>
+      </c>
+    </row>
+    <row r="117" ht="24" spans="1:4">
       <c r="A117" s="4" t="s">
         <v>253</v>
       </c>
@@ -4441,8 +4907,12 @@
       <c r="C117" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="118" ht="24" spans="1:3">
+      <c r="D117" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A117,"', raion:'",B117,"',password:",C117,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Курганинская центральная районная больница"', raion:'Курганинский',password:2558},</v>
+      </c>
+    </row>
+    <row r="118" ht="24" spans="1:4">
       <c r="A118" s="7" t="s">
         <v>256</v>
       </c>
@@ -4452,8 +4922,12 @@
       <c r="C118" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="119" ht="24" spans="1:3">
+      <c r="D118" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A118,"', raion:'",B118,"',password:",C118,"},")</f>
+        <v>{ username:'Муниципальное автономное учреждение здравоохранения "Курганинская районная стоматологическая поликлиника"', raion:'Курганинский',password:3338},</v>
+      </c>
+    </row>
+    <row r="119" ht="24" spans="1:4">
       <c r="A119" s="4" t="s">
         <v>258</v>
       </c>
@@ -4463,8 +4937,12 @@
       <c r="C119" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="120" ht="24" spans="1:3">
+      <c r="D119" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A119,"', raion:'",B119,"',password:",C119,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Кущевская центральная районная больница"', raion:'Кущевский',password:2439},</v>
+      </c>
+    </row>
+    <row r="120" ht="24" spans="1:4">
       <c r="A120" s="7" t="s">
         <v>261</v>
       </c>
@@ -4474,8 +4952,12 @@
       <c r="C120" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="121" ht="36" spans="1:3">
+      <c r="D120" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A120,"', raion:'",B120,"',password:",C120,"},")</f>
+        <v>{ username:'Муниципальное автономное учреждение "Кущевская стоматологическая поликлиника" ', raion:'Кущевский',password:4200},</v>
+      </c>
+    </row>
+    <row r="121" ht="36" spans="1:4">
       <c r="A121" s="4" t="s">
         <v>263</v>
       </c>
@@ -4485,8 +4967,12 @@
       <c r="C121" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="122" ht="36" spans="1:3">
+      <c r="D121" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A121,"', raion:'",B121,"',password:",C121,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования  Лабинский район Краснодарского края "Центральная районная больница"', raion:'Лабинский',password:0360},</v>
+      </c>
+    </row>
+    <row r="122" ht="36" spans="1:4">
       <c r="A122" s="7" t="s">
         <v>266</v>
       </c>
@@ -4496,8 +4982,12 @@
       <c r="C122" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="123" ht="24" spans="1:3">
+      <c r="D122" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A122,"', raion:'",B122,"',password:",C122,"},")</f>
+        <v>{ username:'Муниципальное автономное учреждение здравоохранения муниципального образования Лабинский район "Стоматологическая поликлиника" ', raion:'Лабинский',password:3608},</v>
+      </c>
+    </row>
+    <row r="123" ht="24" spans="1:4">
       <c r="A123" s="4" t="s">
         <v>268</v>
       </c>
@@ -4507,8 +4997,12 @@
       <c r="C123" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="124" ht="24" spans="1:3">
+      <c r="D123" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A123,"', raion:'",B123,"',password:",C123,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Ленинградская центральная районная больница"', raion:'Ленинградский',password:0437},</v>
+      </c>
+    </row>
+    <row r="124" ht="24" spans="1:4">
       <c r="A124" s="4" t="s">
         <v>271</v>
       </c>
@@ -4518,8 +5012,12 @@
       <c r="C124" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="125" ht="24" spans="1:3">
+      <c r="D124" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A124,"', raion:'",B124,"',password:",C124,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Мостовская центральная районная больница"', raion:'Мостовский',password:1308},</v>
+      </c>
+    </row>
+    <row r="125" ht="24" spans="1:4">
       <c r="A125" s="4" t="s">
         <v>274</v>
       </c>
@@ -4529,8 +5027,12 @@
       <c r="C125" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="126" ht="24" spans="1:3">
+      <c r="D125" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A125,"', raion:'",B125,"',password:",C125,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница" Новокубанского района', raion:'Новокубанский',password:8626},</v>
+      </c>
+    </row>
+    <row r="126" ht="24" spans="1:4">
       <c r="A126" s="7" t="s">
         <v>277</v>
       </c>
@@ -4540,8 +5042,12 @@
       <c r="C126" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="127" ht="36" spans="1:3">
+      <c r="D126" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A126,"', raion:'",B126,"',password:",C126,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Новокубанская стоматологическая поликлиника"', raion:'Новокубанский',password:1308},</v>
+      </c>
+    </row>
+    <row r="127" ht="36" spans="1:4">
       <c r="A127" s="4" t="s">
         <v>278</v>
       </c>
@@ -4551,8 +5057,12 @@
       <c r="C127" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="128" ht="36" spans="1:3">
+      <c r="D127" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A127,"', raion:'",B127,"',password:",C127,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница муниципального образования Новопокровский район"', raion:'Новопокровский',password:7276},</v>
+      </c>
+    </row>
+    <row r="128" ht="36" spans="1:4">
       <c r="A128" s="4" t="s">
         <v>281</v>
       </c>
@@ -4562,8 +5072,12 @@
       <c r="C128" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="129" ht="36" spans="1:3">
+      <c r="D128" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A128,"', raion:'",B128,"',password:",C128,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская больница №1" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:0565},</v>
+      </c>
+    </row>
+    <row r="129" ht="36" spans="1:4">
       <c r="A129" s="4" t="s">
         <v>284</v>
       </c>
@@ -4573,8 +5087,12 @@
       <c r="C129" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="130" ht="36" spans="1:3">
+      <c r="D129" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A129,"', raion:'",B129,"',password:",C129,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская больница №2" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:4933},</v>
+      </c>
+    </row>
+    <row r="130" ht="36" spans="1:4">
       <c r="A130" s="4" t="s">
         <v>286</v>
       </c>
@@ -4584,8 +5102,12 @@
       <c r="C130" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="131" ht="36" spans="1:3">
+      <c r="D130" s="3" t="str">
+        <f t="shared" ref="D130:D193" si="2">CONCATENATE("{ username:'",A130,"', raion:'",B130,"',password:",C130,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская больница №3" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:4664},</v>
+      </c>
+    </row>
+    <row r="131" ht="36" spans="1:4">
       <c r="A131" s="4" t="s">
         <v>288</v>
       </c>
@@ -4595,8 +5117,12 @@
       <c r="C131" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="132" ht="36" spans="1:3">
+      <c r="D131" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A131,"', raion:'",B131,"',password:",C131,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская больница №4" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:7905},</v>
+      </c>
+    </row>
+    <row r="132" ht="36" spans="1:4">
       <c r="A132" s="4" t="s">
         <v>290</v>
       </c>
@@ -4606,8 +5132,12 @@
       <c r="C132" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="133" ht="36" spans="1:3">
+      <c r="D132" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A132,"', raion:'",B132,"',password:",C132,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Детская городская больница" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:1291},</v>
+      </c>
+    </row>
+    <row r="133" ht="36" spans="1:4">
       <c r="A133" s="4" t="s">
         <v>292</v>
       </c>
@@ -4617,8 +5147,12 @@
       <c r="C133" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="134" ht="36" spans="1:3">
+      <c r="D133" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A133,"', raion:'",B133,"',password:",C133,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Участковая больница" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:1701},</v>
+      </c>
+    </row>
+    <row r="134" ht="36" spans="1:4">
       <c r="A134" s="4" t="s">
         <v>294</v>
       </c>
@@ -4628,8 +5162,12 @@
       <c r="C134" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="135" ht="36" spans="1:3">
+      <c r="D134" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A134,"', raion:'",B134,"',password:",C134,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №1" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:2685},</v>
+      </c>
+    </row>
+    <row r="135" ht="36" spans="1:4">
       <c r="A135" s="4" t="s">
         <v>296</v>
       </c>
@@ -4639,8 +5177,12 @@
       <c r="C135" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="136" ht="36" spans="1:3">
+      <c r="D135" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A135,"', raion:'",B135,"',password:",C135,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №2" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:4429},</v>
+      </c>
+    </row>
+    <row r="136" ht="36" spans="1:4">
       <c r="A136" s="4" t="s">
         <v>298</v>
       </c>
@@ -4650,8 +5192,12 @@
       <c r="C136" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="137" ht="36" spans="1:3">
+      <c r="D136" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A136,"', raion:'",B136,"',password:",C136,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №3" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:5228},</v>
+      </c>
+    </row>
+    <row r="137" ht="36" spans="1:4">
       <c r="A137" s="4" t="s">
         <v>300</v>
       </c>
@@ -4661,8 +5207,12 @@
       <c r="C137" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="138" ht="36" spans="1:3">
+      <c r="D137" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A137,"', raion:'",B137,"',password:",C137,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №4" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:5139},</v>
+      </c>
+    </row>
+    <row r="138" ht="36" spans="1:4">
       <c r="A138" s="4" t="s">
         <v>302</v>
       </c>
@@ -4672,8 +5222,12 @@
       <c r="C138" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="139" ht="36" spans="1:3">
+      <c r="D138" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A138,"', raion:'",B138,"',password:",C138,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №5" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:2123},</v>
+      </c>
+    </row>
+    <row r="139" ht="36" spans="1:4">
       <c r="A139" s="4" t="s">
         <v>304</v>
       </c>
@@ -4683,8 +5237,12 @@
       <c r="C139" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="140" ht="24" spans="1:3">
+      <c r="D139" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A139,"', raion:'",B139,"',password:",C139,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №6" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:2393},</v>
+      </c>
+    </row>
+    <row r="140" ht="24" spans="1:4">
       <c r="A140" s="4" t="s">
         <v>306</v>
       </c>
@@ -4694,8 +5252,12 @@
       <c r="C140" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="141" ht="24" spans="1:3">
+      <c r="D140" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A140,"', raion:'",B140,"',password:",C140,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Амбулатория №1" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:0052},</v>
+      </c>
+    </row>
+    <row r="141" ht="24" spans="1:4">
       <c r="A141" s="4" t="s">
         <v>308</v>
       </c>
@@ -4705,8 +5267,12 @@
       <c r="C141" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="142" ht="24" spans="1:3">
+      <c r="D141" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A141,"', raion:'",B141,"',password:",C141,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Амбулатория №2" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:2590},</v>
+      </c>
+    </row>
+    <row r="142" ht="24" spans="1:4">
       <c r="A142" s="4" t="s">
         <v>310</v>
       </c>
@@ -4716,8 +5282,12 @@
       <c r="C142" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="143" ht="36" spans="1:3">
+      <c r="D142" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A142,"', raion:'",B142,"',password:",C142,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Амбулатория №3" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:3090},</v>
+      </c>
+    </row>
+    <row r="143" ht="36" spans="1:4">
       <c r="A143" s="4" t="s">
         <v>312</v>
       </c>
@@ -4727,8 +5297,12 @@
       <c r="C143" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="144" ht="36" spans="1:3">
+      <c r="D143" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A143,"', raion:'",B143,"',password:",C143,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Детская городская поликлиника" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:3609},</v>
+      </c>
+    </row>
+    <row r="144" ht="36" spans="1:4">
       <c r="A144" s="7" t="s">
         <v>314</v>
       </c>
@@ -4738,8 +5312,12 @@
       <c r="C144" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="145" ht="36" spans="1:3">
+      <c r="D144" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A144,"', raion:'",B144,"',password:",C144,"},")</f>
+        <v>{ username:'Муниципальное автономное учреждение "Стоматологическая поликлиника №1" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:6367},</v>
+      </c>
+    </row>
+    <row r="145" ht="36" spans="1:4">
       <c r="A145" s="7" t="s">
         <v>316</v>
       </c>
@@ -4749,8 +5327,12 @@
       <c r="C145" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="146" ht="36" spans="1:3">
+      <c r="D145" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A145,"', raion:'",B145,"',password:",C145,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Детская стоматологическая поликлиника" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:3264},</v>
+      </c>
+    </row>
+    <row r="146" ht="36" spans="1:4">
       <c r="A146" s="7" t="s">
         <v>318</v>
       </c>
@@ -4760,8 +5342,12 @@
       <c r="C146" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="147" ht="36" spans="1:3">
+      <c r="D146" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A146,"', raion:'",B146,"',password:",C146,"},")</f>
+        <v>{ username:'Муниципальное автономное учреждение "Клинико-диагностический центр" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:1699},</v>
+      </c>
+    </row>
+    <row r="147" ht="36" spans="1:4">
       <c r="A147" s="7" t="s">
         <v>320</v>
       </c>
@@ -4771,8 +5357,12 @@
       <c r="C147" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="148" ht="36" spans="1:3">
+      <c r="D147" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A147,"', raion:'",B147,"',password:",C147,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Станция скорой медицинской помощи" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:4651},</v>
+      </c>
+    </row>
+    <row r="148" ht="36" spans="1:4">
       <c r="A148" s="7" t="s">
         <v>322</v>
       </c>
@@ -4782,8 +5372,12 @@
       <c r="C148" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="149" ht="36" spans="1:3">
+      <c r="D148" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A148,"', raion:'",B148,"',password:",C148,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Перинатальный центр" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:1823},</v>
+      </c>
+    </row>
+    <row r="149" ht="36" spans="1:4">
       <c r="A149" s="8" t="s">
         <v>324</v>
       </c>
@@ -4793,8 +5387,12 @@
       <c r="C149" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="150" ht="24" spans="1:3">
+      <c r="D149" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A149,"', raion:'",B149,"',password:",C149,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Патологоанатомическое бюро" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:6365},</v>
+      </c>
+    </row>
+    <row r="150" ht="24" spans="1:4">
       <c r="A150" s="4" t="s">
         <v>326</v>
       </c>
@@ -4804,8 +5402,12 @@
       <c r="C150" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="151" ht="36" spans="1:3">
+      <c r="D150" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A150,"', raion:'",B150,"',password:",C150,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Отрадненская центральная районная больница"', raion:'Отрадненский',password:6394},</v>
+      </c>
+    </row>
+    <row r="151" ht="36" spans="1:4">
       <c r="A151" s="4" t="s">
         <v>329</v>
       </c>
@@ -4815,8 +5417,12 @@
       <c r="C151" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="152" ht="24" spans="1:3">
+      <c r="D151" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A151,"', raion:'",B151,"',password:",C151,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница" администрации муниципального образования Павловский район', raion:'Павловский',password:7233},</v>
+      </c>
+    </row>
+    <row r="152" ht="24" spans="1:4">
       <c r="A152" s="7" t="s">
         <v>332</v>
       </c>
@@ -4826,8 +5432,12 @@
       <c r="C152" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="153" ht="36" spans="1:3">
+      <c r="D152" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A152,"', raion:'",B152,"',password:",C152,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Павловская стоматологическая поликлиника"', raion:'Павловский',password:6786},</v>
+      </c>
+    </row>
+    <row r="153" ht="36" spans="1:4">
       <c r="A153" s="4" t="s">
         <v>334</v>
       </c>
@@ -4837,8 +5447,12 @@
       <c r="C153" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="154" ht="36" spans="1:3">
+      <c r="D153" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A153,"', raion:'",B153,"',password:",C153,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Приморско-Ахтарская центральная районная больница имени Кравченко Н.Г." ', raion:'Приморско-Ахтарский',password:0393},</v>
+      </c>
+    </row>
+    <row r="154" ht="36" spans="1:4">
       <c r="A154" s="7" t="s">
         <v>337</v>
       </c>
@@ -4848,8 +5462,12 @@
       <c r="C154" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="155" ht="36" spans="1:3">
+      <c r="D154" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A154,"', raion:'",B154,"',password:",C154,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Приморско-Ахтарского района "Районная стоматологическая поликлиника"', raion:'Приморско-Ахтарский',password:6620},</v>
+      </c>
+    </row>
+    <row r="155" ht="36" spans="1:4">
       <c r="A155" s="4" t="s">
         <v>339</v>
       </c>
@@ -4859,8 +5477,12 @@
       <c r="C155" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="156" ht="36" spans="1:3">
+      <c r="D155" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A155,"', raion:'",B155,"',password:",C155,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Северский район "Северская центральная районная больница" ', raion:'Северский',password:6240},</v>
+      </c>
+    </row>
+    <row r="156" ht="36" spans="1:4">
       <c r="A156" s="7" t="s">
         <v>342</v>
       </c>
@@ -4870,8 +5492,12 @@
       <c r="C156" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="157" ht="24" spans="1:3">
+      <c r="D156" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A156,"', raion:'",B156,"',password:",C156,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Северский район "Северская районная стоматологическая поликлиника" ', raion:'Северский',password:9822},</v>
+      </c>
+    </row>
+    <row r="157" ht="24" spans="1:4">
       <c r="A157" s="4" t="s">
         <v>344</v>
       </c>
@@ -4881,8 +5507,12 @@
       <c r="C157" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="158" ht="24" spans="1:3">
+      <c r="D157" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A157,"', raion:'",B157,"',password:",C157,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Славянская центральная районная больница"', raion:'Славянский',password:1241},</v>
+      </c>
+    </row>
+    <row r="158" ht="24" spans="1:4">
       <c r="A158" s="4" t="s">
         <v>347</v>
       </c>
@@ -4892,8 +5522,12 @@
       <c r="C158" s="3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="159" ht="24" spans="1:3">
+      <c r="D158" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A158,"', raion:'",B158,"',password:",C158,"},")</f>
+        <v>{ username:'Муниципальное автономное учреждение "Стоматологическая поликлиника" муниципального образования Славянский район', raion:'Славянский',password:3246},</v>
+      </c>
+    </row>
+    <row r="159" ht="24" spans="1:4">
       <c r="A159" s="6" t="s">
         <v>349</v>
       </c>
@@ -4903,8 +5537,12 @@
       <c r="C159" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="160" ht="24" spans="1:3">
+      <c r="D159" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A159,"', raion:'",B159,"',password:",C159,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №1"', raion:'Сочи',password:8704},</v>
+      </c>
+    </row>
+    <row r="160" ht="24" spans="1:4">
       <c r="A160" s="6" t="s">
         <v>352</v>
       </c>
@@ -4914,8 +5552,12 @@
       <c r="C160" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="161" ht="24" spans="1:3">
+      <c r="D160" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A160,"', raion:'",B160,"',password:",C160,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №2"', raion:'Сочи',password:9902},</v>
+      </c>
+    </row>
+    <row r="161" ht="24" spans="1:4">
       <c r="A161" s="6" t="s">
         <v>354</v>
       </c>
@@ -4925,8 +5567,12 @@
       <c r="C161" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="162" ht="24" spans="1:3">
+      <c r="D161" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A161,"', raion:'",B161,"',password:",C161,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №3"', raion:'Сочи',password:5811},</v>
+      </c>
+    </row>
+    <row r="162" ht="24" spans="1:4">
       <c r="A162" s="6" t="s">
         <v>356</v>
       </c>
@@ -4936,8 +5582,12 @@
       <c r="C162" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="163" ht="24" spans="1:3">
+      <c r="D162" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A162,"', raion:'",B162,"',password:",C162,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №4"', raion:'Сочи',password:9269},</v>
+      </c>
+    </row>
+    <row r="163" ht="24" spans="1:4">
       <c r="A163" s="6" t="s">
         <v>358</v>
       </c>
@@ -4947,8 +5597,12 @@
       <c r="C163" s="3" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="164" ht="24" spans="1:3">
+      <c r="D163" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A163,"', raion:'",B163,"',password:",C163,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №5"', raion:'Сочи',password:0521},</v>
+      </c>
+    </row>
+    <row r="164" ht="24" spans="1:4">
       <c r="A164" s="6" t="s">
         <v>360</v>
       </c>
@@ -4958,8 +5612,12 @@
       <c r="C164" s="3" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="165" ht="24" spans="1:3">
+      <c r="D164" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A164,"', raion:'",B164,"',password:",C164,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №7"', raion:'Сочи',password:5324},</v>
+      </c>
+    </row>
+    <row r="165" ht="24" spans="1:4">
       <c r="A165" s="7" t="s">
         <v>362</v>
       </c>
@@ -4969,8 +5627,12 @@
       <c r="C165" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="166" ht="24" spans="1:3">
+      <c r="D165" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A165,"', raion:'",B165,"',password:",C165,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №8"', raion:'Сочи',password:3649},</v>
+      </c>
+    </row>
+    <row r="166" ht="24" spans="1:4">
       <c r="A166" s="12" t="s">
         <v>364</v>
       </c>
@@ -4980,8 +5642,12 @@
       <c r="C166" s="3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="167" ht="24" spans="1:3">
+      <c r="D166" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A166,"', raion:'",B166,"',password:",C166,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №9"', raion:'Сочи',password:7558},</v>
+      </c>
+    </row>
+    <row r="167" ht="24" spans="1:4">
       <c r="A167" s="4" t="s">
         <v>366</v>
       </c>
@@ -4991,8 +5657,12 @@
       <c r="C167" s="3" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="168" ht="24" spans="1:3">
+      <c r="D167" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A167,"', raion:'",B167,"',password:",C167,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Участковая больница №3"', raion:'Сочи',password:7917},</v>
+      </c>
+    </row>
+    <row r="168" ht="24" spans="1:4">
       <c r="A168" s="4" t="s">
         <v>368</v>
       </c>
@@ -5002,8 +5672,12 @@
       <c r="C168" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="169" ht="24" spans="1:3">
+      <c r="D168" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A168,"', raion:'",B168,"',password:",C168,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская поликлиника №1"', raion:'Сочи',password:9550},</v>
+      </c>
+    </row>
+    <row r="169" ht="24" spans="1:4">
       <c r="A169" s="4" t="s">
         <v>370</v>
       </c>
@@ -5013,8 +5687,12 @@
       <c r="C169" s="3" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="170" ht="24" spans="1:3">
+      <c r="D169" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A169,"', raion:'",B169,"',password:",C169,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская поликлиника №2"', raion:'Сочи',password:4867},</v>
+      </c>
+    </row>
+    <row r="170" ht="24" spans="1:4">
       <c r="A170" s="4" t="s">
         <v>372</v>
       </c>
@@ -5024,8 +5702,12 @@
       <c r="C170" s="3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="171" ht="24" spans="1:3">
+      <c r="D170" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A170,"', raion:'",B170,"',password:",C170,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская поликлиника №4"', raion:'Сочи',password:4105},</v>
+      </c>
+    </row>
+    <row r="171" ht="24" spans="1:4">
       <c r="A171" s="4" t="s">
         <v>374</v>
       </c>
@@ -5035,8 +5717,12 @@
       <c r="C171" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="172" ht="24" spans="1:3">
+      <c r="D171" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A171,"', raion:'",B171,"',password:",C171,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская поликлиника №5"', raion:'Сочи',password:8685},</v>
+      </c>
+    </row>
+    <row r="172" ht="24" spans="1:4">
       <c r="A172" s="7" t="s">
         <v>376</v>
       </c>
@@ -5046,8 +5732,12 @@
       <c r="C172" s="3" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="173" ht="24" spans="1:3">
+      <c r="D172" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A172,"', raion:'",B172,"',password:",C172,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Стоматологическая поликлиника №1"', raion:'Сочи',password:0886},</v>
+      </c>
+    </row>
+    <row r="173" ht="24" spans="1:4">
       <c r="A173" s="7" t="s">
         <v>378</v>
       </c>
@@ -5057,8 +5747,12 @@
       <c r="C173" s="3" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="174" ht="24" spans="1:3">
+      <c r="D173" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A173,"', raion:'",B173,"',password:",C173,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Стоматологическая поликлиника №2"', raion:'Сочи',password:0486},</v>
+      </c>
+    </row>
+    <row r="174" ht="24" spans="1:4">
       <c r="A174" s="7" t="s">
         <v>380</v>
       </c>
@@ -5068,8 +5762,12 @@
       <c r="C174" s="3" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="175" ht="24" spans="1:3">
+      <c r="D174" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A174,"', raion:'",B174,"',password:",C174,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Стоматологическая поликлиника №3"', raion:'Сочи',password:3682},</v>
+      </c>
+    </row>
+    <row r="175" ht="24" spans="1:4">
       <c r="A175" s="7" t="s">
         <v>382</v>
       </c>
@@ -5079,8 +5777,12 @@
       <c r="C175" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="176" ht="24" spans="1:3">
+      <c r="D175" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A175,"', raion:'",B175,"',password:",C175,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Стоматологическая поликлиника №4"', raion:'Сочи',password:4088},</v>
+      </c>
+    </row>
+    <row r="176" ht="24" spans="1:4">
       <c r="A176" s="7" t="s">
         <v>384</v>
       </c>
@@ -5090,8 +5792,12 @@
       <c r="C176" s="3" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="177" ht="24" spans="1:3">
+      <c r="D176" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A176,"', raion:'",B176,"',password:",C176,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Детская стоматологическая поликлиника"', raion:'Сочи',password:5005},</v>
+      </c>
+    </row>
+    <row r="177" ht="24" spans="1:4">
       <c r="A177" s="7" t="s">
         <v>386</v>
       </c>
@@ -5101,8 +5807,12 @@
       <c r="C177" s="3" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="178" ht="24" spans="1:3">
+      <c r="D177" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A177,"', raion:'",B177,"',password:",C177,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Станция скорой медицинской помощи"', raion:'Сочи',password:4875},</v>
+      </c>
+    </row>
+    <row r="178" ht="24" spans="1:4">
       <c r="A178" s="8" t="s">
         <v>388</v>
       </c>
@@ -5112,8 +5822,12 @@
       <c r="C178" s="3" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="179" ht="24" spans="1:3">
+      <c r="D178" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A178,"', raion:'",B178,"',password:",C178,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Центр медицинской профилактики"', raion:'Сочи',password:5164},</v>
+      </c>
+    </row>
+    <row r="179" ht="24" spans="1:4">
       <c r="A179" s="8" t="s">
         <v>390</v>
       </c>
@@ -5123,8 +5837,12 @@
       <c r="C179" s="3" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="180" ht="36" spans="1:3">
+      <c r="D179" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A179,"', raion:'",B179,"',password:",C179,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Бюро медицинской статистики"', raion:'Сочи',password:4323},</v>
+      </c>
+    </row>
+    <row r="180" ht="36" spans="1:4">
       <c r="A180" s="4" t="s">
         <v>392</v>
       </c>
@@ -5134,8 +5852,12 @@
       <c r="C180" s="3" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="181" ht="24" spans="1:3">
+      <c r="D180" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A180,"', raion:'",B180,"',password:",C180,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница муниципального образования Староминский район"', raion:'Староминский',password:3757},</v>
+      </c>
+    </row>
+    <row r="181" ht="24" spans="1:4">
       <c r="A181" s="4" t="s">
         <v>395</v>
       </c>
@@ -5145,8 +5867,12 @@
       <c r="C181" s="3" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="182" ht="36" spans="1:3">
+      <c r="D181" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A181,"', raion:'",B181,"',password:",C181,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Тбилисская центральная районная больница"', raion:'Тбилисский',password:5989},</v>
+      </c>
+    </row>
+    <row r="182" ht="36" spans="1:4">
       <c r="A182" s="4" t="s">
         <v>398</v>
       </c>
@@ -5156,8 +5882,12 @@
       <c r="C182" s="3" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="183" ht="24" spans="1:3">
+      <c r="D182" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A182,"', raion:'",B182,"',password:",C182,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница муниципального образования Темрюкский район"', raion:'Темрюкский',password:5012},</v>
+      </c>
+    </row>
+    <row r="183" ht="24" spans="1:4">
       <c r="A183" s="4" t="s">
         <v>401</v>
       </c>
@@ -5167,8 +5897,12 @@
       <c r="C183" s="3" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="184" ht="36" spans="1:3">
+      <c r="D183" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A183,"', raion:'",B183,"',password:",C183,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Тимашевская центральная районная больница"', raion:'Тимашевский',password:5962},</v>
+      </c>
+    </row>
+    <row r="184" ht="36" spans="1:4">
       <c r="A184" s="4" t="s">
         <v>404</v>
       </c>
@@ -5178,8 +5912,12 @@
       <c r="C184" s="3" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="185" ht="24" spans="1:3">
+      <c r="D184" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A184,"', raion:'",B184,"',password:",C184,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Тихорецкая центральная районная больница" муниципального образования Тихорецкий район', raion:'Тихорецкий',password:0288},</v>
+      </c>
+    </row>
+    <row r="185" ht="24" spans="1:4">
       <c r="A185" s="4" t="s">
         <v>407</v>
       </c>
@@ -5189,8 +5927,12 @@
       <c r="C185" s="3" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="186" ht="24" spans="1:3">
+      <c r="D185" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A185,"', raion:'",B185,"',password:",C185,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Туапсинская районная больница №1" ', raion:'Туапсинский',password:0066},</v>
+      </c>
+    </row>
+    <row r="186" ht="24" spans="1:4">
       <c r="A186" s="4" t="s">
         <v>410</v>
       </c>
@@ -5200,8 +5942,12 @@
       <c r="C186" s="3" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="187" ht="24" spans="1:3">
+      <c r="D186" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A186,"', raion:'",B186,"',password:",C186,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Туапсинская районная больница №2" ', raion:'Туапсинский',password:9601},</v>
+      </c>
+    </row>
+    <row r="187" ht="24" spans="1:4">
       <c r="A187" s="4" t="s">
         <v>412</v>
       </c>
@@ -5211,8 +5957,12 @@
       <c r="C187" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="188" ht="24" spans="1:3">
+      <c r="D187" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A187,"', raion:'",B187,"',password:",C187,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Туапсинская районная больница №3" ', raion:'Туапсинский',password:8423},</v>
+      </c>
+    </row>
+    <row r="188" ht="24" spans="1:4">
       <c r="A188" s="4" t="s">
         <v>414</v>
       </c>
@@ -5222,8 +5972,12 @@
       <c r="C188" s="3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="189" ht="36" spans="1:3">
+      <c r="D188" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A188,"', raion:'",B188,"',password:",C188,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Туапсинская стоматологическая поликлиника" ', raion:'Туапсинский',password:4695},</v>
+      </c>
+    </row>
+    <row r="189" ht="36" spans="1:4">
       <c r="A189" s="7" t="s">
         <v>416</v>
       </c>
@@ -5233,8 +5987,12 @@
       <c r="C189" s="3" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="190" ht="36" spans="1:3">
+      <c r="D189" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A189,"', raion:'",B189,"',password:",C189,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Станция скорой медицинской помощи" муниципального образования Туапсинский район', raion:'Туапсинский',password:0746},</v>
+      </c>
+    </row>
+    <row r="190" ht="36" spans="1:4">
       <c r="A190" s="4" t="s">
         <v>418</v>
       </c>
@@ -5244,8 +6002,12 @@
       <c r="C190" s="3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="191" ht="24" spans="1:3">
+      <c r="D190" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A190,"', raion:'",B190,"',password:",C190,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Успенская центральная районная больница" администрации муниципального образования Успенский район', raion:'Успенский',password:1881},</v>
+      </c>
+    </row>
+    <row r="191" ht="24" spans="1:4">
       <c r="A191" s="4" t="s">
         <v>421</v>
       </c>
@@ -5255,8 +6017,12 @@
       <c r="C191" s="3" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="192" ht="24" spans="1:3">
+      <c r="D191" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A191,"', raion:'",B191,"',password:",C191,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница" Усть-Лабинского района', raion:'Усть-лабинский',password:4350},</v>
+      </c>
+    </row>
+    <row r="192" ht="24" spans="1:4">
       <c r="A192" s="7" t="s">
         <v>424</v>
       </c>
@@ -5266,8 +6032,12 @@
       <c r="C192" s="3" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="193" ht="36" spans="1:3">
+      <c r="D192" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A192,"', raion:'",B192,"',password:",C192,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Стоматологическая поликлиника" Усть-Лабинского района', raion:'Усть-Лабинский',password:7234},</v>
+      </c>
+    </row>
+    <row r="193" ht="36" spans="1:4">
       <c r="A193" s="4" t="s">
         <v>427</v>
       </c>
@@ -5277,8 +6047,12 @@
       <c r="C193" s="3" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="194" customHeight="1" spans="1:3">
+      <c r="D193" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A193,"', raion:'",B193,"',password:",C193,"},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Центральная районная больница муниципального образования Щербиновский район', raion:'Щербиновский',password:4524},</v>
+      </c>
+    </row>
+    <row r="194" customHeight="1" spans="1:4">
       <c r="A194" s="8" t="s">
         <v>430</v>
       </c>
@@ -5288,8 +6062,12 @@
       <c r="C194" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="195" ht="36" spans="1:3">
+      <c r="D194" s="3" t="str">
+        <f t="shared" ref="D194:D257" si="3">CONCATENATE("{ username:'",A194,"', raion:'",B194,"',password:",C194,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевой медицинский центр мобилизационных резервов "Резерв"" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5312},</v>
+      </c>
+    </row>
+    <row r="195" ht="36" spans="1:4">
       <c r="A195" s="4" t="s">
         <v>432</v>
       </c>
@@ -5299,8 +6077,12 @@
       <c r="C195" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="196" ht="36" spans="1:3">
+      <c r="D195" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A195,"', raion:'",B195,"',password:",C195,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевая клиническая больница №1 имени профессора С.В.Очаповского" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:0335},</v>
+      </c>
+    </row>
+    <row r="196" ht="36" spans="1:4">
       <c r="A196" s="4" t="s">
         <v>434</v>
       </c>
@@ -5310,8 +6092,12 @@
       <c r="C196" s="3" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="197" ht="36" spans="1:3">
+      <c r="D196" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A196,"', raion:'",B196,"',password:",C196,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детская краевая клиническая больница" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5613},</v>
+      </c>
+    </row>
+    <row r="197" ht="36" spans="1:4">
       <c r="A197" s="6" t="s">
         <v>436</v>
       </c>
@@ -5321,8 +6107,12 @@
       <c r="C197" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="198" ht="36" spans="1:3">
+      <c r="D197" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A197,"', raion:'",B197,"',password:",C197,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевая клиническая больница №2" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:7866},</v>
+      </c>
+    </row>
+    <row r="198" ht="36" spans="1:4">
       <c r="A198" s="6" t="s">
         <v>438</v>
       </c>
@@ -5332,8 +6122,12 @@
       <c r="C198" s="3" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="199" ht="36" spans="1:3">
+      <c r="D198" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A198,"', raion:'",B198,"',password:",C198,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевая больница №4" министерства здравоохранения Краснодарского края', raion:'Сочи',password:8547},</v>
+      </c>
+    </row>
+    <row r="199" ht="36" spans="1:4">
       <c r="A199" s="4" t="s">
         <v>440</v>
       </c>
@@ -5343,8 +6137,12 @@
       <c r="C199" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="200" ht="36" spans="1:3">
+      <c r="D199" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A199,"', raion:'",B199,"',password:",C199,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевой клинический госпиталь для ветеранов войн им. проф. В.К.Красовитова" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:6777},</v>
+      </c>
+    </row>
+    <row r="200" ht="36" spans="1:4">
       <c r="A200" s="4" t="s">
         <v>442</v>
       </c>
@@ -5354,8 +6152,12 @@
       <c r="C200" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="201" ht="36" spans="1:3">
+      <c r="D200" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A200,"', raion:'",B200,"',password:",C200,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная клиническая инфекционная больница" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:9449},</v>
+      </c>
+    </row>
+    <row r="201" ht="36" spans="1:4">
       <c r="A201" s="4" t="s">
         <v>444</v>
       </c>
@@ -5365,8 +6167,12 @@
       <c r="C201" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="202" ht="36" spans="1:3">
+      <c r="D201" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A201,"', raion:'",B201,"',password:",C201,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная клиническая детская инфекционная больница" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5534},</v>
+      </c>
+    </row>
+    <row r="202" ht="36" spans="1:4">
       <c r="A202" s="4" t="s">
         <v>446</v>
       </c>
@@ -5376,8 +6182,12 @@
       <c r="C202" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="203" ht="36" spans="1:3">
+      <c r="D202" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A202,"', raion:'",B202,"',password:",C202,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Инфекционная больница №4" министерства здравоохранения Краснодарского края', raion:'Армавир',password:1725},</v>
+      </c>
+    </row>
+    <row r="203" ht="36" spans="1:4">
       <c r="A203" s="4" t="s">
         <v>448</v>
       </c>
@@ -5387,8 +6197,12 @@
       <c r="C203" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="204" ht="36" spans="1:3">
+      <c r="D203" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A203,"', raion:'",B203,"',password:",C203,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Инфекционная больница №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:9336},</v>
+      </c>
+    </row>
+    <row r="204" ht="36" spans="1:4">
       <c r="A204" s="4" t="s">
         <v>450</v>
       </c>
@@ -5398,8 +6212,12 @@
       <c r="C204" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="205" ht="36" spans="1:3">
+      <c r="D204" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A204,"', raion:'",B204,"',password:",C204,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Инфекционная больница №3" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:5545},</v>
+      </c>
+    </row>
+    <row r="205" ht="36" spans="1:4">
       <c r="A205" s="4" t="s">
         <v>452</v>
       </c>
@@ -5409,8 +6227,12 @@
       <c r="C205" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="206" ht="24" spans="1:3">
+      <c r="D205" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A205,"', raion:'",B205,"',password:",C205,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевая больница №3" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:3079},</v>
+      </c>
+    </row>
+    <row r="206" ht="24" spans="1:4">
       <c r="A206" s="4" t="s">
         <v>454</v>
       </c>
@@ -5420,8 +6242,12 @@
       <c r="C206" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="207" ht="36" spans="1:3">
+      <c r="D206" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A206,"', raion:'",B206,"',password:",C206,"},")</f>
+        <v>{ username:'Государственное казенное учреждение здравоохранения "Лепрозорий" министерства здравоохранения Краснодарского края', raion:'Абинский',password:0473},</v>
+      </c>
+    </row>
+    <row r="207" ht="36" spans="1:4">
       <c r="A207" s="4" t="s">
         <v>456</v>
       </c>
@@ -5431,8 +6257,12 @@
       <c r="C207" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="208" ht="36" spans="1:3">
+      <c r="D207" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A207,"', raion:'",B207,"',password:",C207,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная клиническая психиатрическая больница №1" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:3128},</v>
+      </c>
+    </row>
+    <row r="208" ht="36" spans="1:4">
       <c r="A208" s="4" t="s">
         <v>458</v>
       </c>
@@ -5442,8 +6272,12 @@
       <c r="C208" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="209" ht="36" spans="1:3">
+      <c r="D208" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A208,"', raion:'",B208,"',password:",C208,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №2" министерства здравоохранения Краснодарского края', raion:'Абинский',password:4546},</v>
+      </c>
+    </row>
+    <row r="209" ht="36" spans="1:4">
       <c r="A209" s="4" t="s">
         <v>460</v>
       </c>
@@ -5453,8 +6287,12 @@
       <c r="C209" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="210" ht="36" spans="1:3">
+      <c r="D209" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A209,"', raion:'",B209,"',password:",C209,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №3" министерства здравоохранения Краснодарского края', raion:'Кущевский',password:0860},</v>
+      </c>
+    </row>
+    <row r="210" ht="36" spans="1:4">
       <c r="A210" s="4" t="s">
         <v>462</v>
       </c>
@@ -5464,8 +6302,12 @@
       <c r="C210" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="211" ht="36" spans="1:3">
+      <c r="D210" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A210,"', raion:'",B210,"',password:",C210,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №4" министерства здравоохранения Краснодарского края', raion:'Приморско-Ахтарский',password:8543},</v>
+      </c>
+    </row>
+    <row r="211" ht="36" spans="1:4">
       <c r="A211" s="4" t="s">
         <v>464</v>
       </c>
@@ -5475,8 +6317,12 @@
       <c r="C211" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="212" ht="36" spans="1:3">
+      <c r="D211" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A211,"', raion:'",B211,"',password:",C211,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №5" министерства здравоохранения Краснодарского края', raion:'Усть-Лабинский',password:4127},</v>
+      </c>
+    </row>
+    <row r="212" ht="36" spans="1:4">
       <c r="A212" s="4" t="s">
         <v>466</v>
       </c>
@@ -5486,8 +6332,12 @@
       <c r="C212" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="213" ht="36" spans="1:3">
+      <c r="D212" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A212,"', raion:'",B212,"',password:",C212,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №6" министерства здравоохранения Краснодарского края', raion:'Отрадненский',password:3805},</v>
+      </c>
+    </row>
+    <row r="213" ht="36" spans="1:4">
       <c r="A213" s="4" t="s">
         <v>468</v>
       </c>
@@ -5497,8 +6347,12 @@
       <c r="C213" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="214" ht="36" spans="1:3">
+      <c r="D213" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A213,"', raion:'",B213,"',password:",C213,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №7" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:6975},</v>
+      </c>
+    </row>
+    <row r="214" ht="36" spans="1:4">
       <c r="A214" s="4" t="s">
         <v>470</v>
       </c>
@@ -5508,8 +6362,12 @@
       <c r="C214" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="215" ht="36" spans="1:3">
+      <c r="D214" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A214,"', raion:'",B214,"',password:",C214,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психоневрологическая больница" министерства здравоохранения Краснодарского края', raion:'Выселковский',password:8778},</v>
+      </c>
+    </row>
+    <row r="215" ht="36" spans="1:4">
       <c r="A215" s="4" t="s">
         <v>472</v>
       </c>
@@ -5519,8 +6377,12 @@
       <c r="C215" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="216" ht="36" spans="1:3">
+      <c r="D215" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A215,"', raion:'",B215,"',password:",C215,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная наркологическая больница" министерства здравоохранения Краснодарского края', raion:'Красноармейский',password:5457},</v>
+      </c>
+    </row>
+    <row r="216" ht="36" spans="1:4">
       <c r="A216" s="4" t="s">
         <v>474</v>
       </c>
@@ -5530,8 +6392,12 @@
       <c r="C216" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="217" ht="36" spans="1:3">
+      <c r="D216" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A216,"', raion:'",B216,"',password:",C216,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Клинический противотуберкулезный диспансер" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:1414},</v>
+      </c>
+    </row>
+    <row r="217" ht="36" spans="1:4">
       <c r="A217" s="4" t="s">
         <v>476</v>
       </c>
@@ -5541,8 +6407,12 @@
       <c r="C217" s="3" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="218" ht="36" spans="1:3">
+      <c r="D217" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A217,"', raion:'",B217,"',password:",C217,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Армавирский противотуберкулезный диспансер" министерства здравоохранения Краснодарского края', raion:'Армавир',password:5692},</v>
+      </c>
+    </row>
+    <row r="218" ht="36" spans="1:4">
       <c r="A218" s="4" t="s">
         <v>478</v>
       </c>
@@ -5552,8 +6422,12 @@
       <c r="C218" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="219" ht="36" spans="1:3">
+      <c r="D218" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A218,"', raion:'",B218,"',password:",C218,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №1" министерства здравоохранения Краснодарского края', raion:'Сочи',password:5070},</v>
+      </c>
+    </row>
+    <row r="219" ht="36" spans="1:4">
       <c r="A219" s="4" t="s">
         <v>480</v>
       </c>
@@ -5563,8 +6437,12 @@
       <c r="C219" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="220" ht="36" spans="1:3">
+      <c r="D219" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A219,"', raion:'",B219,"',password:",C219,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:5208},</v>
+      </c>
+    </row>
+    <row r="220" ht="36" spans="1:4">
       <c r="A220" s="4" t="s">
         <v>481</v>
       </c>
@@ -5574,8 +6452,12 @@
       <c r="C220" s="3" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="221" ht="36" spans="1:3">
+      <c r="D220" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A220,"', raion:'",B220,"',password:",C220,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №4" министерства здравоохранения Краснодарского края', raion:'Кавказский',password:9647},</v>
+      </c>
+    </row>
+    <row r="221" ht="36" spans="1:4">
       <c r="A221" s="4" t="s">
         <v>483</v>
       </c>
@@ -5585,8 +6467,12 @@
       <c r="C221" s="3" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="222" ht="36" spans="1:3">
+      <c r="D221" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A221,"', raion:'",B221,"',password:",C221,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №6" министерства здравоохранения Краснодарского края', raion:'Белореченский',password:4273},</v>
+      </c>
+    </row>
+    <row r="222" ht="36" spans="1:4">
       <c r="A222" s="4" t="s">
         <v>485</v>
       </c>
@@ -5596,8 +6482,12 @@
       <c r="C222" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="223" ht="36" spans="1:3">
+      <c r="D222" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A222,"', raion:'",B222,"',password:",C222,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №7" министерства здравоохранения Краснодарского края', raion:'Ейский',password:6568},</v>
+      </c>
+    </row>
+    <row r="223" ht="36" spans="1:4">
       <c r="A223" s="4" t="s">
         <v>487</v>
       </c>
@@ -5607,8 +6497,12 @@
       <c r="C223" s="3" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="224" ht="36" spans="1:3">
+      <c r="D223" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A223,"', raion:'",B223,"',password:",C223,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №10" министерства здравоохранения Краснодарского края', raion:'Туапсинский',password:7528},</v>
+      </c>
+    </row>
+    <row r="224" ht="36" spans="1:4">
       <c r="A224" s="4" t="s">
         <v>489</v>
       </c>
@@ -5618,8 +6512,12 @@
       <c r="C224" s="3" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="225" ht="36" spans="1:3">
+      <c r="D224" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A224,"', raion:'",B224,"',password:",C224,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №12" министерства здравоохранения Краснодарского края', raion:'Славянский',password:2812},</v>
+      </c>
+    </row>
+    <row r="225" ht="36" spans="1:4">
       <c r="A225" s="4" t="s">
         <v>491</v>
       </c>
@@ -5629,8 +6527,12 @@
       <c r="C225" s="3" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="226" ht="36" spans="1:3">
+      <c r="D225" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A225,"', raion:'",B225,"',password:",C225,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №13" министерства здравоохранения Краснодарского края', raion:'Выселковский',password:6326},</v>
+      </c>
+    </row>
+    <row r="226" ht="36" spans="1:4">
       <c r="A226" s="4" t="s">
         <v>493</v>
       </c>
@@ -5640,8 +6542,12 @@
       <c r="C226" s="3" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="227" ht="36" spans="1:3">
+      <c r="D226" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A226,"', raion:'",B226,"',password:",C226,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №14" министерства здравоохранения Краснодарского края', raion:'Усть-Лабинский',password:6034},</v>
+      </c>
+    </row>
+    <row r="227" ht="36" spans="1:4">
       <c r="A227" s="4" t="s">
         <v>495</v>
       </c>
@@ -5651,8 +6557,12 @@
       <c r="C227" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="228" ht="36" spans="1:3">
+      <c r="D227" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A227,"', raion:'",B227,"',password:",C227,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №16" министерства здравоохранения Краснодарского края', raion:'Староминский',password:9336},</v>
+      </c>
+    </row>
+    <row r="228" ht="36" spans="1:4">
       <c r="A228" s="4" t="s">
         <v>496</v>
       </c>
@@ -5662,8 +6572,12 @@
       <c r="C228" s="3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="229" ht="36" spans="1:3">
+      <c r="D228" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A228,"', raion:'",B228,"',password:",C228,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №18" министерства здравоохранения Краснодарского края', raion:'Кущевский',password:1146},</v>
+      </c>
+    </row>
+    <row r="229" ht="36" spans="1:4">
       <c r="A229" s="7" t="s">
         <v>498</v>
       </c>
@@ -5673,8 +6587,12 @@
       <c r="C229" s="3" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="230" ht="36" spans="1:3">
+      <c r="D229" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A229,"', raion:'",B229,"',password:",C229,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №20" министерства здравоохранения Краснодарского края', raion:'Крымский',password:3808},</v>
+      </c>
+    </row>
+    <row r="230" ht="36" spans="1:4">
       <c r="A230" s="4" t="s">
         <v>500</v>
       </c>
@@ -5684,8 +6602,12 @@
       <c r="C230" s="3" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="231" ht="36" spans="1:3">
+      <c r="D230" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A230,"', raion:'",B230,"',password:",C230,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №23" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:9867},</v>
+      </c>
+    </row>
+    <row r="231" ht="36" spans="1:4">
       <c r="A231" s="4" t="s">
         <v>502</v>
       </c>
@@ -5695,8 +6617,12 @@
       <c r="C231" s="3" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="232" ht="36" spans="1:3">
+      <c r="D231" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A231,"', raion:'",B231,"',password:",C231,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №3" министерства здравоохранения Краснодарского края', raion:'Сочи',password:6902},</v>
+      </c>
+    </row>
+    <row r="232" ht="36" spans="1:4">
       <c r="A232" s="4" t="s">
         <v>504</v>
       </c>
@@ -5706,8 +6632,12 @@
       <c r="C232" s="3" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="233" ht="36" spans="1:3">
+      <c r="D232" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A232,"', raion:'",B232,"',password:",C232,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Клинический онкологический диспансер №1" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5474},</v>
+      </c>
+    </row>
+    <row r="233" ht="36" spans="1:4">
       <c r="A233" s="4" t="s">
         <v>506</v>
       </c>
@@ -5717,8 +6647,12 @@
       <c r="C233" s="3" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="234" ht="36" spans="1:3">
+      <c r="D233" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A233,"', raion:'",B233,"',password:",C233,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Армавирский онкологический диспансер" министерства здравоохранения Краснодарского края', raion:'Армавир',password:3146},</v>
+      </c>
+    </row>
+    <row r="234" ht="36" spans="1:4">
       <c r="A234" s="4" t="s">
         <v>508</v>
       </c>
@@ -5728,8 +6662,12 @@
       <c r="C234" s="3" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="235" ht="36" spans="1:3">
+      <c r="D234" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A234,"', raion:'",B234,"',password:",C234,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Онкологический диспансер №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:0873},</v>
+      </c>
+    </row>
+    <row r="235" ht="36" spans="1:4">
       <c r="A235" s="4" t="s">
         <v>510</v>
       </c>
@@ -5739,8 +6677,12 @@
       <c r="C235" s="3" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="236" ht="36" spans="1:3">
+      <c r="D235" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A235,"', raion:'",B235,"',password:",C235,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Онкологический диспансер №3" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:1771},</v>
+      </c>
+    </row>
+    <row r="236" ht="36" spans="1:4">
       <c r="A236" s="4" t="s">
         <v>512</v>
       </c>
@@ -5750,8 +6692,12 @@
       <c r="C236" s="3" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="237" ht="36" spans="1:3">
+      <c r="D236" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A236,"', raion:'",B236,"',password:",C236,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Онкологический диспансер №4" министерства здравоохранения Краснодарского края', raion:'Ейский',password:8530},</v>
+      </c>
+    </row>
+    <row r="237" ht="36" spans="1:4">
       <c r="A237" s="4" t="s">
         <v>514</v>
       </c>
@@ -5761,8 +6707,12 @@
       <c r="C237" s="3" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="238" ht="36" spans="1:3">
+      <c r="D237" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A237,"', raion:'",B237,"',password:",C237,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Клинический кожно-венерологический диспансер" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:0154},</v>
+      </c>
+    </row>
+    <row r="238" ht="36" spans="1:4">
       <c r="A238" s="4" t="s">
         <v>516</v>
       </c>
@@ -5772,8 +6722,12 @@
       <c r="C238" s="3" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="239" ht="36" spans="1:3">
+      <c r="D238" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A238,"', raion:'",B238,"',password:",C238,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Кожно-венерологический диспансер №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:1178},</v>
+      </c>
+    </row>
+    <row r="239" ht="36" spans="1:4">
       <c r="A239" s="4" t="s">
         <v>518</v>
       </c>
@@ -5783,8 +6737,12 @@
       <c r="C239" s="3" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="240" ht="36" spans="1:3">
+      <c r="D239" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A239,"', raion:'",B239,"',password:",C239,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Кожно-венерологический диспансер №8" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:8069},</v>
+      </c>
+    </row>
+    <row r="240" ht="36" spans="1:4">
       <c r="A240" s="4" t="s">
         <v>520</v>
       </c>
@@ -5794,8 +6752,12 @@
       <c r="C240" s="3" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="241" ht="36" spans="1:3">
+      <c r="D240" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A240,"', raion:'",B240,"',password:",C240,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Армавирский кожно-венерологический диспансер" министерства здравоохранения Краснодарского края', raion:'Армавир',password:2501},</v>
+      </c>
+    </row>
+    <row r="241" ht="36" spans="1:4">
       <c r="A241" s="4" t="s">
         <v>522</v>
       </c>
@@ -5805,8 +6767,12 @@
       <c r="C241" s="3" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="242" ht="36" spans="1:3">
+      <c r="D241" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A241,"', raion:'",B241,"',password:",C241,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Ейский кожно-венерологический диспансер" министерства здравоохранения Краснодарского края', raion:'Ейский',password:0229},</v>
+      </c>
+    </row>
+    <row r="242" ht="36" spans="1:4">
       <c r="A242" s="4" t="s">
         <v>524</v>
       </c>
@@ -5816,8 +6782,12 @@
       <c r="C242" s="3" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="243" ht="36" spans="1:3">
+      <c r="D242" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A242,"', raion:'",B242,"',password:",C242,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Психоневрологический диспансер №2" министерства здравоохранения Краснодарского края', raion:'Армавир',password:1464},</v>
+      </c>
+    </row>
+    <row r="243" ht="36" spans="1:4">
       <c r="A243" s="4" t="s">
         <v>526</v>
       </c>
@@ -5827,8 +6797,12 @@
       <c r="C243" s="3" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="244" ht="36" spans="1:3">
+      <c r="D243" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A243,"', raion:'",B243,"',password:",C243,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Психоневрологический диспансер №3" министерства здравоохранения Краснодарского края', raion:'Сочи',password:1246},</v>
+      </c>
+    </row>
+    <row r="244" ht="36" spans="1:4">
       <c r="A244" s="4" t="s">
         <v>528</v>
       </c>
@@ -5838,8 +6812,12 @@
       <c r="C244" s="3" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="245" ht="36" spans="1:3">
+      <c r="D244" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A244,"', raion:'",B244,"',password:",C244,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Психоневрологический диспансер №4" министерства здравоохранения Краснодарского края', raion:'Туапсинский',password:4776},</v>
+      </c>
+    </row>
+    <row r="245" ht="36" spans="1:4">
       <c r="A245" s="4" t="s">
         <v>530</v>
       </c>
@@ -5849,8 +6827,12 @@
       <c r="C245" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="246" ht="36" spans="1:3">
+      <c r="D245" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A245,"', raion:'",B245,"',password:",C245,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Геленджикский психоневрологический диспансер" министерства здравоохранения Краснодарского края', raion:'Геленджик',password:9011},</v>
+      </c>
+    </row>
+    <row r="246" ht="36" spans="1:4">
       <c r="A246" s="4" t="s">
         <v>532</v>
       </c>
@@ -5860,8 +6842,12 @@
       <c r="C246" s="3" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="247" ht="36" spans="1:3">
+      <c r="D246" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A246,"', raion:'",B246,"',password:",C246,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Ейский психоневрологический диспансер" министерства здравоохранения Краснодарского края', raion:'Ейский',password:3427},</v>
+      </c>
+    </row>
+    <row r="247" ht="36" spans="1:4">
       <c r="A247" s="4" t="s">
         <v>534</v>
       </c>
@@ -5871,8 +6857,12 @@
       <c r="C247" s="3" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="248" ht="36" spans="1:3">
+      <c r="D247" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A247,"', raion:'",B247,"',password:",C247,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Наркологический диспансер" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:3459},</v>
+      </c>
+    </row>
+    <row r="248" ht="36" spans="1:4">
       <c r="A248" s="4" t="s">
         <v>536</v>
       </c>
@@ -5882,8 +6872,12 @@
       <c r="C248" s="3" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="249" ht="36" spans="1:3">
+      <c r="D248" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A248,"', raion:'",B248,"',password:",C248,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Наркологический диспансер №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:7856},</v>
+      </c>
+    </row>
+    <row r="249" ht="36" spans="1:4">
       <c r="A249" s="4" t="s">
         <v>538</v>
       </c>
@@ -5893,8 +6887,12 @@
       <c r="C249" s="3" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="250" ht="36" spans="1:3">
+      <c r="D249" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A249,"', raion:'",B249,"',password:",C249,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Наркологический диспансер №3" министерства здравоохранения Краснодарского края', raion:'Армавир',password:0632},</v>
+      </c>
+    </row>
+    <row r="250" ht="36" spans="1:4">
       <c r="A250" s="7" t="s">
         <v>540</v>
       </c>
@@ -5904,8 +6902,12 @@
       <c r="C250" s="3" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="251" ht="36" spans="1:3">
+      <c r="D250" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A250,"', raion:'",B250,"',password:",C250,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевая клиническая стоматологическая поликлиника" министерства здравоохранения Краснодарского края ', raion:'Краснодар',password:7763},</v>
+      </c>
+    </row>
+    <row r="251" ht="36" spans="1:4">
       <c r="A251" s="7" t="s">
         <v>542</v>
       </c>
@@ -5915,8 +6917,12 @@
       <c r="C251" s="3" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="252" ht="36" spans="1:3">
+      <c r="D251" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A251,"', raion:'",B251,"',password:",C251,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Клинический центр профилактики и борьбы со СПИД" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:9338},</v>
+      </c>
+    </row>
+    <row r="252" ht="36" spans="1:4">
       <c r="A252" s="7" t="s">
         <v>544</v>
       </c>
@@ -5926,8 +6932,12 @@
       <c r="C252" s="3" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="253" ht="36" spans="1:3">
+      <c r="D252" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A252,"', raion:'",B252,"',password:",C252,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Центр профилактики и борьбы со СПИД №2" министерства здравоохранения Краснодарского края', raion:'Туапсинский',password:8013},</v>
+      </c>
+    </row>
+    <row r="253" ht="36" spans="1:4">
       <c r="A253" s="7" t="s">
         <v>546</v>
       </c>
@@ -5937,8 +6947,12 @@
       <c r="C253" s="3" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="254" ht="36" spans="1:3">
+      <c r="D253" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A253,"', raion:'",B253,"',password:",C253,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Центр профилактики и борьбы со СПИД №3" министерства здравоохранения Краснодарского края', raion:'Сочи',password:6457},</v>
+      </c>
+    </row>
+    <row r="254" ht="36" spans="1:4">
       <c r="A254" s="7" t="s">
         <v>548</v>
       </c>
@@ -5948,8 +6962,12 @@
       <c r="C254" s="3" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="255" ht="36" spans="1:3">
+      <c r="D254" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A254,"', raion:'",B254,"',password:",C254,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Центр профилактики и борьбы со СПИД №4" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:6585},</v>
+      </c>
+    </row>
+    <row r="255" ht="36" spans="1:4">
       <c r="A255" s="7" t="s">
         <v>550</v>
       </c>
@@ -5959,8 +6977,12 @@
       <c r="C255" s="3" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="256" ht="36" spans="1:3">
+      <c r="D255" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A255,"', raion:'",B255,"',password:",C255,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Ейский центр профилактики и борьбы со СПИД" министерства здравоохранения Краснодарского края', raion:'Ейский',password:2645},</v>
+      </c>
+    </row>
+    <row r="256" ht="36" spans="1:4">
       <c r="A256" s="7" t="s">
         <v>552</v>
       </c>
@@ -5970,8 +6992,12 @@
       <c r="C256" s="3" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="257" ht="36" spans="1:3">
+      <c r="D256" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A256,"', raion:'",B256,"',password:",C256,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевой детский центр медицинской реабилитации" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5333},</v>
+      </c>
+    </row>
+    <row r="257" ht="36" spans="1:4">
       <c r="A257" s="7" t="s">
         <v>554</v>
       </c>
@@ -5981,8 +7007,12 @@
       <c r="C257" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="258" ht="36" spans="1:3">
+      <c r="D257" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A257,"', raion:'",B257,"',password:",C257,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский центр медицинской реабилитации №2" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:5761},</v>
+      </c>
+    </row>
+    <row r="258" ht="36" spans="1:4">
       <c r="A258" s="7" t="s">
         <v>556</v>
       </c>
@@ -5992,8 +7022,12 @@
       <c r="C258" s="3" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="259" ht="36" spans="1:3">
+      <c r="D258" s="3" t="str">
+        <f t="shared" ref="D258:D296" si="4">CONCATENATE("{ username:'",A258,"', raion:'",B258,"',password:",C258,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:1795},</v>
+      </c>
+    </row>
+    <row r="259" ht="36" spans="1:4">
       <c r="A259" s="7" t="s">
         <v>558</v>
       </c>
@@ -6003,8 +7037,12 @@
       <c r="C259" s="3" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="260" ht="36" spans="1:3">
+      <c r="D259" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A259,"', raion:'",B259,"',password:",C259,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №2" министерства здравоохранения Краснодарского края', raion:'Белореченский',password:8448},</v>
+      </c>
+    </row>
+    <row r="260" ht="36" spans="1:4">
       <c r="A260" s="7" t="s">
         <v>560</v>
       </c>
@@ -6014,8 +7052,12 @@
       <c r="C260" s="3" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="261" ht="36" spans="1:3">
+      <c r="D260" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A260,"', raion:'",B260,"',password:",C260,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №3" министерства здравоохранения Краснодарского края', raion:'Кореновский',password:8853},</v>
+      </c>
+    </row>
+    <row r="261" ht="36" spans="1:4">
       <c r="A261" s="7" t="s">
         <v>562</v>
       </c>
@@ -6025,8 +7067,12 @@
       <c r="C261" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="262" ht="36" spans="1:3">
+      <c r="D261" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A261,"', raion:'",B261,"',password:",C261,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №4" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:2393},</v>
+      </c>
+    </row>
+    <row r="262" ht="36" spans="1:4">
       <c r="A262" s="7" t="s">
         <v>563</v>
       </c>
@@ -6036,8 +7082,12 @@
       <c r="C262" s="3" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="263" ht="36" spans="1:3">
+      <c r="D262" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A262,"', raion:'",B262,"',password:",C262,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №5" министерства здравоохранения Краснодарского края', raion:'Ейский',password:3950},</v>
+      </c>
+    </row>
+    <row r="263" ht="36" spans="1:4">
       <c r="A263" s="7" t="s">
         <v>565</v>
       </c>
@@ -6047,8 +7097,12 @@
       <c r="C263" s="3" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="264" ht="36" spans="1:3">
+      <c r="D263" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A263,"', raion:'",B263,"',password:",C263,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №6" министерства здравоохранения Краснодарского края', raion:'Армавир',password:6851},</v>
+      </c>
+    </row>
+    <row r="264" ht="36" spans="1:4">
       <c r="A264" s="7" t="s">
         <v>567</v>
       </c>
@@ -6058,8 +7112,12 @@
       <c r="C264" s="3" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="265" ht="36" spans="1:3">
+      <c r="D264" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A264,"', raion:'",B264,"',password:",C264,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №7" министерства здравоохранения Краснодарского края', raion:'Сочи',password:6650},</v>
+      </c>
+    </row>
+    <row r="265" ht="36" spans="1:4">
       <c r="A265" s="7" t="s">
         <v>569</v>
       </c>
@@ -6069,8 +7127,12 @@
       <c r="C265" s="3" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="266" ht="48" spans="1:3">
+      <c r="D265" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A265,"', raion:'",B265,"',password:",C265,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевой центр охраны здоровья семьи и репродукции" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5229},</v>
+      </c>
+    </row>
+    <row r="266" ht="48" spans="1:4">
       <c r="A266" s="7" t="s">
         <v>571</v>
       </c>
@@ -6080,8 +7142,12 @@
       <c r="C266" s="3" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="267" ht="48" spans="1:3">
+      <c r="D266" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A266,"', raion:'",B266,"',password:",C266,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дом ребенка специализированный для детей с органическим поражением центральной нервной системы с нарушением психики №1" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:9510},</v>
+      </c>
+    </row>
+    <row r="267" ht="48" spans="1:4">
       <c r="A267" s="7" t="s">
         <v>573</v>
       </c>
@@ -6091,8 +7157,12 @@
       <c r="C267" s="3" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="268" ht="48" spans="1:3">
+      <c r="D267" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A267,"', raion:'",B267,"',password:",C267,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дом ребенка специализированный для детей с органическим поражением центральной нервной системы с нарушением психики №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:3927},</v>
+      </c>
+    </row>
+    <row r="268" ht="48" spans="1:4">
       <c r="A268" s="7" t="s">
         <v>575</v>
       </c>
@@ -6102,8 +7172,12 @@
       <c r="C268" s="3" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="269" ht="48" spans="1:3">
+      <c r="D268" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A268,"', raion:'",B268,"',password:",C268,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дом ребенка специализированный для детей с органическим поражением центральной нервной системы с нарушением психики №3" министерства здравоохранения Краснодарского края', raion:'Усть-Лабинский',password:9978},</v>
+      </c>
+    </row>
+    <row r="269" ht="48" spans="1:4">
       <c r="A269" s="7" t="s">
         <v>577</v>
       </c>
@@ -6113,8 +7187,12 @@
       <c r="C269" s="3" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="270" ht="36" spans="1:3">
+      <c r="D269" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A269,"', raion:'",B269,"',password:",C269,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дом ребенка специализированный для детей с органическим поражением центральной нервной системы с нарушением психики №5" министерства здравоохранения Краснодарского края', raion:'Ейский',password:8917},</v>
+      </c>
+    </row>
+    <row r="270" ht="36" spans="1:4">
       <c r="A270" s="7" t="s">
         <v>579</v>
       </c>
@@ -6124,8 +7202,12 @@
       <c r="C270" s="3" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="271" ht="36" spans="1:3">
+      <c r="D270" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A270,"', raion:'",B270,"',password:",C270,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Армавирский дом ребенка" министерства здравоохранения Краснодарского края', raion:'Армавир',password:3910},</v>
+      </c>
+    </row>
+    <row r="271" ht="36" spans="1:4">
       <c r="A271" s="7" t="s">
         <v>581</v>
       </c>
@@ -6135,8 +7217,12 @@
       <c r="C271" s="3" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="272" ht="36" spans="1:3">
+      <c r="D271" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A271,"', raion:'",B271,"',password:",C271,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий для лечения туберкулеза всех форм "ЛАСТОЧКА" министерства здравоохранения Краснодарского края', raion:'Геленджик',password:3258},</v>
+      </c>
+    </row>
+    <row r="272" ht="36" spans="1:4">
       <c r="A272" s="7" t="s">
         <v>583</v>
       </c>
@@ -6146,8 +7232,12 @@
       <c r="C272" s="3" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="273" ht="36" spans="1:3">
+      <c r="D272" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A272,"', raion:'",B272,"',password:",C272,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий имени Н.И.Пирогова" министерства здравоохранения Краснодарского края', raion:'Геленджик',password:9450},</v>
+      </c>
+    </row>
+    <row r="273" ht="36" spans="1:4">
       <c r="A273" s="7" t="s">
         <v>585</v>
       </c>
@@ -6157,8 +7247,12 @@
       <c r="C273" s="3" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="274" ht="36" spans="1:3">
+      <c r="D273" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A273,"', raion:'",B273,"',password:",C273,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий для больных туберкулезом "Горный воздух"" министерства здравоохранения Краснодарского края', raion:'Сочи',password:8206},</v>
+      </c>
+    </row>
+    <row r="274" ht="36" spans="1:4">
       <c r="A274" s="7" t="s">
         <v>587</v>
       </c>
@@ -6168,8 +7262,12 @@
       <c r="C274" s="3" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="275" ht="36" spans="1:3">
+      <c r="D274" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A274,"', raion:'",B274,"',password:",C274,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий для больных туберкулезом "РОМАШКА"" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:2704},</v>
+      </c>
+    </row>
+    <row r="275" ht="36" spans="1:4">
       <c r="A275" s="7" t="s">
         <v>589</v>
       </c>
@@ -6179,8 +7277,12 @@
       <c r="C275" s="3" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="276" ht="36" spans="1:3">
+      <c r="D275" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A275,"', raion:'",B275,"',password:",C275,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий для больных и инфицированных туберкулезом "ВАСИЛЕК"" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:9100},</v>
+      </c>
+    </row>
+    <row r="276" ht="36" spans="1:4">
       <c r="A276" s="7" t="s">
         <v>591</v>
       </c>
@@ -6190,8 +7292,12 @@
       <c r="C276" s="3" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="277" ht="36" spans="1:3">
+      <c r="D276" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A276,"', raion:'",B276,"',password:",C276,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий "ТОПОЛЕК"" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:8145},</v>
+      </c>
+    </row>
+    <row r="277" ht="36" spans="1:4">
       <c r="A277" s="7" t="s">
         <v>593</v>
       </c>
@@ -6201,8 +7307,12 @@
       <c r="C277" s="3" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="278" ht="36" spans="1:3">
+      <c r="D277" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A277,"', raion:'",B277,"',password:",C277,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Медицинский информационно-аналитический центр" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:2284},</v>
+      </c>
+    </row>
+    <row r="278" ht="36" spans="1:4">
       <c r="A278" s="7" t="s">
         <v>595</v>
       </c>
@@ -6212,8 +7322,12 @@
       <c r="C278" s="3" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="279" ht="36" spans="1:3">
+      <c r="D278" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A278,"', raion:'",B278,"',password:",C278,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Центр медицинской профилактики" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:6168},</v>
+      </c>
+    </row>
+    <row r="279" ht="36" spans="1:4">
       <c r="A279" s="7" t="s">
         <v>597</v>
       </c>
@@ -6223,8 +7337,12 @@
       <c r="C279" s="3" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="280" ht="36" spans="1:3">
+      <c r="D279" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A279,"', raion:'",B279,"',password:",C279,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Региональный центр медицины катастроф" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:7263},</v>
+      </c>
+    </row>
+    <row r="280" ht="36" spans="1:4">
       <c r="A280" s="7" t="s">
         <v>599</v>
       </c>
@@ -6234,8 +7352,12 @@
       <c r="C280" s="3" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="281" ht="36" spans="1:3">
+      <c r="D280" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A280,"', raion:'",B280,"',password:",C280,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Бюро судебно-медицинской экспертизы" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:7277},</v>
+      </c>
+    </row>
+    <row r="281" ht="36" spans="1:4">
       <c r="A281" s="7" t="s">
         <v>601</v>
       </c>
@@ -6245,8 +7367,12 @@
       <c r="C281" s="3" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="282" ht="36" spans="1:3">
+      <c r="D281" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A281,"', raion:'",B281,"',password:",C281,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Бюро судебно-медицинской экспертизы №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:9179},</v>
+      </c>
+    </row>
+    <row r="282" ht="36" spans="1:4">
       <c r="A282" s="8" t="s">
         <v>603</v>
       </c>
@@ -6256,8 +7382,12 @@
       <c r="C282" s="3" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="283" ht="36" spans="1:3">
+      <c r="D282" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A282,"', raion:'",B282,"',password:",C282,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дезинфекционная станция города Новороссийска" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:8828},</v>
+      </c>
+    </row>
+    <row r="283" ht="36" spans="1:4">
       <c r="A283" s="8" t="s">
         <v>605</v>
       </c>
@@ -6267,8 +7397,12 @@
       <c r="C283" s="3" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="284" ht="24" spans="1:3">
+      <c r="D283" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A283,"', raion:'",B283,"',password:",C283,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дезинфекционная станция города Сочи" министерства здравоохранения Краснодарского края', raion:'Сочи',password:3806},</v>
+      </c>
+    </row>
+    <row r="284" ht="24" spans="1:4">
       <c r="A284" s="8" t="s">
         <v>607</v>
       </c>
@@ -6278,8 +7412,12 @@
       <c r="C284" s="3" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="285" ht="24" spans="1:3">
+      <c r="D284" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A284,"', raion:'",B284,"',password:",C284,"},")</f>
+        <v>{ username:'Государственное казенное учреждение Краснодарского края "Медицина Кубани"', raion:'Краснодар',password:7934},</v>
+      </c>
+    </row>
+    <row r="285" ht="24" spans="1:4">
       <c r="A285" s="8" t="s">
         <v>609</v>
       </c>
@@ -6289,8 +7427,12 @@
       <c r="C285" s="3" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="286" ht="24" spans="1:3">
+      <c r="D285" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A285,"', raion:'",B285,"',password:",C285,"},")</f>
+        <v>{ username:'Государственное бюджетное учреждение Краснодарского края "Фармацевтический центр"', raion:'Краснодар',password:3737},</v>
+      </c>
+    </row>
+    <row r="286" ht="24" spans="1:4">
       <c r="A286" s="8" t="s">
         <v>611</v>
       </c>
@@ -6300,8 +7442,12 @@
       <c r="C286" s="3" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="287" spans="1:3">
+      <c r="D286" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A286,"', raion:'",B286,"',password:",C286,"},")</f>
+        <v>{ username:'Государственное казенное учреждение Краснодарского края "Централизованная бухгалтерия МЗ"', raion:'Краснодар',password:1359},</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" s="14" t="s">
         <v>613</v>
       </c>
@@ -6309,8 +7455,12 @@
       <c r="C287" s="3" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="288" spans="1:3">
+      <c r="D287" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A287,"', raion:'",B287,"',password:",C287,"},")</f>
+        <v>{ username:'ГБОУ СПО Армавирский медколледж', raion:'',password:0143},</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
       <c r="A288" s="14" t="s">
         <v>615</v>
       </c>
@@ -6318,8 +7468,12 @@
       <c r="C288" s="3" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="289" spans="1:3">
+      <c r="D288" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A288,"', raion:'",B288,"',password:",C288,"},")</f>
+        <v>{ username:'ГБОУ СПО Белореченский медколледж', raion:'',password:9916},</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" s="14" t="s">
         <v>617</v>
       </c>
@@ -6327,8 +7481,12 @@
       <c r="C289" s="3" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="290" spans="1:3">
+      <c r="D289" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A289,"', raion:'",B289,"',password:",C289,"},")</f>
+        <v>{ username:'ГБОУ СПО Горячеключеской медколледж', raion:'',password:2226},</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290" s="14" t="s">
         <v>619</v>
       </c>
@@ -6336,8 +7494,12 @@
       <c r="C290" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="291" ht="24" spans="1:3">
+      <c r="D290" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A290,"', raion:'",B290,"',password:",C290,"},")</f>
+        <v>{ username:'ГБОУ СПО Ейский медколледж', raion:'',password:3010},</v>
+      </c>
+    </row>
+    <row r="291" ht="24" spans="1:4">
       <c r="A291" s="14" t="s">
         <v>621</v>
       </c>
@@ -6347,8 +7509,12 @@
       <c r="C291" s="3" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="292" spans="1:3">
+      <c r="D291" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A291,"', raion:'",B291,"',password:",C291,"},")</f>
+        <v>{ username:'ГБОУ СПО Краснодарский краевой базовый медицинский колледж', raion:'Краснодар',password:1578},</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
       <c r="A292" s="15" t="s">
         <v>623</v>
       </c>
@@ -6356,8 +7522,12 @@
       <c r="C292" s="3" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="293" spans="1:3">
+      <c r="D292" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A292,"', raion:'",B292,"',password:",C292,"},")</f>
+        <v>{ username:'ГБОУ СПО Кропоткинский медколледж', raion:'',password:7928},</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
       <c r="A293" s="14" t="s">
         <v>625</v>
       </c>
@@ -6365,8 +7535,12 @@
       <c r="C293" s="3" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="294" spans="1:3">
+      <c r="D293" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A293,"', raion:'",B293,"',password:",C293,"},")</f>
+        <v>{ username:'ГБОУ СПО Кущевский медколледж', raion:'',password:9781},</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294" s="14" t="s">
         <v>627</v>
       </c>
@@ -6374,8 +7548,12 @@
       <c r="C294" s="3" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="295" spans="1:3">
+      <c r="D294" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A294,"', raion:'",B294,"',password:",C294,"},")</f>
+        <v>{ username:'ГБОУ СПО Лабинский медколледж', raion:'',password:2435},</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" s="14" t="s">
         <v>629</v>
       </c>
@@ -6383,14 +7561,22 @@
       <c r="C295" s="3" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="296" spans="1:3">
+      <c r="D295" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A295,"', raion:'",B295,"',password:",C295,"},")</f>
+        <v>{ username:'ГБОУ СПО Новороссийский медколледж', raion:'',password:0089},</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
       <c r="A296" s="14" t="s">
         <v>631</v>
       </c>
       <c r="B296" s="9"/>
       <c r="C296" s="3" t="s">
         <v>632</v>
+      </c>
+      <c r="D296" s="3" t="str">
+        <f>CONCATENATE("{ username:'",A296,"', raion:'",B296,"',password:",C296,"},")</f>
+        <v>{ username:'ГБОУ СПО Сочинский медколледж', raion:'',password:7390},</v>
       </c>
     </row>
   </sheetData>

--- a/kadry_users.xlsx
+++ b/kadry_users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="14700" tabRatio="564"/>
+    <workbookView windowWidth="27735" windowHeight="15135" tabRatio="564"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2052,7 +2052,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2077,7 +2077,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
       <charset val="204"/>
     </font>
@@ -2088,9 +2088,61 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="Calibri"/>
       <charset val="204"/>
     </font>
@@ -2109,39 +2161,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="52"/>
       <name val="Calibri"/>
       <charset val="204"/>
     </font>
@@ -2155,33 +2176,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="Cambria"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
       <name val="Calibri"/>
       <charset val="204"/>
     </font>
@@ -2220,7 +2215,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2232,13 +2245,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2256,7 +2281,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2268,73 +2329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2369,6 +2364,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -2379,30 +2389,6 @@
         <color indexed="63"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
         <color indexed="63"/>
       </bottom>
       <diagonal/>
@@ -2434,11 +2420,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2454,9 +2447,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2480,19 +2475,193 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -2501,193 +2670,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2739,8 +2734,8 @@
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Связанная ячейка 2" xfId="1"/>
-    <cellStyle name="40% - Акцент4 2" xfId="2"/>
+    <cellStyle name="40% - Акцент4 2" xfId="1"/>
+    <cellStyle name="Связанная ячейка 2" xfId="2"/>
     <cellStyle name="Контрольная ячейка 2" xfId="3"/>
     <cellStyle name="Акцент4 2" xfId="4"/>
     <cellStyle name="20% - Акцент4 2" xfId="5"/>
@@ -2748,8 +2743,8 @@
     <cellStyle name="Обычный 4 3" xfId="7"/>
     <cellStyle name="Percent" xfId="8" builtinId="5"/>
     <cellStyle name="Заголовок 3 2" xfId="9"/>
-    <cellStyle name="Обычный 8 2" xfId="10"/>
-    <cellStyle name="60% - Акцент1 2" xfId="11"/>
+    <cellStyle name="60% - Акцент1 2" xfId="10"/>
+    <cellStyle name="Обычный 8 2" xfId="11"/>
     <cellStyle name="Пояснение 2" xfId="12"/>
     <cellStyle name="Обычный 8 3" xfId="13"/>
     <cellStyle name="60% - Акцент5 2" xfId="14"/>
@@ -2765,9 +2760,9 @@
     <cellStyle name="Обычный 3" xfId="24"/>
     <cellStyle name="Обычный 5 2" xfId="25"/>
     <cellStyle name="Обычный 4" xfId="26"/>
-    <cellStyle name="Обычный 5 3" xfId="27"/>
-    <cellStyle name="Обычный 5" xfId="28"/>
-    <cellStyle name="Заголовок 4 2" xfId="29"/>
+    <cellStyle name="Заголовок 4 2" xfId="27"/>
+    <cellStyle name="Обычный 5 3" xfId="28"/>
+    <cellStyle name="Обычный 5" xfId="29"/>
     <cellStyle name="Обычный 6" xfId="30"/>
     <cellStyle name="Обычный 7" xfId="31"/>
     <cellStyle name="60% - Акцент2 2" xfId="32"/>
@@ -2775,21 +2770,21 @@
     <cellStyle name="Обычный 9" xfId="34"/>
     <cellStyle name="60% - Акцент6 2" xfId="35"/>
     <cellStyle name="Плохой 2" xfId="36"/>
-    <cellStyle name="Обычный 3_Пустографки" xfId="37"/>
-    <cellStyle name="40% - Акцент2 2" xfId="38"/>
+    <cellStyle name="40% - Акцент2 2" xfId="37"/>
+    <cellStyle name="Обычный 3_Пустографки" xfId="38"/>
     <cellStyle name="40% - Акцент6 2" xfId="39"/>
     <cellStyle name="Ввод  2" xfId="40"/>
     <cellStyle name="Currency" xfId="41" builtinId="4"/>
     <cellStyle name="Акцент2 2" xfId="42"/>
     <cellStyle name="Вывод 2" xfId="43"/>
     <cellStyle name="20% - Акцент2 2" xfId="44"/>
-    <cellStyle name="Обычный 2 2" xfId="45"/>
-    <cellStyle name="Акцент6 2" xfId="46"/>
-    <cellStyle name="Обычный 2 3" xfId="47"/>
-    <cellStyle name="Заголовок 1 2" xfId="48"/>
+    <cellStyle name="Акцент6 2" xfId="45"/>
+    <cellStyle name="Обычный 2 2" xfId="46"/>
+    <cellStyle name="Заголовок 1 2" xfId="47"/>
+    <cellStyle name="Обычный 2 3" xfId="48"/>
     <cellStyle name="20% - Акцент6 2" xfId="49"/>
-    <cellStyle name="Текст предупреждения 2" xfId="50"/>
-    <cellStyle name="Обычный 6 2" xfId="51"/>
+    <cellStyle name="Обычный 6 2" xfId="50"/>
+    <cellStyle name="Текст предупреждения 2" xfId="51"/>
     <cellStyle name="Обычный 6 3" xfId="52"/>
     <cellStyle name="Comma" xfId="53" builtinId="3"/>
     <cellStyle name="60% - Акцент3 2" xfId="54"/>
@@ -2803,8 +2798,8 @@
     <cellStyle name="Процентный 2" xfId="62"/>
     <cellStyle name="20% - Акцент3 2" xfId="63"/>
     <cellStyle name="Обычный 3 2" xfId="64"/>
-    <cellStyle name="Заголовок 2 2" xfId="65"/>
-    <cellStyle name="Обычный 3 3" xfId="66"/>
+    <cellStyle name="Обычный 3 3" xfId="65"/>
+    <cellStyle name="Заголовок 2 2" xfId="66"/>
     <cellStyle name="Обычный 7 2" xfId="67"/>
     <cellStyle name="Обычный 7 3" xfId="68"/>
     <cellStyle name="60% - Акцент4 2" xfId="69"/>
@@ -3114,11 +3109,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -3145,10 +3140,10 @@
   <dimension ref="A1:D296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D1" sqref="D1:D296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="12" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="48.425" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.1416666666667" style="2" customWidth="1"/>
@@ -3168,8 +3163,8 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A1,"', raion:'",B1,"',password:",C1,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Абинский район "Центральная районная больница"', raion:'Абинский',password:6682},</v>
+        <f>CONCATENATE("{ username:'",A1,"', raion:'",B1,"',password:",C1,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Абинский район "Центральная районная больница"', raion:'Абинский',password:6682,'division':'kadry'},</v>
       </c>
     </row>
     <row r="2" ht="36" spans="1:4">
@@ -3183,8 +3178,8 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D65" si="0">CONCATENATE("{ username:'",A2,"', raion:'",B2,"',password:",C2,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Абинский район "Холмская районная больница №2"', raion:'Абинский',password:5137},</v>
+        <f t="shared" ref="D2:D65" si="0">CONCATENATE("{ username:'",A2,"', raion:'",B2,"',password:",C2,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Абинский район "Холмская районная больница №2"', raion:'Абинский',password:5137,'division':'kadry'},</v>
       </c>
     </row>
     <row r="3" ht="36" spans="1:4">
@@ -3198,8 +3193,8 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A3,"', raion:'",B3,"',password:",C3,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Абинский район "Ахтырская районная больница №3"', raion:'Абинский',password:2244},</v>
+        <f>CONCATENATE("{ username:'",A3,"', raion:'",B3,"',password:",C3,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Абинский район "Ахтырская районная больница №3"', raion:'Абинский',password:2244,'division':'kadry'},</v>
       </c>
     </row>
     <row r="4" ht="36" spans="1:4">
@@ -3213,8 +3208,8 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A4,"', raion:'",B4,"',password:",C4,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:2416},</v>
+        <f>CONCATENATE("{ username:'",A4,"', raion:'",B4,"',password:",C4,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:2416,'division':'kadry'},</v>
       </c>
     </row>
     <row r="5" ht="36" spans="1:4">
@@ -3228,8 +3223,8 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A5,"', raion:'",B5,"',password:",C5,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Детская городская больница управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:3518},</v>
+        <f>CONCATENATE("{ username:'",A5,"', raion:'",B5,"',password:",C5,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Детская городская больница управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:3518,'division':'kadry'},</v>
       </c>
     </row>
     <row r="6" ht="36" spans="1:4">
@@ -3243,8 +3238,8 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A6,"', raion:'",B6,"',password:",C6,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Участковая больница №1 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:5880},</v>
+        <f>CONCATENATE("{ username:'",A6,"', raion:'",B6,"',password:",C6,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Участковая больница №1 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:5880,'division':'kadry'},</v>
       </c>
     </row>
     <row r="7" ht="36" spans="1:4">
@@ -3258,8 +3253,8 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A7,"', raion:'",B7,"',password:",C7,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Участковая больница №2 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:1919},</v>
+        <f>CONCATENATE("{ username:'",A7,"', raion:'",B7,"',password:",C7,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Участковая больница №2 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:1919,'division':'kadry'},</v>
       </c>
     </row>
     <row r="8" ht="36" spans="1:4">
@@ -3273,8 +3268,8 @@
         <v>17</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A8,"', raion:'",B8,"',password:",C8,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Участковая больница №3 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:9856},</v>
+        <f>CONCATENATE("{ username:'",A8,"', raion:'",B8,"',password:",C8,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Участковая больница №3 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:9856,'division':'kadry'},</v>
       </c>
     </row>
     <row r="9" ht="36" spans="1:4">
@@ -3288,8 +3283,8 @@
         <v>19</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A9,"', raion:'",B9,"',password:",C9,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №1 управления здравоохранения администрации муниципального образования город-курорт Анапа "', raion:'Анапский',password:5418},</v>
+        <f>CONCATENATE("{ username:'",A9,"', raion:'",B9,"',password:",C9,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №1 управления здравоохранения администрации муниципального образования город-курорт Анапа "', raion:'Анапский',password:5418,'division':'kadry'},</v>
       </c>
     </row>
     <row r="10" ht="36" spans="1:4">
@@ -3303,8 +3298,8 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A10,"', raion:'",B10,"',password:",C10,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №3 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:5838},</v>
+        <f>CONCATENATE("{ username:'",A10,"', raion:'",B10,"',password:",C10,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №3 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:5838,'division':'kadry'},</v>
       </c>
     </row>
     <row r="11" ht="36" spans="1:4">
@@ -3318,8 +3313,8 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A11,"', raion:'",B11,"',password:",C11,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №4 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:3573},</v>
+        <f>CONCATENATE("{ username:'",A11,"', raion:'",B11,"',password:",C11,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №4 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:3573,'division':'kadry'},</v>
       </c>
     </row>
     <row r="12" ht="36" spans="1:4">
@@ -3333,8 +3328,8 @@
         <v>25</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A12,"', raion:'",B12,"',password:",C12,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №6 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:0340},</v>
+        <f>CONCATENATE("{ username:'",A12,"', raion:'",B12,"',password:",C12,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №6 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:0340,'division':'kadry'},</v>
       </c>
     </row>
     <row r="13" ht="36" spans="1:4">
@@ -3348,8 +3343,8 @@
         <v>27</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A13,"', raion:'",B13,"',password:",C13,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №7 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:0315},</v>
+        <f>CONCATENATE("{ username:'",A13,"', raion:'",B13,"',password:",C13,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №7 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:0315,'division':'kadry'},</v>
       </c>
     </row>
     <row r="14" ht="36" spans="1:4">
@@ -3363,8 +3358,8 @@
         <v>29</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A14,"', raion:'",B14,"',password:",C14,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №8 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:5515},</v>
+        <f>CONCATENATE("{ username:'",A14,"', raion:'",B14,"',password:",C14,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Амбулатория №8 управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:5515,'division':'kadry'},</v>
       </c>
     </row>
     <row r="15" ht="36" spans="1:4">
@@ -3378,8 +3373,8 @@
         <v>31</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A15,"', raion:'",B15,"',password:",C15,"},")</f>
-        <v>{ username:'Муниципальное автономное учреждение здравоохранения "Стоматологическая поликлиника управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:7848},</v>
+        <f>CONCATENATE("{ username:'",A15,"', raion:'",B15,"',password:",C15,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное автономное учреждение здравоохранения "Стоматологическая поликлиника управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:7848,'division':'kadry'},</v>
       </c>
     </row>
     <row r="16" ht="36" spans="1:4">
@@ -3393,8 +3388,8 @@
         <v>33</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A16,"', raion:'",B16,"',password:",C16,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Станция скорой медицинской помощи управления здравоохранения администрации муниципального образования город-курорт Анапа" ', raion:'Анапский',password:7063},</v>
+        <f>CONCATENATE("{ username:'",A16,"', raion:'",B16,"',password:",C16,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Станция скорой медицинской помощи управления здравоохранения администрации муниципального образования город-курорт Анапа" ', raion:'Анапский',password:7063,'division':'kadry'},</v>
       </c>
     </row>
     <row r="17" ht="36" spans="1:4">
@@ -3408,8 +3403,8 @@
         <v>35</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A17,"', raion:'",B17,"',password:",C17,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центр медицинской профилактики управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:0181},</v>
+        <f>CONCATENATE("{ username:'",A17,"', raion:'",B17,"',password:",C17,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центр медицинской профилактики управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:0181,'division':'kadry'},</v>
       </c>
     </row>
     <row r="18" ht="36" spans="1:4">
@@ -3423,8 +3418,8 @@
         <v>37</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A18,"', raion:'",B18,"',password:",C18,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Патологоанатомическое бюро управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:1105},</v>
+        <f>CONCATENATE("{ username:'",A18,"', raion:'",B18,"',password:",C18,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Патологоанатомическое бюро управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:1105,'division':'kadry'},</v>
       </c>
     </row>
     <row r="19" ht="51.75" customHeight="1" spans="1:4">
@@ -3438,8 +3433,8 @@
         <v>39</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A19,"', raion:'",B19,"',password:",C19,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Медицинский информационно-аналитический центр управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:8942},</v>
+        <f>CONCATENATE("{ username:'",A19,"', raion:'",B19,"',password:",C19,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Медицинский информационно-аналитический центр управления здравоохранения администрации муниципального образования город-курорт Анапа"', raion:'Анапский',password:8942,'division':'kadry'},</v>
       </c>
     </row>
     <row r="20" ht="30.75" customHeight="1" spans="1:4">
@@ -3453,8 +3448,8 @@
         <v>42</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A20,"', raion:'",B20,"',password:",C20,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница г. Хадыженск"', raion:'Апшеронский',password:9117},</v>
+        <f>CONCATENATE("{ username:'",A20,"', raion:'",B20,"',password:",C20,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница г. Хадыженск"', raion:'Апшеронский',password:9117,'division':'kadry'},</v>
       </c>
     </row>
     <row r="21" ht="24" spans="1:4">
@@ -3468,8 +3463,8 @@
         <v>44</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A21,"', raion:'",B21,"',password:",C21,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница Апшеронского района"', raion:'Апшеронский',password:5374},</v>
+        <f>CONCATENATE("{ username:'",A21,"', raion:'",B21,"',password:",C21,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница Апшеронского района"', raion:'Апшеронский',password:5374,'division':'kadry'},</v>
       </c>
     </row>
     <row r="22" ht="24" spans="1:4">
@@ -3483,8 +3478,8 @@
         <v>46</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A22,"', raion:'",B22,"',password:",C22,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Хадыженская стоматологическая поликлиника"', raion:'Апшеронский',password:1605},</v>
+        <f>CONCATENATE("{ username:'",A22,"', raion:'",B22,"',password:",C22,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Хадыженская стоматологическая поликлиника"', raion:'Апшеронский',password:1605,'division':'kadry'},</v>
       </c>
     </row>
     <row r="23" ht="24" spans="1:4">
@@ -3498,8 +3493,8 @@
         <v>49</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A23,"', raion:'",B23,"',password:",C23,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница"', raion:'Армавир',password:4111},</v>
+        <f>CONCATENATE("{ username:'",A23,"', raion:'",B23,"',password:",C23,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница"', raion:'Армавир',password:4111,'division':'kadry'},</v>
       </c>
     </row>
     <row r="24" ht="24" spans="1:4">
@@ -3513,8 +3508,8 @@
         <v>51</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A24,"', raion:'",B24,"',password:",C24,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Детская городская больница"', raion:'Армавир',password:4068},</v>
+        <f>CONCATENATE("{ username:'",A24,"', raion:'",B24,"',password:",C24,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Детская городская больница"', raion:'Армавир',password:4068,'division':'kadry'},</v>
       </c>
     </row>
     <row r="25" ht="24" spans="1:4">
@@ -3528,8 +3523,8 @@
         <v>53</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A25,"', raion:'",B25,"',password:",C25,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская поликлиника №1"', raion:'Армавир',password:0442},</v>
+        <f>CONCATENATE("{ username:'",A25,"', raion:'",B25,"',password:",C25,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская поликлиника №1"', raion:'Армавир',password:0442,'division':'kadry'},</v>
       </c>
     </row>
     <row r="26" ht="24" spans="1:4">
@@ -3543,8 +3538,8 @@
         <v>55</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A26,"', raion:'",B26,"',password:",C26,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская поликлиника №4"', raion:'Армавир',password:5208},</v>
+        <f>CONCATENATE("{ username:'",A26,"', raion:'",B26,"',password:",C26,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская поликлиника №4"', raion:'Армавир',password:5208,'division':'kadry'},</v>
       </c>
     </row>
     <row r="27" ht="24" spans="1:4">
@@ -3558,8 +3553,8 @@
         <v>57</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A27,"', raion:'",B27,"',password:",C27,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская поликлиника №3"', raion:'Армавир',password:3566},</v>
+        <f>CONCATENATE("{ username:'",A27,"', raion:'",B27,"',password:",C27,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская поликлиника №3"', raion:'Армавир',password:3566,'division':'kadry'},</v>
       </c>
     </row>
     <row r="28" ht="24" spans="1:4">
@@ -3573,8 +3568,8 @@
         <v>59</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A28,"', raion:'",B28,"',password:",C28,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская стоматологическая поликлиника"', raion:'Армавир',password:2530},</v>
+        <f>CONCATENATE("{ username:'",A28,"', raion:'",B28,"',password:",C28,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская стоматологическая поликлиника"', raion:'Армавир',password:2530,'division':'kadry'},</v>
       </c>
     </row>
     <row r="29" ht="24" spans="1:4">
@@ -3588,8 +3583,8 @@
         <v>61</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A29,"', raion:'",B29,"',password:",C29,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская детская стоматологическая поликлиника"', raion:'Армавир',password:4941},</v>
+        <f>CONCATENATE("{ username:'",A29,"', raion:'",B29,"',password:",C29,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская детская стоматологическая поликлиника"', raion:'Армавир',password:4941,'division':'kadry'},</v>
       </c>
     </row>
     <row r="30" ht="24" spans="1:4">
@@ -3603,8 +3598,8 @@
         <v>63</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A30,"', raion:'",B30,"',password:",C30,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Станция скорой медицинской помощи"', raion:'Армавир',password:6687},</v>
+        <f>CONCATENATE("{ username:'",A30,"', raion:'",B30,"',password:",C30,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Станция скорой медицинской помощи"', raion:'Армавир',password:6687,'division':'kadry'},</v>
       </c>
     </row>
     <row r="31" ht="24" spans="1:4">
@@ -3618,8 +3613,8 @@
         <v>65</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A31,"', raion:'",B31,"',password:",C31,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Армавира "Перинатальный центр"', raion:'Армавир',password:0817},</v>
+        <f>CONCATENATE("{ username:'",A31,"', raion:'",B31,"',password:",C31,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Армавира "Перинатальный центр"', raion:'Армавир',password:0817,'division':'kadry'},</v>
       </c>
     </row>
     <row r="32" ht="24" spans="1:4">
@@ -3633,8 +3628,8 @@
         <v>67</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A32,"', raion:'",B32,"',password:",C32,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центр медицинской профилактики"', raion:'Армавир',password:7947},</v>
+        <f>CONCATENATE("{ username:'",A32,"', raion:'",B32,"',password:",C32,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центр медицинской профилактики"', raion:'Армавир',password:7947,'division':'kadry'},</v>
       </c>
     </row>
     <row r="33" ht="24" spans="1:4">
@@ -3648,8 +3643,8 @@
         <v>69</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A33,"', raion:'",B33,"',password:",C33,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Армавирское специализированное автохозяйство"', raion:'Армавир',password:5207},</v>
+        <f>CONCATENATE("{ username:'",A33,"', raion:'",B33,"',password:",C33,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Армавирское специализированное автохозяйство"', raion:'Армавир',password:5207,'division':'kadry'},</v>
       </c>
     </row>
     <row r="34" ht="24" spans="1:4">
@@ -3663,8 +3658,8 @@
         <v>72</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A34,"', raion:'",B34,"',password:",C34,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница администрации Белоглинского района"', raion:'Белоглинский',password:8201},</v>
+        <f>CONCATENATE("{ username:'",A34,"', raion:'",B34,"',password:",C34,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница администрации Белоглинского района"', raion:'Белоглинский',password:8201,'division':'kadry'},</v>
       </c>
     </row>
     <row r="35" ht="36" spans="1:4">
@@ -3678,8 +3673,8 @@
         <v>74</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A35,"', raion:'",B35,"',password:",C35,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Стоматологическая поликлиника муниципального образования Белоглинский район"', raion:'Белоглинский',password:6812},</v>
+        <f>CONCATENATE("{ username:'",A35,"', raion:'",B35,"',password:",C35,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Стоматологическая поликлиника муниципального образования Белоглинский район"', raion:'Белоглинский',password:6812,'division':'kadry'},</v>
       </c>
     </row>
     <row r="36" ht="36" spans="1:4">
@@ -3693,8 +3688,8 @@
         <v>77</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A36,"', raion:'",B36,"',password:",C36,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница муниципального образования Белореченский район"', raion:'Белореченский',password:6509},</v>
+        <f>CONCATENATE("{ username:'",A36,"', raion:'",B36,"',password:",C36,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница муниципального образования Белореченский район"', raion:'Белореченский',password:6509,'division':'kadry'},</v>
       </c>
     </row>
     <row r="37" ht="36" spans="1:4">
@@ -3708,8 +3703,8 @@
         <v>79</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A37,"', raion:'",B37,"',password:",C37,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Стоматологическая поликлиника муниципального образования Белореченский район"', raion:'Белореченский',password:8692},</v>
+        <f>CONCATENATE("{ username:'",A37,"', raion:'",B37,"',password:",C37,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Стоматологическая поликлиника муниципального образования Белореченский район"', raion:'Белореченский',password:8692,'division':'kadry'},</v>
       </c>
     </row>
     <row r="38" ht="24" spans="1:4">
@@ -3723,8 +3718,8 @@
         <v>82</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A38,"', raion:'",B38,"',password:",C38,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница" Брюховецкого района', raion:'Брюховецкий',password:1493},</v>
+        <f>CONCATENATE("{ username:'",A38,"', raion:'",B38,"',password:",C38,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница" Брюховецкого района', raion:'Брюховецкий',password:1493,'division':'kadry'},</v>
       </c>
     </row>
     <row r="39" ht="36" spans="1:4">
@@ -3738,8 +3733,8 @@
         <v>85</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A39,"', raion:'",B39,"',password:",C39,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Центральная районная больница имени заслуженного врача РФ В.Ф.Долгополова Выселковского района Краснодарского края', raion:'Выселковский',password:9844},</v>
+        <f>CONCATENATE("{ username:'",A39,"', raion:'",B39,"',password:",C39,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Центральная районная больница имени заслуженного врача РФ В.Ф.Долгополова Выселковского района Краснодарского края', raion:'Выселковский',password:9844,'division':'kadry'},</v>
       </c>
     </row>
     <row r="40" ht="36" spans="1:4">
@@ -3753,8 +3748,8 @@
         <v>88</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A40,"', raion:'",B40,"',password:",C40,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:9407},</v>
+        <f>CONCATENATE("{ username:'",A40,"', raion:'",B40,"',password:",C40,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:9407,'division':'kadry'},</v>
       </c>
     </row>
     <row r="41" ht="36" spans="1:4">
@@ -3768,8 +3763,8 @@
         <v>90</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A41,"', raion:'",B41,"',password:",C41,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница №2" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:6900},</v>
+        <f>CONCATENATE("{ username:'",A41,"', raion:'",B41,"',password:",C41,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница №2" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:6900,'division':'kadry'},</v>
       </c>
     </row>
     <row r="42" ht="36" spans="1:4">
@@ -3783,8 +3778,8 @@
         <v>92</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A42,"', raion:'",B42,"',password:",C42,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница №3" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:5044},</v>
+        <f>CONCATENATE("{ username:'",A42,"', raion:'",B42,"',password:",C42,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская больница №3" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:5044,'division':'kadry'},</v>
       </c>
     </row>
     <row r="43" ht="36" spans="1:4">
@@ -3798,8 +3793,8 @@
         <v>94</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A43,"', raion:'",B43,"',password:",C43,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская поликлиника" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:2191},</v>
+        <f>CONCATENATE("{ username:'",A43,"', raion:'",B43,"',password:",C43,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Городская поликлиника" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:2191,'division':'kadry'},</v>
       </c>
     </row>
     <row r="44" ht="36" spans="1:4">
@@ -3813,8 +3808,8 @@
         <v>96</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A44,"', raion:'",B44,"',password:",C44,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Стоматологическая поликлиника" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:4368},</v>
+        <f>CONCATENATE("{ username:'",A44,"', raion:'",B44,"',password:",C44,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Стоматологическая поликлиника" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:4368,'division':'kadry'},</v>
       </c>
     </row>
     <row r="45" ht="36" spans="1:4">
@@ -3828,8 +3823,8 @@
         <v>98</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A45,"', raion:'",B45,"',password:",C45,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Станция скорой медицинской помощи" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:4820},</v>
+        <f>CONCATENATE("{ username:'",A45,"', raion:'",B45,"',password:",C45,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Станция скорой медицинской помощи" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:4820,'division':'kadry'},</v>
       </c>
     </row>
     <row r="46" ht="24" spans="1:4">
@@ -3843,8 +3838,8 @@
         <v>100</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A46,"', raion:'",B46,"',password:",C46,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Родильный дом" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:3905},</v>
+        <f>CONCATENATE("{ username:'",A46,"', raion:'",B46,"',password:",C46,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Родильный дом" муниципального образования город-курорт Геленджик', raion:'Геленджик',password:3905,'division':'kadry'},</v>
       </c>
     </row>
     <row r="47" ht="36" spans="1:4">
@@ -3858,8 +3853,8 @@
         <v>103</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A47,"', raion:'",B47,"',password:",C47,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная городская больница" муниципального образования город Горячий Ключ', raion:'Горячий Ключ',password:8854},</v>
+        <f>CONCATENATE("{ username:'",A47,"', raion:'",B47,"',password:",C47,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная городская больница" муниципального образования город Горячий Ключ', raion:'Горячий Ключ',password:8854,'division':'kadry'},</v>
       </c>
     </row>
     <row r="48" ht="36" spans="1:4">
@@ -3873,8 +3868,8 @@
         <v>105</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A48,"', raion:'",B48,"',password:",C48,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Стоматологическая поликлиника" муниципального образования город Горячий Ключ', raion:'Горячий Ключ',password:7816},</v>
+        <f>CONCATENATE("{ username:'",A48,"', raion:'",B48,"',password:",C48,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Стоматологическая поликлиника" муниципального образования город Горячий Ключ', raion:'Горячий Ключ',password:7816,'division':'kadry'},</v>
       </c>
     </row>
     <row r="49" ht="24" spans="1:4">
@@ -3888,8 +3883,8 @@
         <v>108</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A49,"', raion:'",B49,"',password:",C49,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница Гулькевичского района"', raion:'Гулькевичский',password:8473},</v>
+        <f>CONCATENATE("{ username:'",A49,"', raion:'",B49,"',password:",C49,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница Гулькевичского района"', raion:'Гулькевичский',password:8473,'division':'kadry'},</v>
       </c>
     </row>
     <row r="50" ht="24" spans="1:4">
@@ -3903,8 +3898,8 @@
         <v>110</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A50,"', raion:'",B50,"',password:",C50,"},")</f>
-        <v>{ username:'Муниципальное автономное учреждение здравоохранения "Гулькевичская стоматологическая поликлиника"', raion:'Гулькевичский',password:4665},</v>
+        <f>CONCATENATE("{ username:'",A50,"', raion:'",B50,"',password:",C50,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное автономное учреждение здравоохранения "Гулькевичская стоматологическая поликлиника"', raion:'Гулькевичский',password:4665,'division':'kadry'},</v>
       </c>
     </row>
     <row r="51" ht="24" spans="1:4">
@@ -3918,8 +3913,8 @@
         <v>113</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A51,"', raion:'",B51,"',password:",C51,"},")</f>
-        <v>{ username:'Бюджетное учреждение здравоохранения муниципального образования Динской район "Центральная районная больница"', raion:'Динской',password:2489},</v>
+        <f>CONCATENATE("{ username:'",A51,"', raion:'",B51,"',password:",C51,",'division':'kadry'},")</f>
+        <v>{ username:'Бюджетное учреждение здравоохранения муниципального образования Динской район "Центральная районная больница"', raion:'Динской',password:2489,'division':'kadry'},</v>
       </c>
     </row>
     <row r="52" ht="24" spans="1:4">
@@ -3933,8 +3928,8 @@
         <v>116</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A52,"', raion:'",B52,"',password:",C52,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Ейского района "Центральная районная больница"', raion:'Ейский',password:9389},</v>
+        <f>CONCATENATE("{ username:'",A52,"', raion:'",B52,"',password:",C52,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Ейского района "Центральная районная больница"', raion:'Ейский',password:9389,'division':'kadry'},</v>
       </c>
     </row>
     <row r="53" ht="24" spans="1:4">
@@ -3948,8 +3943,8 @@
         <v>118</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A53,"', raion:'",B53,"',password:",C53,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Ейского района "Стоматологическая поликлиника"', raion:'Ейский',password:6867},</v>
+        <f>CONCATENATE("{ username:'",A53,"', raion:'",B53,"',password:",C53,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Ейского района "Стоматологическая поликлиника"', raion:'Ейский',password:6867,'division':'kadry'},</v>
       </c>
     </row>
     <row r="54" ht="36" spans="1:4">
@@ -3963,8 +3958,8 @@
         <v>120</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A54,"', raion:'",B54,"',password:",C54,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Ейский район "Станция скорой медицинской помощи"', raion:'Ейский',password:4194},</v>
+        <f>CONCATENATE("{ username:'",A54,"', raion:'",B54,"',password:",C54,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Ейский район "Станция скорой медицинской помощи"', raion:'Ейский',password:4194,'division':'kadry'},</v>
       </c>
     </row>
     <row r="55" ht="36" spans="1:4">
@@ -3978,8 +3973,8 @@
         <v>122</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A55,"', raion:'",B55,"',password:",C55,"},")</f>
-        <v>{ username:'Муниципальное казенное учреждение здравоохранения муниципального образования Ейский район "Медицинский информационно-аналитический центр"', raion:'Ейский',password:3541},</v>
+        <f>CONCATENATE("{ username:'",A55,"', raion:'",B55,"',password:",C55,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное казенное учреждение здравоохранения муниципального образования Ейский район "Медицинский информационно-аналитический центр"', raion:'Ейский',password:3541,'division':'kadry'},</v>
       </c>
     </row>
     <row r="56" ht="36" spans="1:4">
@@ -3993,8 +3988,8 @@
         <v>125</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A56,"', raion:'",B56,"',password:",C56,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Кропоткинская городская больница" муниципального образования Кавказский район', raion:'Кавказский',password:8250},</v>
+        <f>CONCATENATE("{ username:'",A56,"', raion:'",B56,"',password:",C56,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Кропоткинская городская больница" муниципального образования Кавказский район', raion:'Кавказский',password:8250,'division':'kadry'},</v>
       </c>
     </row>
     <row r="57" ht="36" spans="1:4">
@@ -4008,8 +4003,8 @@
         <v>127</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A57,"', raion:'",B57,"',password:",C57,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница" муниципального образования Кавказский район', raion:'Кавказский',password:8343},</v>
+        <f>CONCATENATE("{ username:'",A57,"', raion:'",B57,"',password:",C57,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница" муниципального образования Кавказский район', raion:'Кавказский',password:8343,'division':'kadry'},</v>
       </c>
     </row>
     <row r="58" ht="36" spans="1:4">
@@ -4023,8 +4018,8 @@
         <v>129</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A58,"', raion:'",B58,"',password:",C58,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Станция скорой медицинской помощи" муниципального образования Кавказский район ', raion:'Кавказский',password:1210},</v>
+        <f>CONCATENATE("{ username:'",A58,"', raion:'",B58,"',password:",C58,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Станция скорой медицинской помощи" муниципального образования Кавказский район ', raion:'Кавказский',password:1210,'division':'kadry'},</v>
       </c>
     </row>
     <row r="59" ht="36" spans="1:4">
@@ -4038,8 +4033,8 @@
         <v>132</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A59,"', raion:'",B59,"',password:",C59,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница муниципального образования Калининский район"', raion:'Калининский',password:5977},</v>
+        <f>CONCATENATE("{ username:'",A59,"', raion:'",B59,"',password:",C59,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница муниципального образования Калининский район"', raion:'Калининский',password:5977,'division':'kadry'},</v>
       </c>
     </row>
     <row r="60" ht="36" spans="1:4">
@@ -4053,8 +4048,8 @@
         <v>135</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A60,"', raion:'",B60,"',password:",C60,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Каневская центральная районная больница" муниципального образования Каневской район ', raion:'Каневской',password:3519},</v>
+        <f>CONCATENATE("{ username:'",A60,"', raion:'",B60,"',password:",C60,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Каневская центральная районная больница" муниципального образования Каневской район ', raion:'Каневской',password:3519,'division':'kadry'},</v>
       </c>
     </row>
     <row r="61" ht="24" spans="1:4">
@@ -4068,8 +4063,8 @@
         <v>138</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A61,"', raion:'",B61,"',password:",C61,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Кореновская центральная районная больница"', raion:'Кореновский',password:9062},</v>
+        <f>CONCATENATE("{ username:'",A61,"', raion:'",B61,"',password:",C61,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Кореновская центральная районная больница"', raion:'Кореновский',password:9062,'division':'kadry'},</v>
       </c>
     </row>
     <row r="62" ht="24" spans="1:4">
@@ -4083,8 +4078,8 @@
         <v>141</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A62,"', raion:'",B62,"',password:",C62,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Красноармейская центральная районная больница"', raion:'Красноармейский',password:0029},</v>
+        <f>CONCATENATE("{ username:'",A62,"', raion:'",B62,"',password:",C62,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Красноармейская центральная районная больница"', raion:'Красноармейский',password:0029,'division':'kadry'},</v>
       </c>
     </row>
     <row r="63" ht="24" spans="1:4">
@@ -4098,8 +4093,8 @@
         <v>143</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A63,"', raion:'",B63,"',password:",C63,"},")</f>
-        <v>{ username:'Муниципальное автономное учреждение "Красноармейская стоматологическая поликлиника"', raion:'Красноармейский',password:7882},</v>
+        <f>CONCATENATE("{ username:'",A63,"', raion:'",B63,"',password:",C63,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное автономное учреждение "Красноармейская стоматологическая поликлиника"', raion:'Красноармейский',password:7882,'division':'kadry'},</v>
       </c>
     </row>
     <row r="64" ht="24" spans="1:4">
@@ -4113,8 +4108,8 @@
         <v>146</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A64,"', raion:'",B64,"',password:",C64,"},")</f>
-        <v>{ username:'Муниципальное казенное учреждение здравоохранения Хоспис детский', raion:'Краснодар',password:8450},</v>
+        <f>CONCATENATE("{ username:'",A64,"', raion:'",B64,"',password:",C64,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное казенное учреждение здравоохранения Хоспис детский', raion:'Краснодар',password:8450,'division':'kadry'},</v>
       </c>
     </row>
     <row r="65" ht="24" spans="1:4">
@@ -4128,8 +4123,8 @@
         <v>148</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A65,"', raion:'",B65,"',password:",C65,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская клиническая больница №1', raion:'Краснодар',password:7317},</v>
+        <f>CONCATENATE("{ username:'",A65,"', raion:'",B65,"',password:",C65,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская клиническая больница №1', raion:'Краснодар',password:7317,'division':'kadry'},</v>
       </c>
     </row>
     <row r="66" ht="24" spans="1:4">
@@ -4143,8 +4138,8 @@
         <v>150</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" ref="D66:D129" si="1">CONCATENATE("{ username:'",A66,"', raion:'",B66,"',password:",C66,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская клиническая больница №3', raion:'Краснодар',password:3314},</v>
+        <f t="shared" ref="D66:D129" si="1">CONCATENATE("{ username:'",A66,"', raion:'",B66,"',password:",C66,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская клиническая больница №3', raion:'Краснодар',password:3314,'division':'kadry'},</v>
       </c>
     </row>
     <row r="67" ht="24" spans="1:4">
@@ -4158,8 +4153,8 @@
         <v>152</v>
       </c>
       <c r="D67" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A67,"', raion:'",B67,"',password:",C67,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Краснодарская городская больница №4', raion:'Краснодар',password:7318},</v>
+        <f>CONCATENATE("{ username:'",A67,"', raion:'",B67,"',password:",C67,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Краснодарская городская больница №4', raion:'Краснодар',password:7318,'division':'kadry'},</v>
       </c>
     </row>
     <row r="68" ht="24" spans="1:4">
@@ -4173,8 +4168,8 @@
         <v>154</v>
       </c>
       <c r="D68" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A68,"', raion:'",B68,"',password:",C68,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Медико-санитарная часть "Масложиркомбинат Краснодарский"', raion:'Краснодар',password:1172},</v>
+        <f>CONCATENATE("{ username:'",A68,"', raion:'",B68,"',password:",C68,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Медико-санитарная часть "Масложиркомбинат Краснодарский"', raion:'Краснодар',password:1172,'division':'kadry'},</v>
       </c>
     </row>
     <row r="69" ht="24" spans="1:4">
@@ -4188,8 +4183,8 @@
         <v>156</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A69,"', raion:'",B69,"',password:",C69,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская клиническая больница №1', raion:'Краснодар',password:3719},</v>
+        <f>CONCATENATE("{ username:'",A69,"', raion:'",B69,"',password:",C69,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская клиническая больница №1', raion:'Краснодар',password:3719,'division':'kadry'},</v>
       </c>
     </row>
     <row r="70" ht="36" spans="1:4">
@@ -4203,8 +4198,8 @@
         <v>158</v>
       </c>
       <c r="D70" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A70,"', raion:'",B70,"',password:",C70,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Краснодарская городская клиническая больница скорой медицинской помощи', raion:'Краснодар',password:3940},</v>
+        <f>CONCATENATE("{ username:'",A70,"', raion:'",B70,"',password:",C70,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Краснодарская городская клиническая больница скорой медицинской помощи', raion:'Краснодар',password:3940,'division':'kadry'},</v>
       </c>
     </row>
     <row r="71" ht="24" spans="1:4">
@@ -4218,8 +4213,8 @@
         <v>160</v>
       </c>
       <c r="D71" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A71,"', raion:'",B71,"',password:",C71,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Участковая больница "Старокорсунская"', raion:'Краснодар',password:6150},</v>
+        <f>CONCATENATE("{ username:'",A71,"', raion:'",B71,"',password:",C71,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Участковая больница "Старокорсунская"', raion:'Краснодар',password:6150,'division':'kadry'},</v>
       </c>
     </row>
     <row r="72" ht="24" spans="1:4">
@@ -4233,8 +4228,8 @@
         <v>162</v>
       </c>
       <c r="D72" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A72,"', raion:'",B72,"',password:",C72,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №1', raion:'Краснодар',password:7232},</v>
+        <f>CONCATENATE("{ username:'",A72,"', raion:'",B72,"',password:",C72,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №1', raion:'Краснодар',password:7232,'division':'kadry'},</v>
       </c>
     </row>
     <row r="73" ht="24" spans="1:4">
@@ -4248,8 +4243,8 @@
         <v>164</v>
       </c>
       <c r="D73" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A73,"', raion:'",B73,"',password:",C73,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №2', raion:'Краснодар',password:3614},</v>
+        <f>CONCATENATE("{ username:'",A73,"', raion:'",B73,"',password:",C73,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №2', raion:'Краснодар',password:3614,'division':'kadry'},</v>
       </c>
     </row>
     <row r="74" ht="24" spans="1:4">
@@ -4263,8 +4258,8 @@
         <v>166</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A74,"', raion:'",B74,"',password:",C74,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №3', raion:'Краснодар',password:3610},</v>
+        <f>CONCATENATE("{ username:'",A74,"', raion:'",B74,"',password:",C74,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №3', raion:'Краснодар',password:3610,'division':'kadry'},</v>
       </c>
     </row>
     <row r="75" ht="24" spans="1:4">
@@ -4278,8 +4273,8 @@
         <v>168</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A75,"', raion:'",B75,"',password:",C75,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №4', raion:'Краснодар',password:3599},</v>
+        <f>CONCATENATE("{ username:'",A75,"', raion:'",B75,"',password:",C75,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №4', raion:'Краснодар',password:3599,'division':'kadry'},</v>
       </c>
     </row>
     <row r="76" ht="24" spans="1:4">
@@ -4293,8 +4288,8 @@
         <v>170</v>
       </c>
       <c r="D76" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A76,"', raion:'",B76,"',password:",C76,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №5', raion:'Краснодар',password:6369},</v>
+        <f>CONCATENATE("{ username:'",A76,"', raion:'",B76,"',password:",C76,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №5', raion:'Краснодар',password:6369,'division':'kadry'},</v>
       </c>
     </row>
     <row r="77" ht="24" spans="1:4">
@@ -4308,8 +4303,8 @@
         <v>172</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A77,"', raion:'",B77,"',password:",C77,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №6', raion:'Краснодар',password:7429},</v>
+        <f>CONCATENATE("{ username:'",A77,"', raion:'",B77,"',password:",C77,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №6', raion:'Краснодар',password:7429,'division':'kadry'},</v>
       </c>
     </row>
     <row r="78" ht="24" spans="1:4">
@@ -4323,8 +4318,8 @@
         <v>174</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A78,"', raion:'",B78,"',password:",C78,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №7', raion:'Краснодар',password:3632},</v>
+        <f>CONCATENATE("{ username:'",A78,"', raion:'",B78,"',password:",C78,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №7', raion:'Краснодар',password:3632,'division':'kadry'},</v>
       </c>
     </row>
     <row r="79" ht="24" spans="1:4">
@@ -4338,8 +4333,8 @@
         <v>176</v>
       </c>
       <c r="D79" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A79,"', raion:'",B79,"',password:",C79,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №9', raion:'Краснодар',password:4888},</v>
+        <f>CONCATENATE("{ username:'",A79,"', raion:'",B79,"',password:",C79,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №9', raion:'Краснодар',password:4888,'division':'kadry'},</v>
       </c>
     </row>
     <row r="80" ht="24" spans="1:4">
@@ -4353,8 +4348,8 @@
         <v>178</v>
       </c>
       <c r="D80" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A80,"', raion:'",B80,"',password:",C80,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №10', raion:'Краснодар',password:6274},</v>
+        <f>CONCATENATE("{ username:'",A80,"', raion:'",B80,"',password:",C80,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №10', raion:'Краснодар',password:6274,'division':'kadry'},</v>
       </c>
     </row>
     <row r="81" ht="24" spans="1:4">
@@ -4368,8 +4363,8 @@
         <v>180</v>
       </c>
       <c r="D81" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A81,"', raion:'",B81,"',password:",C81,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №11', raion:'Краснодар',password:1470},</v>
+        <f>CONCATENATE("{ username:'",A81,"', raion:'",B81,"',password:",C81,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №11', raion:'Краснодар',password:1470,'division':'kadry'},</v>
       </c>
     </row>
     <row r="82" ht="24" spans="1:4">
@@ -4383,8 +4378,8 @@
         <v>182</v>
       </c>
       <c r="D82" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A82,"', raion:'",B82,"',password:",C82,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №12', raion:'Краснодар',password:7422},</v>
+        <f>CONCATENATE("{ username:'",A82,"', raion:'",B82,"',password:",C82,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №12', raion:'Краснодар',password:7422,'division':'kadry'},</v>
       </c>
     </row>
     <row r="83" ht="24" spans="1:4">
@@ -4398,8 +4393,8 @@
         <v>184</v>
       </c>
       <c r="D83" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A83,"', raion:'",B83,"',password:",C83,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №13 "Калининская"', raion:'Краснодар',password:1167},</v>
+        <f>CONCATENATE("{ username:'",A83,"', raion:'",B83,"',password:",C83,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №13 "Калининская"', raion:'Краснодар',password:1167,'division':'kadry'},</v>
       </c>
     </row>
     <row r="84" ht="24" spans="1:4">
@@ -4413,8 +4408,8 @@
         <v>186</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A84,"', raion:'",B84,"',password:",C84,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №14', raion:'Краснодар',password:5732},</v>
+        <f>CONCATENATE("{ username:'",A84,"', raion:'",B84,"',password:",C84,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №14', raion:'Краснодар',password:5732,'division':'kadry'},</v>
       </c>
     </row>
     <row r="85" ht="24" spans="1:4">
@@ -4428,8 +4423,8 @@
         <v>188</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A85,"', raion:'",B85,"',password:",C85,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №15', raion:'Краснодар',password:6079},</v>
+        <f>CONCATENATE("{ username:'",A85,"', raion:'",B85,"',password:",C85,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №15', raion:'Краснодар',password:6079,'division':'kadry'},</v>
       </c>
     </row>
     <row r="86" ht="24" spans="1:4">
@@ -4443,8 +4438,8 @@
         <v>190</v>
       </c>
       <c r="D86" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A86,"', raion:'",B86,"',password:",C86,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №16', raion:'Краснодар',password:0895},</v>
+        <f>CONCATENATE("{ username:'",A86,"', raion:'",B86,"',password:",C86,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №16', raion:'Краснодар',password:0895,'division':'kadry'},</v>
       </c>
     </row>
     <row r="87" ht="24" spans="1:4">
@@ -4458,8 +4453,8 @@
         <v>192</v>
       </c>
       <c r="D87" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A87,"', raion:'",B87,"',password:",C87,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №17', raion:'Краснодар',password:0357},</v>
+        <f>CONCATENATE("{ username:'",A87,"', raion:'",B87,"',password:",C87,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №17', raion:'Краснодар',password:0357,'division':'kadry'},</v>
       </c>
     </row>
     <row r="88" ht="24" spans="1:4">
@@ -4473,8 +4468,8 @@
         <v>194</v>
       </c>
       <c r="D88" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A88,"', raion:'",B88,"',password:",C88,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №19', raion:'Краснодар',password:7860},</v>
+        <f>CONCATENATE("{ username:'",A88,"', raion:'",B88,"',password:",C88,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №19', raion:'Краснодар',password:7860,'division':'kadry'},</v>
       </c>
     </row>
     <row r="89" ht="24" spans="1:4">
@@ -4488,8 +4483,8 @@
         <v>196</v>
       </c>
       <c r="D89" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A89,"', raion:'",B89,"',password:",C89,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №22', raion:'Краснодар',password:9497},</v>
+        <f>CONCATENATE("{ username:'",A89,"', raion:'",B89,"',password:",C89,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №22', raion:'Краснодар',password:9497,'division':'kadry'},</v>
       </c>
     </row>
     <row r="90" ht="24" spans="1:4">
@@ -4503,8 +4498,8 @@
         <v>198</v>
       </c>
       <c r="D90" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A90,"', raion:'",B90,"',password:",C90,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №25', raion:'Краснодар',password:0589},</v>
+        <f>CONCATENATE("{ username:'",A90,"', raion:'",B90,"',password:",C90,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №25', raion:'Краснодар',password:0589,'division':'kadry'},</v>
       </c>
     </row>
     <row r="91" ht="24" spans="1:4">
@@ -4518,8 +4513,8 @@
         <v>200</v>
       </c>
       <c r="D91" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A91,"', raion:'",B91,"',password:",C91,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №26', raion:'Краснодар',password:4097},</v>
+        <f>CONCATENATE("{ username:'",A91,"', raion:'",B91,"',password:",C91,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №26', raion:'Краснодар',password:4097,'division':'kadry'},</v>
       </c>
     </row>
     <row r="92" ht="24" spans="1:4">
@@ -4533,8 +4528,8 @@
         <v>202</v>
       </c>
       <c r="D92" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A92,"', raion:'",B92,"',password:",C92,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №23', raion:'Краснодар',password:6419},</v>
+        <f>CONCATENATE("{ username:'",A92,"', raion:'",B92,"',password:",C92,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №23', raion:'Краснодар',password:6419,'division':'kadry'},</v>
       </c>
     </row>
     <row r="93" ht="24" spans="1:4">
@@ -4548,8 +4543,8 @@
         <v>204</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A93,"', raion:'",B93,"',password:",C93,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №27', raion:'Краснодар',password:9846},</v>
+        <f>CONCATENATE("{ username:'",A93,"', raion:'",B93,"',password:",C93,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Городская поликлиника №27', raion:'Краснодар',password:9846,'division':'kadry'},</v>
       </c>
     </row>
     <row r="94" ht="24" spans="1:4">
@@ -4563,8 +4558,8 @@
         <v>206</v>
       </c>
       <c r="D94" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A94,"', raion:'",B94,"',password:",C94,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №1', raion:'Краснодар',password:0908},</v>
+        <f>CONCATENATE("{ username:'",A94,"', raion:'",B94,"',password:",C94,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №1', raion:'Краснодар',password:0908,'division':'kadry'},</v>
       </c>
     </row>
     <row r="95" ht="24" spans="1:4">
@@ -4578,8 +4573,8 @@
         <v>208</v>
       </c>
       <c r="D95" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A95,"', raion:'",B95,"',password:",C95,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №2', raion:'Краснодар',password:7821},</v>
+        <f>CONCATENATE("{ username:'",A95,"', raion:'",B95,"',password:",C95,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №2', raion:'Краснодар',password:7821,'division':'kadry'},</v>
       </c>
     </row>
     <row r="96" ht="24" spans="1:4">
@@ -4593,8 +4588,8 @@
         <v>210</v>
       </c>
       <c r="D96" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A96,"', raion:'",B96,"',password:",C96,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №4', raion:'Краснодар',password:6727},</v>
+        <f>CONCATENATE("{ username:'",A96,"', raion:'",B96,"',password:",C96,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №4', raion:'Краснодар',password:6727,'division':'kadry'},</v>
       </c>
     </row>
     <row r="97" ht="24" spans="1:4">
@@ -4608,8 +4603,8 @@
         <v>212</v>
       </c>
       <c r="D97" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A97,"', raion:'",B97,"',password:",C97,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №5', raion:'Краснодар',password:7280},</v>
+        <f>CONCATENATE("{ username:'",A97,"', raion:'",B97,"',password:",C97,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №5', raion:'Краснодар',password:7280,'division':'kadry'},</v>
       </c>
     </row>
     <row r="98" ht="24" spans="1:4">
@@ -4623,8 +4618,8 @@
         <v>214</v>
       </c>
       <c r="D98" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A98,"', raion:'",B98,"',password:",C98,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №6', raion:'Краснодар',password:2523},</v>
+        <f>CONCATENATE("{ username:'",A98,"', raion:'",B98,"',password:",C98,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №6', raion:'Краснодар',password:2523,'division':'kadry'},</v>
       </c>
     </row>
     <row r="99" ht="24" spans="1:4">
@@ -4638,8 +4633,8 @@
         <v>216</v>
       </c>
       <c r="D99" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A99,"', raion:'",B99,"',password:",C99,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №7', raion:'Краснодар',password:6816},</v>
+        <f>CONCATENATE("{ username:'",A99,"', raion:'",B99,"',password:",C99,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №7', raion:'Краснодар',password:6816,'division':'kadry'},</v>
       </c>
     </row>
     <row r="100" ht="24" spans="1:4">
@@ -4653,8 +4648,8 @@
         <v>218</v>
       </c>
       <c r="D100" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A100,"', raion:'",B100,"',password:",C100,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №8', raion:'Краснодар',password:9314},</v>
+        <f>CONCATENATE("{ username:'",A100,"', raion:'",B100,"',password:",C100,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №8', raion:'Краснодар',password:9314,'division':'kadry'},</v>
       </c>
     </row>
     <row r="101" ht="24" spans="1:4">
@@ -4668,8 +4663,8 @@
         <v>220</v>
       </c>
       <c r="D101" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A101,"', raion:'",B101,"',password:",C101,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №9', raion:'Краснодар',password:7451},</v>
+        <f>CONCATENATE("{ username:'",A101,"', raion:'",B101,"',password:",C101,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №9', raion:'Краснодар',password:7451,'division':'kadry'},</v>
       </c>
     </row>
     <row r="102" ht="24" spans="1:4">
@@ -4683,8 +4678,8 @@
         <v>222</v>
       </c>
       <c r="D102" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A102,"', raion:'",B102,"',password:",C102,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №3', raion:'Краснодар',password:6364},</v>
+        <f>CONCATENATE("{ username:'",A102,"', raion:'",B102,"',password:",C102,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская городская поликлиника №3', raion:'Краснодар',password:6364,'division':'kadry'},</v>
       </c>
     </row>
     <row r="103" ht="24" spans="1:4">
@@ -4698,8 +4693,8 @@
         <v>224</v>
       </c>
       <c r="D103" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A103,"', raion:'",B103,"',password:",C103,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Стоматологическая поликлиника №1', raion:'Краснодар',password:6010},</v>
+        <f>CONCATENATE("{ username:'",A103,"', raion:'",B103,"',password:",C103,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Стоматологическая поликлиника №1', raion:'Краснодар',password:6010,'division':'kadry'},</v>
       </c>
     </row>
     <row r="104" ht="36" spans="1:4">
@@ -4713,8 +4708,8 @@
         <v>226</v>
       </c>
       <c r="D104" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A104,"', raion:'",B104,"',password:",C104,"},")</f>
-        <v>{ username:'Муниципальное автономное учреждение здравоохранения муниципального образования город Краснодар Стоматологическая поликлиника №2', raion:'Краснодар',password:7180},</v>
+        <f>CONCATENATE("{ username:'",A104,"', raion:'",B104,"',password:",C104,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное автономное учреждение здравоохранения муниципального образования город Краснодар Стоматологическая поликлиника №2', raion:'Краснодар',password:7180,'division':'kadry'},</v>
       </c>
     </row>
     <row r="105" ht="24" spans="1:4">
@@ -4728,8 +4723,8 @@
         <v>228</v>
       </c>
       <c r="D105" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A105,"', raion:'",B105,"',password:",C105,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Стоматологическая поликлиника №3', raion:'Краснодар',password:6397},</v>
+        <f>CONCATENATE("{ username:'",A105,"', raion:'",B105,"',password:",C105,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Стоматологическая поликлиника №3', raion:'Краснодар',password:6397,'division':'kadry'},</v>
       </c>
     </row>
     <row r="106" ht="24" spans="1:4">
@@ -4743,8 +4738,8 @@
         <v>230</v>
       </c>
       <c r="D106" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A106,"', raion:'",B106,"',password:",C106,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская стоматологическая поликлиника №1', raion:'Краснодар',password:6193},</v>
+        <f>CONCATENATE("{ username:'",A106,"', raion:'",B106,"',password:",C106,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская стоматологическая поликлиника №1', raion:'Краснодар',password:6193,'division':'kadry'},</v>
       </c>
     </row>
     <row r="107" ht="24" spans="1:4">
@@ -4758,8 +4753,8 @@
         <v>232</v>
       </c>
       <c r="D107" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A107,"', raion:'",B107,"',password:",C107,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская стоматологическая поликлиника №2', raion:'Краснодар',password:5899},</v>
+        <f>CONCATENATE("{ username:'",A107,"', raion:'",B107,"',password:",C107,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская стоматологическая поликлиника №2', raion:'Краснодар',password:5899,'division':'kadry'},</v>
       </c>
     </row>
     <row r="108" ht="24" spans="1:4">
@@ -4773,8 +4768,8 @@
         <v>234</v>
       </c>
       <c r="D108" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A108,"', raion:'",B108,"',password:",C108,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская стоматологическая поликлиника №3', raion:'Краснодар',password:9248},</v>
+        <f>CONCATENATE("{ username:'",A108,"', raion:'",B108,"',password:",C108,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Детская стоматологическая поликлиника №3', raion:'Краснодар',password:9248,'division':'kadry'},</v>
       </c>
     </row>
     <row r="109" ht="24" spans="1:4">
@@ -4788,8 +4783,8 @@
         <v>236</v>
       </c>
       <c r="D109" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A109,"', raion:'",B109,"',password:",C109,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Центр восстановительной медицины и реабилитации', raion:'Краснодар',password:0505},</v>
+        <f>CONCATENATE("{ username:'",A109,"', raion:'",B109,"',password:",C109,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Центр восстановительной медицины и реабилитации', raion:'Краснодар',password:0505,'division':'kadry'},</v>
       </c>
     </row>
     <row r="110" ht="24" spans="1:4">
@@ -4803,8 +4798,8 @@
         <v>238</v>
       </c>
       <c r="D110" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A110,"', raion:'",B110,"',password:",C110,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Центр реабилитации "Источник"', raion:'Краснодар',password:3073},</v>
+        <f>CONCATENATE("{ username:'",A110,"', raion:'",B110,"',password:",C110,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Центр реабилитации "Источник"', raion:'Краснодар',password:3073,'division':'kadry'},</v>
       </c>
     </row>
     <row r="111" ht="24" spans="1:4">
@@ -4818,8 +4813,8 @@
         <v>240</v>
       </c>
       <c r="D111" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A111,"', raion:'",B111,"',password:",C111,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Родильный дом', raion:'Краснодар',password:5931},</v>
+        <f>CONCATENATE("{ username:'",A111,"', raion:'",B111,"',password:",C111,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Родильный дом', raion:'Краснодар',password:5931,'division':'kadry'},</v>
       </c>
     </row>
     <row r="112" ht="24" spans="1:4">
@@ -4833,8 +4828,8 @@
         <v>242</v>
       </c>
       <c r="D112" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A112,"', raion:'",B112,"',password:",C112,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Женская консультация', raion:'Краснодар',password:8799},</v>
+        <f>CONCATENATE("{ username:'",A112,"', raion:'",B112,"',password:",C112,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Женская консультация', raion:'Краснодар',password:8799,'division':'kadry'},</v>
       </c>
     </row>
     <row r="113" ht="24" spans="1:4">
@@ -4848,8 +4843,8 @@
         <v>244</v>
       </c>
       <c r="D113" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A113,"', raion:'",B113,"',password:",C113,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Бюро патологоанатомическое', raion:'Краснодар',password:6268},</v>
+        <f>CONCATENATE("{ username:'",A113,"', raion:'",B113,"',password:",C113,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Бюро патологоанатомическое', raion:'Краснодар',password:6268,'division':'kadry'},</v>
       </c>
     </row>
     <row r="114" ht="36" spans="1:4">
@@ -4863,8 +4858,8 @@
         <v>247</v>
       </c>
       <c r="D114" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A114,"', raion:'",B114,"',password:",C114,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Крыловская центральная районная больница" муниципального образования Крыловский район', raion:'Крыловский',password:8860},</v>
+        <f>CONCATENATE("{ username:'",A114,"', raion:'",B114,"',password:",C114,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Крыловская центральная районная больница" муниципального образования Крыловский район', raion:'Крыловский',password:8860,'division':'kadry'},</v>
       </c>
     </row>
     <row r="115" ht="36" spans="1:4">
@@ -4878,8 +4873,8 @@
         <v>249</v>
       </c>
       <c r="D115" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A115,"', raion:'",B115,"',password:",C115,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Крыловская стоматологическая поликлиника муниципального образования Крыловский район', raion:'Крыловский',password:3204},</v>
+        <f>CONCATENATE("{ username:'",A115,"', raion:'",B115,"',password:",C115,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Крыловская стоматологическая поликлиника муниципального образования Крыловский район', raion:'Крыловский',password:3204,'division':'kadry'},</v>
       </c>
     </row>
     <row r="116" ht="36" spans="1:4">
@@ -4893,8 +4888,8 @@
         <v>252</v>
       </c>
       <c r="D116" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A116,"', raion:'",B116,"',password:",C116,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Крымская центральная районная больница" муниципального образования Крымский район', raion:'Крымский',password:3635},</v>
+        <f>CONCATENATE("{ username:'",A116,"', raion:'",B116,"',password:",C116,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Крымская центральная районная больница" муниципального образования Крымский район', raion:'Крымский',password:3635,'division':'kadry'},</v>
       </c>
     </row>
     <row r="117" ht="24" spans="1:4">
@@ -4908,8 +4903,8 @@
         <v>255</v>
       </c>
       <c r="D117" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A117,"', raion:'",B117,"',password:",C117,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Курганинская центральная районная больница"', raion:'Курганинский',password:2558},</v>
+        <f>CONCATENATE("{ username:'",A117,"', raion:'",B117,"',password:",C117,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Курганинская центральная районная больница"', raion:'Курганинский',password:2558,'division':'kadry'},</v>
       </c>
     </row>
     <row r="118" ht="24" spans="1:4">
@@ -4923,8 +4918,8 @@
         <v>257</v>
       </c>
       <c r="D118" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A118,"', raion:'",B118,"',password:",C118,"},")</f>
-        <v>{ username:'Муниципальное автономное учреждение здравоохранения "Курганинская районная стоматологическая поликлиника"', raion:'Курганинский',password:3338},</v>
+        <f>CONCATENATE("{ username:'",A118,"', raion:'",B118,"',password:",C118,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное автономное учреждение здравоохранения "Курганинская районная стоматологическая поликлиника"', raion:'Курганинский',password:3338,'division':'kadry'},</v>
       </c>
     </row>
     <row r="119" ht="24" spans="1:4">
@@ -4938,8 +4933,8 @@
         <v>260</v>
       </c>
       <c r="D119" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A119,"', raion:'",B119,"',password:",C119,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Кущевская центральная районная больница"', raion:'Кущевский',password:2439},</v>
+        <f>CONCATENATE("{ username:'",A119,"', raion:'",B119,"',password:",C119,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Кущевская центральная районная больница"', raion:'Кущевский',password:2439,'division':'kadry'},</v>
       </c>
     </row>
     <row r="120" ht="24" spans="1:4">
@@ -4953,8 +4948,8 @@
         <v>262</v>
       </c>
       <c r="D120" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A120,"', raion:'",B120,"',password:",C120,"},")</f>
-        <v>{ username:'Муниципальное автономное учреждение "Кущевская стоматологическая поликлиника" ', raion:'Кущевский',password:4200},</v>
+        <f>CONCATENATE("{ username:'",A120,"', raion:'",B120,"',password:",C120,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное автономное учреждение "Кущевская стоматологическая поликлиника" ', raion:'Кущевский',password:4200,'division':'kadry'},</v>
       </c>
     </row>
     <row r="121" ht="36" spans="1:4">
@@ -4968,8 +4963,8 @@
         <v>265</v>
       </c>
       <c r="D121" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A121,"', raion:'",B121,"',password:",C121,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования  Лабинский район Краснодарского края "Центральная районная больница"', raion:'Лабинский',password:0360},</v>
+        <f>CONCATENATE("{ username:'",A121,"', raion:'",B121,"',password:",C121,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования  Лабинский район Краснодарского края "Центральная районная больница"', raion:'Лабинский',password:0360,'division':'kadry'},</v>
       </c>
     </row>
     <row r="122" ht="36" spans="1:4">
@@ -4983,8 +4978,8 @@
         <v>267</v>
       </c>
       <c r="D122" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A122,"', raion:'",B122,"',password:",C122,"},")</f>
-        <v>{ username:'Муниципальное автономное учреждение здравоохранения муниципального образования Лабинский район "Стоматологическая поликлиника" ', raion:'Лабинский',password:3608},</v>
+        <f>CONCATENATE("{ username:'",A122,"', raion:'",B122,"',password:",C122,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное автономное учреждение здравоохранения муниципального образования Лабинский район "Стоматологическая поликлиника" ', raion:'Лабинский',password:3608,'division':'kadry'},</v>
       </c>
     </row>
     <row r="123" ht="24" spans="1:4">
@@ -4998,8 +4993,8 @@
         <v>270</v>
       </c>
       <c r="D123" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A123,"', raion:'",B123,"',password:",C123,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Ленинградская центральная районная больница"', raion:'Ленинградский',password:0437},</v>
+        <f>CONCATENATE("{ username:'",A123,"', raion:'",B123,"',password:",C123,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Ленинградская центральная районная больница"', raion:'Ленинградский',password:0437,'division':'kadry'},</v>
       </c>
     </row>
     <row r="124" ht="24" spans="1:4">
@@ -5013,8 +5008,8 @@
         <v>273</v>
       </c>
       <c r="D124" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A124,"', raion:'",B124,"',password:",C124,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Мостовская центральная районная больница"', raion:'Мостовский',password:1308},</v>
+        <f>CONCATENATE("{ username:'",A124,"', raion:'",B124,"',password:",C124,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Мостовская центральная районная больница"', raion:'Мостовский',password:1308,'division':'kadry'},</v>
       </c>
     </row>
     <row r="125" ht="24" spans="1:4">
@@ -5028,8 +5023,8 @@
         <v>276</v>
       </c>
       <c r="D125" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A125,"', raion:'",B125,"',password:",C125,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница" Новокубанского района', raion:'Новокубанский',password:8626},</v>
+        <f>CONCATENATE("{ username:'",A125,"', raion:'",B125,"',password:",C125,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница" Новокубанского района', raion:'Новокубанский',password:8626,'division':'kadry'},</v>
       </c>
     </row>
     <row r="126" ht="24" spans="1:4">
@@ -5043,8 +5038,8 @@
         <v>273</v>
       </c>
       <c r="D126" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A126,"', raion:'",B126,"',password:",C126,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Новокубанская стоматологическая поликлиника"', raion:'Новокубанский',password:1308},</v>
+        <f>CONCATENATE("{ username:'",A126,"', raion:'",B126,"',password:",C126,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Новокубанская стоматологическая поликлиника"', raion:'Новокубанский',password:1308,'division':'kadry'},</v>
       </c>
     </row>
     <row r="127" ht="36" spans="1:4">
@@ -5058,8 +5053,8 @@
         <v>280</v>
       </c>
       <c r="D127" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A127,"', raion:'",B127,"',password:",C127,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница муниципального образования Новопокровский район"', raion:'Новопокровский',password:7276},</v>
+        <f>CONCATENATE("{ username:'",A127,"', raion:'",B127,"',password:",C127,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница муниципального образования Новопокровский район"', raion:'Новопокровский',password:7276,'division':'kadry'},</v>
       </c>
     </row>
     <row r="128" ht="36" spans="1:4">
@@ -5073,8 +5068,8 @@
         <v>283</v>
       </c>
       <c r="D128" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A128,"', raion:'",B128,"',password:",C128,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Городская больница №1" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:0565},</v>
+        <f>CONCATENATE("{ username:'",A128,"', raion:'",B128,"',password:",C128,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская больница №1" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:0565,'division':'kadry'},</v>
       </c>
     </row>
     <row r="129" ht="36" spans="1:4">
@@ -5088,8 +5083,8 @@
         <v>285</v>
       </c>
       <c r="D129" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A129,"', raion:'",B129,"',password:",C129,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Городская больница №2" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:4933},</v>
+        <f>CONCATENATE("{ username:'",A129,"', raion:'",B129,"',password:",C129,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская больница №2" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:4933,'division':'kadry'},</v>
       </c>
     </row>
     <row r="130" ht="36" spans="1:4">
@@ -5103,8 +5098,8 @@
         <v>287</v>
       </c>
       <c r="D130" s="3" t="str">
-        <f t="shared" ref="D130:D193" si="2">CONCATENATE("{ username:'",A130,"', raion:'",B130,"',password:",C130,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Городская больница №3" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:4664},</v>
+        <f t="shared" ref="D130:D193" si="2">CONCATENATE("{ username:'",A130,"', raion:'",B130,"',password:",C130,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская больница №3" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:4664,'division':'kadry'},</v>
       </c>
     </row>
     <row r="131" ht="36" spans="1:4">
@@ -5118,8 +5113,8 @@
         <v>289</v>
       </c>
       <c r="D131" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A131,"', raion:'",B131,"',password:",C131,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Городская больница №4" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:7905},</v>
+        <f>CONCATENATE("{ username:'",A131,"', raion:'",B131,"',password:",C131,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская больница №4" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:7905,'division':'kadry'},</v>
       </c>
     </row>
     <row r="132" ht="36" spans="1:4">
@@ -5133,8 +5128,8 @@
         <v>291</v>
       </c>
       <c r="D132" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A132,"', raion:'",B132,"',password:",C132,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Детская городская больница" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:1291},</v>
+        <f>CONCATENATE("{ username:'",A132,"', raion:'",B132,"',password:",C132,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Детская городская больница" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:1291,'division':'kadry'},</v>
       </c>
     </row>
     <row r="133" ht="36" spans="1:4">
@@ -5148,8 +5143,8 @@
         <v>293</v>
       </c>
       <c r="D133" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A133,"', raion:'",B133,"',password:",C133,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Участковая больница" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:1701},</v>
+        <f>CONCATENATE("{ username:'",A133,"', raion:'",B133,"',password:",C133,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Участковая больница" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:1701,'division':'kadry'},</v>
       </c>
     </row>
     <row r="134" ht="36" spans="1:4">
@@ -5163,8 +5158,8 @@
         <v>295</v>
       </c>
       <c r="D134" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A134,"', raion:'",B134,"',password:",C134,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №1" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:2685},</v>
+        <f>CONCATENATE("{ username:'",A134,"', raion:'",B134,"',password:",C134,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №1" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:2685,'division':'kadry'},</v>
       </c>
     </row>
     <row r="135" ht="36" spans="1:4">
@@ -5178,8 +5173,8 @@
         <v>297</v>
       </c>
       <c r="D135" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A135,"', raion:'",B135,"',password:",C135,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №2" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:4429},</v>
+        <f>CONCATENATE("{ username:'",A135,"', raion:'",B135,"',password:",C135,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №2" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:4429,'division':'kadry'},</v>
       </c>
     </row>
     <row r="136" ht="36" spans="1:4">
@@ -5193,8 +5188,8 @@
         <v>299</v>
       </c>
       <c r="D136" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A136,"', raion:'",B136,"',password:",C136,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №3" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:5228},</v>
+        <f>CONCATENATE("{ username:'",A136,"', raion:'",B136,"',password:",C136,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №3" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:5228,'division':'kadry'},</v>
       </c>
     </row>
     <row r="137" ht="36" spans="1:4">
@@ -5208,8 +5203,8 @@
         <v>301</v>
       </c>
       <c r="D137" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A137,"', raion:'",B137,"',password:",C137,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №4" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:5139},</v>
+        <f>CONCATENATE("{ username:'",A137,"', raion:'",B137,"',password:",C137,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №4" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:5139,'division':'kadry'},</v>
       </c>
     </row>
     <row r="138" ht="36" spans="1:4">
@@ -5223,8 +5218,8 @@
         <v>303</v>
       </c>
       <c r="D138" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A138,"', raion:'",B138,"',password:",C138,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №5" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:2123},</v>
+        <f>CONCATENATE("{ username:'",A138,"', raion:'",B138,"',password:",C138,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №5" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:2123,'division':'kadry'},</v>
       </c>
     </row>
     <row r="139" ht="36" spans="1:4">
@@ -5238,8 +5233,8 @@
         <v>305</v>
       </c>
       <c r="D139" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A139,"', raion:'",B139,"',password:",C139,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №6" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:2393},</v>
+        <f>CONCATENATE("{ username:'",A139,"', raion:'",B139,"',password:",C139,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Городская поликлиника №6" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:2393,'division':'kadry'},</v>
       </c>
     </row>
     <row r="140" ht="24" spans="1:4">
@@ -5253,8 +5248,8 @@
         <v>307</v>
       </c>
       <c r="D140" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A140,"', raion:'",B140,"',password:",C140,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Амбулатория №1" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:0052},</v>
+        <f>CONCATENATE("{ username:'",A140,"', raion:'",B140,"',password:",C140,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Амбулатория №1" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:0052,'division':'kadry'},</v>
       </c>
     </row>
     <row r="141" ht="24" spans="1:4">
@@ -5268,8 +5263,8 @@
         <v>309</v>
       </c>
       <c r="D141" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A141,"', raion:'",B141,"',password:",C141,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Амбулатория №2" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:2590},</v>
+        <f>CONCATENATE("{ username:'",A141,"', raion:'",B141,"',password:",C141,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Амбулатория №2" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:2590,'division':'kadry'},</v>
       </c>
     </row>
     <row r="142" ht="24" spans="1:4">
@@ -5283,8 +5278,8 @@
         <v>311</v>
       </c>
       <c r="D142" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A142,"', raion:'",B142,"',password:",C142,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Амбулатория №3" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:3090},</v>
+        <f>CONCATENATE("{ username:'",A142,"', raion:'",B142,"',password:",C142,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Амбулатория №3" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:3090,'division':'kadry'},</v>
       </c>
     </row>
     <row r="143" ht="36" spans="1:4">
@@ -5298,8 +5293,8 @@
         <v>313</v>
       </c>
       <c r="D143" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A143,"', raion:'",B143,"',password:",C143,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Детская городская поликлиника" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:3609},</v>
+        <f>CONCATENATE("{ username:'",A143,"', raion:'",B143,"',password:",C143,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Детская городская поликлиника" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:3609,'division':'kadry'},</v>
       </c>
     </row>
     <row r="144" ht="36" spans="1:4">
@@ -5313,8 +5308,8 @@
         <v>315</v>
       </c>
       <c r="D144" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A144,"', raion:'",B144,"',password:",C144,"},")</f>
-        <v>{ username:'Муниципальное автономное учреждение "Стоматологическая поликлиника №1" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:6367},</v>
+        <f>CONCATENATE("{ username:'",A144,"', raion:'",B144,"',password:",C144,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное автономное учреждение "Стоматологическая поликлиника №1" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:6367,'division':'kadry'},</v>
       </c>
     </row>
     <row r="145" ht="36" spans="1:4">
@@ -5328,8 +5323,8 @@
         <v>317</v>
       </c>
       <c r="D145" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A145,"', raion:'",B145,"',password:",C145,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Детская стоматологическая поликлиника" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:3264},</v>
+        <f>CONCATENATE("{ username:'",A145,"', raion:'",B145,"',password:",C145,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Детская стоматологическая поликлиника" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:3264,'division':'kadry'},</v>
       </c>
     </row>
     <row r="146" ht="36" spans="1:4">
@@ -5343,8 +5338,8 @@
         <v>319</v>
       </c>
       <c r="D146" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A146,"', raion:'",B146,"',password:",C146,"},")</f>
-        <v>{ username:'Муниципальное автономное учреждение "Клинико-диагностический центр" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:1699},</v>
+        <f>CONCATENATE("{ username:'",A146,"', raion:'",B146,"',password:",C146,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное автономное учреждение "Клинико-диагностический центр" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:1699,'division':'kadry'},</v>
       </c>
     </row>
     <row r="147" ht="36" spans="1:4">
@@ -5358,8 +5353,8 @@
         <v>321</v>
       </c>
       <c r="D147" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A147,"', raion:'",B147,"',password:",C147,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Станция скорой медицинской помощи" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:4651},</v>
+        <f>CONCATENATE("{ username:'",A147,"', raion:'",B147,"',password:",C147,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Станция скорой медицинской помощи" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:4651,'division':'kadry'},</v>
       </c>
     </row>
     <row r="148" ht="36" spans="1:4">
@@ -5373,8 +5368,8 @@
         <v>323</v>
       </c>
       <c r="D148" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A148,"', raion:'",B148,"',password:",C148,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Перинатальный центр" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:1823},</v>
+        <f>CONCATENATE("{ username:'",A148,"', raion:'",B148,"',password:",C148,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Перинатальный центр" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:1823,'division':'kadry'},</v>
       </c>
     </row>
     <row r="149" ht="36" spans="1:4">
@@ -5388,8 +5383,8 @@
         <v>325</v>
       </c>
       <c r="D149" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A149,"', raion:'",B149,"',password:",C149,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Патологоанатомическое бюро" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:6365},</v>
+        <f>CONCATENATE("{ username:'",A149,"', raion:'",B149,"',password:",C149,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Патологоанатомическое бюро" управления здравоохранения администрации города Новороссийска', raion:'Новороссийск',password:6365,'division':'kadry'},</v>
       </c>
     </row>
     <row r="150" ht="24" spans="1:4">
@@ -5403,8 +5398,8 @@
         <v>328</v>
       </c>
       <c r="D150" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A150,"', raion:'",B150,"',password:",C150,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Отрадненская центральная районная больница"', raion:'Отрадненский',password:6394},</v>
+        <f>CONCATENATE("{ username:'",A150,"', raion:'",B150,"',password:",C150,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Отрадненская центральная районная больница"', raion:'Отрадненский',password:6394,'division':'kadry'},</v>
       </c>
     </row>
     <row r="151" ht="36" spans="1:4">
@@ -5418,8 +5413,8 @@
         <v>331</v>
       </c>
       <c r="D151" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A151,"', raion:'",B151,"',password:",C151,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница" администрации муниципального образования Павловский район', raion:'Павловский',password:7233},</v>
+        <f>CONCATENATE("{ username:'",A151,"', raion:'",B151,"',password:",C151,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница" администрации муниципального образования Павловский район', raion:'Павловский',password:7233,'division':'kadry'},</v>
       </c>
     </row>
     <row r="152" ht="24" spans="1:4">
@@ -5433,8 +5428,8 @@
         <v>333</v>
       </c>
       <c r="D152" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A152,"', raion:'",B152,"',password:",C152,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Павловская стоматологическая поликлиника"', raion:'Павловский',password:6786},</v>
+        <f>CONCATENATE("{ username:'",A152,"', raion:'",B152,"',password:",C152,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Павловская стоматологическая поликлиника"', raion:'Павловский',password:6786,'division':'kadry'},</v>
       </c>
     </row>
     <row r="153" ht="36" spans="1:4">
@@ -5448,8 +5443,8 @@
         <v>336</v>
       </c>
       <c r="D153" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A153,"', raion:'",B153,"',password:",C153,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Приморско-Ахтарская центральная районная больница имени Кравченко Н.Г." ', raion:'Приморско-Ахтарский',password:0393},</v>
+        <f>CONCATENATE("{ username:'",A153,"', raion:'",B153,"',password:",C153,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Приморско-Ахтарская центральная районная больница имени Кравченко Н.Г." ', raion:'Приморско-Ахтарский',password:0393,'division':'kadry'},</v>
       </c>
     </row>
     <row r="154" ht="36" spans="1:4">
@@ -5463,8 +5458,8 @@
         <v>338</v>
       </c>
       <c r="D154" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A154,"', raion:'",B154,"',password:",C154,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Приморско-Ахтарского района "Районная стоматологическая поликлиника"', raion:'Приморско-Ахтарский',password:6620},</v>
+        <f>CONCATENATE("{ username:'",A154,"', raion:'",B154,"',password:",C154,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Приморско-Ахтарского района "Районная стоматологическая поликлиника"', raion:'Приморско-Ахтарский',password:6620,'division':'kadry'},</v>
       </c>
     </row>
     <row r="155" ht="36" spans="1:4">
@@ -5478,8 +5473,8 @@
         <v>341</v>
       </c>
       <c r="D155" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A155,"', raion:'",B155,"',password:",C155,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Северский район "Северская центральная районная больница" ', raion:'Северский',password:6240},</v>
+        <f>CONCATENATE("{ username:'",A155,"', raion:'",B155,"',password:",C155,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Северский район "Северская центральная районная больница" ', raion:'Северский',password:6240,'division':'kadry'},</v>
       </c>
     </row>
     <row r="156" ht="36" spans="1:4">
@@ -5493,8 +5488,8 @@
         <v>343</v>
       </c>
       <c r="D156" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A156,"', raion:'",B156,"',password:",C156,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Северский район "Северская районная стоматологическая поликлиника" ', raion:'Северский',password:9822},</v>
+        <f>CONCATENATE("{ username:'",A156,"', raion:'",B156,"',password:",C156,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения муниципального образования Северский район "Северская районная стоматологическая поликлиника" ', raion:'Северский',password:9822,'division':'kadry'},</v>
       </c>
     </row>
     <row r="157" ht="24" spans="1:4">
@@ -5508,8 +5503,8 @@
         <v>346</v>
       </c>
       <c r="D157" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A157,"', raion:'",B157,"',password:",C157,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение "Славянская центральная районная больница"', raion:'Славянский',password:1241},</v>
+        <f>CONCATENATE("{ username:'",A157,"', raion:'",B157,"',password:",C157,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение "Славянская центральная районная больница"', raion:'Славянский',password:1241,'division':'kadry'},</v>
       </c>
     </row>
     <row r="158" ht="24" spans="1:4">
@@ -5523,8 +5518,8 @@
         <v>348</v>
       </c>
       <c r="D158" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A158,"', raion:'",B158,"',password:",C158,"},")</f>
-        <v>{ username:'Муниципальное автономное учреждение "Стоматологическая поликлиника" муниципального образования Славянский район', raion:'Славянский',password:3246},</v>
+        <f>CONCATENATE("{ username:'",A158,"', raion:'",B158,"',password:",C158,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное автономное учреждение "Стоматологическая поликлиника" муниципального образования Славянский район', raion:'Славянский',password:3246,'division':'kadry'},</v>
       </c>
     </row>
     <row r="159" ht="24" spans="1:4">
@@ -5538,8 +5533,8 @@
         <v>351</v>
       </c>
       <c r="D159" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A159,"', raion:'",B159,"',password:",C159,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №1"', raion:'Сочи',password:8704},</v>
+        <f>CONCATENATE("{ username:'",A159,"', raion:'",B159,"',password:",C159,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №1"', raion:'Сочи',password:8704,'division':'kadry'},</v>
       </c>
     </row>
     <row r="160" ht="24" spans="1:4">
@@ -5553,8 +5548,8 @@
         <v>353</v>
       </c>
       <c r="D160" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A160,"', raion:'",B160,"',password:",C160,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №2"', raion:'Сочи',password:9902},</v>
+        <f>CONCATENATE("{ username:'",A160,"', raion:'",B160,"',password:",C160,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №2"', raion:'Сочи',password:9902,'division':'kadry'},</v>
       </c>
     </row>
     <row r="161" ht="24" spans="1:4">
@@ -5568,8 +5563,8 @@
         <v>355</v>
       </c>
       <c r="D161" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A161,"', raion:'",B161,"',password:",C161,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №3"', raion:'Сочи',password:5811},</v>
+        <f>CONCATENATE("{ username:'",A161,"', raion:'",B161,"',password:",C161,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №3"', raion:'Сочи',password:5811,'division':'kadry'},</v>
       </c>
     </row>
     <row r="162" ht="24" spans="1:4">
@@ -5583,8 +5578,8 @@
         <v>357</v>
       </c>
       <c r="D162" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A162,"', raion:'",B162,"',password:",C162,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №4"', raion:'Сочи',password:9269},</v>
+        <f>CONCATENATE("{ username:'",A162,"', raion:'",B162,"',password:",C162,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №4"', raion:'Сочи',password:9269,'division':'kadry'},</v>
       </c>
     </row>
     <row r="163" ht="24" spans="1:4">
@@ -5598,8 +5593,8 @@
         <v>359</v>
       </c>
       <c r="D163" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A163,"', raion:'",B163,"',password:",C163,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №5"', raion:'Сочи',password:0521},</v>
+        <f>CONCATENATE("{ username:'",A163,"', raion:'",B163,"',password:",C163,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №5"', raion:'Сочи',password:0521,'division':'kadry'},</v>
       </c>
     </row>
     <row r="164" ht="24" spans="1:4">
@@ -5613,8 +5608,8 @@
         <v>361</v>
       </c>
       <c r="D164" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A164,"', raion:'",B164,"',password:",C164,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №7"', raion:'Сочи',password:5324},</v>
+        <f>CONCATENATE("{ username:'",A164,"', raion:'",B164,"',password:",C164,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №7"', raion:'Сочи',password:5324,'division':'kadry'},</v>
       </c>
     </row>
     <row r="165" ht="24" spans="1:4">
@@ -5628,8 +5623,8 @@
         <v>363</v>
       </c>
       <c r="D165" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A165,"', raion:'",B165,"',password:",C165,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №8"', raion:'Сочи',password:3649},</v>
+        <f>CONCATENATE("{ username:'",A165,"', raion:'",B165,"',password:",C165,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №8"', raion:'Сочи',password:3649,'division':'kadry'},</v>
       </c>
     </row>
     <row r="166" ht="24" spans="1:4">
@@ -5643,8 +5638,8 @@
         <v>365</v>
       </c>
       <c r="D166" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A166,"', raion:'",B166,"',password:",C166,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №9"', raion:'Сочи',password:7558},</v>
+        <f>CONCATENATE("{ username:'",A166,"', raion:'",B166,"',password:",C166,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская больница №9"', raion:'Сочи',password:7558,'division':'kadry'},</v>
       </c>
     </row>
     <row r="167" ht="24" spans="1:4">
@@ -5658,8 +5653,8 @@
         <v>367</v>
       </c>
       <c r="D167" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A167,"', raion:'",B167,"',password:",C167,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Участковая больница №3"', raion:'Сочи',password:7917},</v>
+        <f>CONCATENATE("{ username:'",A167,"', raion:'",B167,"',password:",C167,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Участковая больница №3"', raion:'Сочи',password:7917,'division':'kadry'},</v>
       </c>
     </row>
     <row r="168" ht="24" spans="1:4">
@@ -5673,8 +5668,8 @@
         <v>369</v>
       </c>
       <c r="D168" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A168,"', raion:'",B168,"',password:",C168,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская поликлиника №1"', raion:'Сочи',password:9550},</v>
+        <f>CONCATENATE("{ username:'",A168,"', raion:'",B168,"',password:",C168,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская поликлиника №1"', raion:'Сочи',password:9550,'division':'kadry'},</v>
       </c>
     </row>
     <row r="169" ht="24" spans="1:4">
@@ -5688,8 +5683,8 @@
         <v>371</v>
       </c>
       <c r="D169" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A169,"', raion:'",B169,"',password:",C169,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская поликлиника №2"', raion:'Сочи',password:4867},</v>
+        <f>CONCATENATE("{ username:'",A169,"', raion:'",B169,"',password:",C169,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская поликлиника №2"', raion:'Сочи',password:4867,'division':'kadry'},</v>
       </c>
     </row>
     <row r="170" ht="24" spans="1:4">
@@ -5703,8 +5698,8 @@
         <v>373</v>
       </c>
       <c r="D170" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A170,"', raion:'",B170,"',password:",C170,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская поликлиника №4"', raion:'Сочи',password:4105},</v>
+        <f>CONCATENATE("{ username:'",A170,"', raion:'",B170,"',password:",C170,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская поликлиника №4"', raion:'Сочи',password:4105,'division':'kadry'},</v>
       </c>
     </row>
     <row r="171" ht="24" spans="1:4">
@@ -5718,8 +5713,8 @@
         <v>375</v>
       </c>
       <c r="D171" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A171,"', raion:'",B171,"',password:",C171,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская поликлиника №5"', raion:'Сочи',password:8685},</v>
+        <f>CONCATENATE("{ username:'",A171,"', raion:'",B171,"',password:",C171,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Городская поликлиника №5"', raion:'Сочи',password:8685,'division':'kadry'},</v>
       </c>
     </row>
     <row r="172" ht="24" spans="1:4">
@@ -5733,8 +5728,8 @@
         <v>377</v>
       </c>
       <c r="D172" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A172,"', raion:'",B172,"',password:",C172,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Стоматологическая поликлиника №1"', raion:'Сочи',password:0886},</v>
+        <f>CONCATENATE("{ username:'",A172,"', raion:'",B172,"',password:",C172,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Стоматологическая поликлиника №1"', raion:'Сочи',password:0886,'division':'kadry'},</v>
       </c>
     </row>
     <row r="173" ht="24" spans="1:4">
@@ -5748,8 +5743,8 @@
         <v>379</v>
       </c>
       <c r="D173" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A173,"', raion:'",B173,"',password:",C173,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Стоматологическая поликлиника №2"', raion:'Сочи',password:0486},</v>
+        <f>CONCATENATE("{ username:'",A173,"', raion:'",B173,"',password:",C173,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Стоматологическая поликлиника №2"', raion:'Сочи',password:0486,'division':'kadry'},</v>
       </c>
     </row>
     <row r="174" ht="24" spans="1:4">
@@ -5763,8 +5758,8 @@
         <v>381</v>
       </c>
       <c r="D174" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A174,"', raion:'",B174,"',password:",C174,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Стоматологическая поликлиника №3"', raion:'Сочи',password:3682},</v>
+        <f>CONCATENATE("{ username:'",A174,"', raion:'",B174,"',password:",C174,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Стоматологическая поликлиника №3"', raion:'Сочи',password:3682,'division':'kadry'},</v>
       </c>
     </row>
     <row r="175" ht="24" spans="1:4">
@@ -5778,8 +5773,8 @@
         <v>383</v>
       </c>
       <c r="D175" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A175,"', raion:'",B175,"',password:",C175,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Стоматологическая поликлиника №4"', raion:'Сочи',password:4088},</v>
+        <f>CONCATENATE("{ username:'",A175,"', raion:'",B175,"',password:",C175,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Стоматологическая поликлиника №4"', raion:'Сочи',password:4088,'division':'kadry'},</v>
       </c>
     </row>
     <row r="176" ht="24" spans="1:4">
@@ -5793,8 +5788,8 @@
         <v>385</v>
       </c>
       <c r="D176" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A176,"', raion:'",B176,"',password:",C176,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Детская стоматологическая поликлиника"', raion:'Сочи',password:5005},</v>
+        <f>CONCATENATE("{ username:'",A176,"', raion:'",B176,"',password:",C176,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Детская стоматологическая поликлиника"', raion:'Сочи',password:5005,'division':'kadry'},</v>
       </c>
     </row>
     <row r="177" ht="24" spans="1:4">
@@ -5808,8 +5803,8 @@
         <v>387</v>
       </c>
       <c r="D177" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A177,"', raion:'",B177,"',password:",C177,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Станция скорой медицинской помощи"', raion:'Сочи',password:4875},</v>
+        <f>CONCATENATE("{ username:'",A177,"', raion:'",B177,"',password:",C177,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Станция скорой медицинской помощи"', raion:'Сочи',password:4875,'division':'kadry'},</v>
       </c>
     </row>
     <row r="178" ht="24" spans="1:4">
@@ -5823,8 +5818,8 @@
         <v>389</v>
       </c>
       <c r="D178" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A178,"', raion:'",B178,"',password:",C178,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Центр медицинской профилактики"', raion:'Сочи',password:5164},</v>
+        <f>CONCATENATE("{ username:'",A178,"', raion:'",B178,"',password:",C178,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Центр медицинской профилактики"', raion:'Сочи',password:5164,'division':'kadry'},</v>
       </c>
     </row>
     <row r="179" ht="24" spans="1:4">
@@ -5838,8 +5833,8 @@
         <v>391</v>
       </c>
       <c r="D179" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A179,"', raion:'",B179,"',password:",C179,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Бюро медицинской статистики"', raion:'Сочи',password:4323},</v>
+        <f>CONCATENATE("{ username:'",A179,"', raion:'",B179,"',password:",C179,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения города Сочи "Бюро медицинской статистики"', raion:'Сочи',password:4323,'division':'kadry'},</v>
       </c>
     </row>
     <row r="180" ht="36" spans="1:4">
@@ -5853,8 +5848,8 @@
         <v>394</v>
       </c>
       <c r="D180" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A180,"', raion:'",B180,"',password:",C180,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница муниципального образования Староминский район"', raion:'Староминский',password:3757},</v>
+        <f>CONCATENATE("{ username:'",A180,"', raion:'",B180,"',password:",C180,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница муниципального образования Староминский район"', raion:'Староминский',password:3757,'division':'kadry'},</v>
       </c>
     </row>
     <row r="181" ht="24" spans="1:4">
@@ -5868,8 +5863,8 @@
         <v>397</v>
       </c>
       <c r="D181" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A181,"', raion:'",B181,"',password:",C181,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Тбилисская центральная районная больница"', raion:'Тбилисский',password:5989},</v>
+        <f>CONCATENATE("{ username:'",A181,"', raion:'",B181,"',password:",C181,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Тбилисская центральная районная больница"', raion:'Тбилисский',password:5989,'division':'kadry'},</v>
       </c>
     </row>
     <row r="182" ht="36" spans="1:4">
@@ -5883,8 +5878,8 @@
         <v>400</v>
       </c>
       <c r="D182" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A182,"', raion:'",B182,"',password:",C182,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница муниципального образования Темрюкский район"', raion:'Темрюкский',password:5012},</v>
+        <f>CONCATENATE("{ username:'",A182,"', raion:'",B182,"',password:",C182,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница муниципального образования Темрюкский район"', raion:'Темрюкский',password:5012,'division':'kadry'},</v>
       </c>
     </row>
     <row r="183" ht="24" spans="1:4">
@@ -5898,8 +5893,8 @@
         <v>403</v>
       </c>
       <c r="D183" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A183,"', raion:'",B183,"',password:",C183,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Тимашевская центральная районная больница"', raion:'Тимашевский',password:5962},</v>
+        <f>CONCATENATE("{ username:'",A183,"', raion:'",B183,"',password:",C183,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Тимашевская центральная районная больница"', raion:'Тимашевский',password:5962,'division':'kadry'},</v>
       </c>
     </row>
     <row r="184" ht="36" spans="1:4">
@@ -5913,8 +5908,8 @@
         <v>406</v>
       </c>
       <c r="D184" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A184,"', raion:'",B184,"',password:",C184,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Тихорецкая центральная районная больница" муниципального образования Тихорецкий район', raion:'Тихорецкий',password:0288},</v>
+        <f>CONCATENATE("{ username:'",A184,"', raion:'",B184,"',password:",C184,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Тихорецкая центральная районная больница" муниципального образования Тихорецкий район', raion:'Тихорецкий',password:0288,'division':'kadry'},</v>
       </c>
     </row>
     <row r="185" ht="24" spans="1:4">
@@ -5928,8 +5923,8 @@
         <v>409</v>
       </c>
       <c r="D185" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A185,"', raion:'",B185,"',password:",C185,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Туапсинская районная больница №1" ', raion:'Туапсинский',password:0066},</v>
+        <f>CONCATENATE("{ username:'",A185,"', raion:'",B185,"',password:",C185,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Туапсинская районная больница №1" ', raion:'Туапсинский',password:0066,'division':'kadry'},</v>
       </c>
     </row>
     <row r="186" ht="24" spans="1:4">
@@ -5943,8 +5938,8 @@
         <v>411</v>
       </c>
       <c r="D186" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A186,"', raion:'",B186,"',password:",C186,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Туапсинская районная больница №2" ', raion:'Туапсинский',password:9601},</v>
+        <f>CONCATENATE("{ username:'",A186,"', raion:'",B186,"',password:",C186,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Туапсинская районная больница №2" ', raion:'Туапсинский',password:9601,'division':'kadry'},</v>
       </c>
     </row>
     <row r="187" ht="24" spans="1:4">
@@ -5958,8 +5953,8 @@
         <v>413</v>
       </c>
       <c r="D187" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A187,"', raion:'",B187,"',password:",C187,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Туапсинская районная больница №3" ', raion:'Туапсинский',password:8423},</v>
+        <f>CONCATENATE("{ username:'",A187,"', raion:'",B187,"',password:",C187,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Туапсинская районная больница №3" ', raion:'Туапсинский',password:8423,'division':'kadry'},</v>
       </c>
     </row>
     <row r="188" ht="24" spans="1:4">
@@ -5973,8 +5968,8 @@
         <v>415</v>
       </c>
       <c r="D188" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A188,"', raion:'",B188,"',password:",C188,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Туапсинская стоматологическая поликлиника" ', raion:'Туапсинский',password:4695},</v>
+        <f>CONCATENATE("{ username:'",A188,"', raion:'",B188,"',password:",C188,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Туапсинская стоматологическая поликлиника" ', raion:'Туапсинский',password:4695,'division':'kadry'},</v>
       </c>
     </row>
     <row r="189" ht="36" spans="1:4">
@@ -5988,8 +5983,8 @@
         <v>417</v>
       </c>
       <c r="D189" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A189,"', raion:'",B189,"',password:",C189,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Станция скорой медицинской помощи" муниципального образования Туапсинский район', raion:'Туапсинский',password:0746},</v>
+        <f>CONCATENATE("{ username:'",A189,"', raion:'",B189,"',password:",C189,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Станция скорой медицинской помощи" муниципального образования Туапсинский район', raion:'Туапсинский',password:0746,'division':'kadry'},</v>
       </c>
     </row>
     <row r="190" ht="36" spans="1:4">
@@ -6003,8 +5998,8 @@
         <v>420</v>
       </c>
       <c r="D190" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A190,"', raion:'",B190,"',password:",C190,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Успенская центральная районная больница" администрации муниципального образования Успенский район', raion:'Успенский',password:1881},</v>
+        <f>CONCATENATE("{ username:'",A190,"', raion:'",B190,"',password:",C190,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Успенская центральная районная больница" администрации муниципального образования Успенский район', raion:'Успенский',password:1881,'division':'kadry'},</v>
       </c>
     </row>
     <row r="191" ht="24" spans="1:4">
@@ -6018,8 +6013,8 @@
         <v>423</v>
       </c>
       <c r="D191" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A191,"', raion:'",B191,"',password:",C191,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница" Усть-Лабинского района', raion:'Усть-лабинский',password:4350},</v>
+        <f>CONCATENATE("{ username:'",A191,"', raion:'",B191,"',password:",C191,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Центральная районная больница" Усть-Лабинского района', raion:'Усть-лабинский',password:4350,'division':'kadry'},</v>
       </c>
     </row>
     <row r="192" ht="24" spans="1:4">
@@ -6033,8 +6028,8 @@
         <v>426</v>
       </c>
       <c r="D192" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A192,"', raion:'",B192,"',password:",C192,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Стоматологическая поликлиника" Усть-Лабинского района', raion:'Усть-Лабинский',password:7234},</v>
+        <f>CONCATENATE("{ username:'",A192,"', raion:'",B192,"',password:",C192,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения "Стоматологическая поликлиника" Усть-Лабинского района', raion:'Усть-Лабинский',password:7234,'division':'kadry'},</v>
       </c>
     </row>
     <row r="193" ht="36" spans="1:4">
@@ -6048,11 +6043,11 @@
         <v>429</v>
       </c>
       <c r="D193" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A193,"', raion:'",B193,"',password:",C193,"},")</f>
-        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Центральная районная больница муниципального образования Щербиновский район', raion:'Щербиновский',password:4524},</v>
-      </c>
-    </row>
-    <row r="194" customHeight="1" spans="1:4">
+        <f>CONCATENATE("{ username:'",A193,"', raion:'",B193,"',password:",C193,",'division':'kadry'},")</f>
+        <v>{ username:'Муниципальное бюджетное учреждение здравоохранения Центральная районная больница муниципального образования Щербиновский район', raion:'Щербиновский',password:4524,'division':'kadry'},</v>
+      </c>
+    </row>
+    <row r="194" ht="12" customHeight="1" spans="1:4">
       <c r="A194" s="8" t="s">
         <v>430</v>
       </c>
@@ -6063,8 +6058,8 @@
         <v>431</v>
       </c>
       <c r="D194" s="3" t="str">
-        <f t="shared" ref="D194:D257" si="3">CONCATENATE("{ username:'",A194,"', raion:'",B194,"',password:",C194,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевой медицинский центр мобилизационных резервов "Резерв"" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5312},</v>
+        <f t="shared" ref="D194:D257" si="3">CONCATENATE("{ username:'",A194,"', raion:'",B194,"',password:",C194,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевой медицинский центр мобилизационных резервов "Резерв"" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5312,'division':'kadry'},</v>
       </c>
     </row>
     <row r="195" ht="36" spans="1:4">
@@ -6078,8 +6073,8 @@
         <v>433</v>
       </c>
       <c r="D195" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A195,"', raion:'",B195,"',password:",C195,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевая клиническая больница №1 имени профессора С.В.Очаповского" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:0335},</v>
+        <f>CONCATENATE("{ username:'",A195,"', raion:'",B195,"',password:",C195,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевая клиническая больница №1 имени профессора С.В.Очаповского" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:0335,'division':'kadry'},</v>
       </c>
     </row>
     <row r="196" ht="36" spans="1:4">
@@ -6093,8 +6088,8 @@
         <v>435</v>
       </c>
       <c r="D196" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A196,"', raion:'",B196,"',password:",C196,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детская краевая клиническая больница" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5613},</v>
+        <f>CONCATENATE("{ username:'",A196,"', raion:'",B196,"',password:",C196,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детская краевая клиническая больница" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5613,'division':'kadry'},</v>
       </c>
     </row>
     <row r="197" ht="36" spans="1:4">
@@ -6108,8 +6103,8 @@
         <v>437</v>
       </c>
       <c r="D197" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A197,"', raion:'",B197,"',password:",C197,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевая клиническая больница №2" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:7866},</v>
+        <f>CONCATENATE("{ username:'",A197,"', raion:'",B197,"',password:",C197,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевая клиническая больница №2" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:7866,'division':'kadry'},</v>
       </c>
     </row>
     <row r="198" ht="36" spans="1:4">
@@ -6123,8 +6118,8 @@
         <v>439</v>
       </c>
       <c r="D198" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A198,"', raion:'",B198,"',password:",C198,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевая больница №4" министерства здравоохранения Краснодарского края', raion:'Сочи',password:8547},</v>
+        <f>CONCATENATE("{ username:'",A198,"', raion:'",B198,"',password:",C198,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевая больница №4" министерства здравоохранения Краснодарского края', raion:'Сочи',password:8547,'division':'kadry'},</v>
       </c>
     </row>
     <row r="199" ht="36" spans="1:4">
@@ -6138,8 +6133,8 @@
         <v>441</v>
       </c>
       <c r="D199" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A199,"', raion:'",B199,"',password:",C199,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевой клинический госпиталь для ветеранов войн им. проф. В.К.Красовитова" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:6777},</v>
+        <f>CONCATENATE("{ username:'",A199,"', raion:'",B199,"',password:",C199,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевой клинический госпиталь для ветеранов войн им. проф. В.К.Красовитова" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:6777,'division':'kadry'},</v>
       </c>
     </row>
     <row r="200" ht="36" spans="1:4">
@@ -6153,8 +6148,8 @@
         <v>443</v>
       </c>
       <c r="D200" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A200,"', raion:'",B200,"',password:",C200,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная клиническая инфекционная больница" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:9449},</v>
+        <f>CONCATENATE("{ username:'",A200,"', raion:'",B200,"',password:",C200,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная клиническая инфекционная больница" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:9449,'division':'kadry'},</v>
       </c>
     </row>
     <row r="201" ht="36" spans="1:4">
@@ -6168,8 +6163,8 @@
         <v>445</v>
       </c>
       <c r="D201" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A201,"', raion:'",B201,"',password:",C201,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная клиническая детская инфекционная больница" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5534},</v>
+        <f>CONCATENATE("{ username:'",A201,"', raion:'",B201,"',password:",C201,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная клиническая детская инфекционная больница" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5534,'division':'kadry'},</v>
       </c>
     </row>
     <row r="202" ht="36" spans="1:4">
@@ -6183,8 +6178,8 @@
         <v>447</v>
       </c>
       <c r="D202" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A202,"', raion:'",B202,"',password:",C202,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Инфекционная больница №4" министерства здравоохранения Краснодарского края', raion:'Армавир',password:1725},</v>
+        <f>CONCATENATE("{ username:'",A202,"', raion:'",B202,"',password:",C202,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Инфекционная больница №4" министерства здравоохранения Краснодарского края', raion:'Армавир',password:1725,'division':'kadry'},</v>
       </c>
     </row>
     <row r="203" ht="36" spans="1:4">
@@ -6198,8 +6193,8 @@
         <v>449</v>
       </c>
       <c r="D203" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A203,"', raion:'",B203,"',password:",C203,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Инфекционная больница №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:9336},</v>
+        <f>CONCATENATE("{ username:'",A203,"', raion:'",B203,"',password:",C203,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Инфекционная больница №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:9336,'division':'kadry'},</v>
       </c>
     </row>
     <row r="204" ht="36" spans="1:4">
@@ -6213,8 +6208,8 @@
         <v>451</v>
       </c>
       <c r="D204" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A204,"', raion:'",B204,"',password:",C204,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Инфекционная больница №3" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:5545},</v>
+        <f>CONCATENATE("{ username:'",A204,"', raion:'",B204,"',password:",C204,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Инфекционная больница №3" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:5545,'division':'kadry'},</v>
       </c>
     </row>
     <row r="205" ht="36" spans="1:4">
@@ -6228,8 +6223,8 @@
         <v>453</v>
       </c>
       <c r="D205" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A205,"', raion:'",B205,"',password:",C205,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевая больница №3" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:3079},</v>
+        <f>CONCATENATE("{ username:'",A205,"', raion:'",B205,"',password:",C205,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевая больница №3" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:3079,'division':'kadry'},</v>
       </c>
     </row>
     <row r="206" ht="24" spans="1:4">
@@ -6243,8 +6238,8 @@
         <v>455</v>
       </c>
       <c r="D206" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A206,"', raion:'",B206,"',password:",C206,"},")</f>
-        <v>{ username:'Государственное казенное учреждение здравоохранения "Лепрозорий" министерства здравоохранения Краснодарского края', raion:'Абинский',password:0473},</v>
+        <f>CONCATENATE("{ username:'",A206,"', raion:'",B206,"',password:",C206,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное казенное учреждение здравоохранения "Лепрозорий" министерства здравоохранения Краснодарского края', raion:'Абинский',password:0473,'division':'kadry'},</v>
       </c>
     </row>
     <row r="207" ht="36" spans="1:4">
@@ -6258,8 +6253,8 @@
         <v>457</v>
       </c>
       <c r="D207" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A207,"', raion:'",B207,"',password:",C207,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная клиническая психиатрическая больница №1" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:3128},</v>
+        <f>CONCATENATE("{ username:'",A207,"', raion:'",B207,"',password:",C207,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная клиническая психиатрическая больница №1" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:3128,'division':'kadry'},</v>
       </c>
     </row>
     <row r="208" ht="36" spans="1:4">
@@ -6273,8 +6268,8 @@
         <v>459</v>
       </c>
       <c r="D208" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A208,"', raion:'",B208,"',password:",C208,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №2" министерства здравоохранения Краснодарского края', raion:'Абинский',password:4546},</v>
+        <f>CONCATENATE("{ username:'",A208,"', raion:'",B208,"',password:",C208,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №2" министерства здравоохранения Краснодарского края', raion:'Абинский',password:4546,'division':'kadry'},</v>
       </c>
     </row>
     <row r="209" ht="36" spans="1:4">
@@ -6288,8 +6283,8 @@
         <v>461</v>
       </c>
       <c r="D209" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A209,"', raion:'",B209,"',password:",C209,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №3" министерства здравоохранения Краснодарского края', raion:'Кущевский',password:0860},</v>
+        <f>CONCATENATE("{ username:'",A209,"', raion:'",B209,"',password:",C209,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №3" министерства здравоохранения Краснодарского края', raion:'Кущевский',password:0860,'division':'kadry'},</v>
       </c>
     </row>
     <row r="210" ht="36" spans="1:4">
@@ -6303,8 +6298,8 @@
         <v>463</v>
       </c>
       <c r="D210" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A210,"', raion:'",B210,"',password:",C210,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №4" министерства здравоохранения Краснодарского края', raion:'Приморско-Ахтарский',password:8543},</v>
+        <f>CONCATENATE("{ username:'",A210,"', raion:'",B210,"',password:",C210,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №4" министерства здравоохранения Краснодарского края', raion:'Приморско-Ахтарский',password:8543,'division':'kadry'},</v>
       </c>
     </row>
     <row r="211" ht="36" spans="1:4">
@@ -6318,8 +6313,8 @@
         <v>465</v>
       </c>
       <c r="D211" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A211,"', raion:'",B211,"',password:",C211,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №5" министерства здравоохранения Краснодарского края', raion:'Усть-Лабинский',password:4127},</v>
+        <f>CONCATENATE("{ username:'",A211,"', raion:'",B211,"',password:",C211,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №5" министерства здравоохранения Краснодарского края', raion:'Усть-Лабинский',password:4127,'division':'kadry'},</v>
       </c>
     </row>
     <row r="212" ht="36" spans="1:4">
@@ -6333,8 +6328,8 @@
         <v>467</v>
       </c>
       <c r="D212" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A212,"', raion:'",B212,"',password:",C212,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №6" министерства здравоохранения Краснодарского края', raion:'Отрадненский',password:3805},</v>
+        <f>CONCATENATE("{ username:'",A212,"', raion:'",B212,"',password:",C212,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №6" министерства здравоохранения Краснодарского края', raion:'Отрадненский',password:3805,'division':'kadry'},</v>
       </c>
     </row>
     <row r="213" ht="36" spans="1:4">
@@ -6348,8 +6343,8 @@
         <v>469</v>
       </c>
       <c r="D213" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A213,"', raion:'",B213,"',password:",C213,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №7" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:6975},</v>
+        <f>CONCATENATE("{ username:'",A213,"', raion:'",B213,"',password:",C213,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психиатрическая больница №7" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:6975,'division':'kadry'},</v>
       </c>
     </row>
     <row r="214" ht="36" spans="1:4">
@@ -6363,8 +6358,8 @@
         <v>471</v>
       </c>
       <c r="D214" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A214,"', raion:'",B214,"',password:",C214,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психоневрологическая больница" министерства здравоохранения Краснодарского края', raion:'Выселковский',password:8778},</v>
+        <f>CONCATENATE("{ username:'",A214,"', raion:'",B214,"',password:",C214,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная психоневрологическая больница" министерства здравоохранения Краснодарского края', raion:'Выселковский',password:8778,'division':'kadry'},</v>
       </c>
     </row>
     <row r="215" ht="36" spans="1:4">
@@ -6378,8 +6373,8 @@
         <v>473</v>
       </c>
       <c r="D215" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A215,"', raion:'",B215,"',password:",C215,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная наркологическая больница" министерства здравоохранения Краснодарского края', raion:'Красноармейский',password:5457},</v>
+        <f>CONCATENATE("{ username:'",A215,"', raion:'",B215,"',password:",C215,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Специализированная наркологическая больница" министерства здравоохранения Краснодарского края', raion:'Красноармейский',password:5457,'division':'kadry'},</v>
       </c>
     </row>
     <row r="216" ht="36" spans="1:4">
@@ -6393,8 +6388,8 @@
         <v>475</v>
       </c>
       <c r="D216" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A216,"', raion:'",B216,"',password:",C216,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Клинический противотуберкулезный диспансер" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:1414},</v>
+        <f>CONCATENATE("{ username:'",A216,"', raion:'",B216,"',password:",C216,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Клинический противотуберкулезный диспансер" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:1414,'division':'kadry'},</v>
       </c>
     </row>
     <row r="217" ht="36" spans="1:4">
@@ -6408,8 +6403,8 @@
         <v>477</v>
       </c>
       <c r="D217" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A217,"', raion:'",B217,"',password:",C217,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Армавирский противотуберкулезный диспансер" министерства здравоохранения Краснодарского края', raion:'Армавир',password:5692},</v>
+        <f>CONCATENATE("{ username:'",A217,"', raion:'",B217,"',password:",C217,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Армавирский противотуберкулезный диспансер" министерства здравоохранения Краснодарского края', raion:'Армавир',password:5692,'division':'kadry'},</v>
       </c>
     </row>
     <row r="218" ht="36" spans="1:4">
@@ -6423,8 +6418,8 @@
         <v>479</v>
       </c>
       <c r="D218" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A218,"', raion:'",B218,"',password:",C218,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №1" министерства здравоохранения Краснодарского края', raion:'Сочи',password:5070},</v>
+        <f>CONCATENATE("{ username:'",A218,"', raion:'",B218,"',password:",C218,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №1" министерства здравоохранения Краснодарского края', raion:'Сочи',password:5070,'division':'kadry'},</v>
       </c>
     </row>
     <row r="219" ht="36" spans="1:4">
@@ -6438,8 +6433,8 @@
         <v>55</v>
       </c>
       <c r="D219" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A219,"', raion:'",B219,"',password:",C219,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:5208},</v>
+        <f>CONCATENATE("{ username:'",A219,"', raion:'",B219,"',password:",C219,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:5208,'division':'kadry'},</v>
       </c>
     </row>
     <row r="220" ht="36" spans="1:4">
@@ -6453,8 +6448,8 @@
         <v>482</v>
       </c>
       <c r="D220" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A220,"', raion:'",B220,"',password:",C220,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №4" министерства здравоохранения Краснодарского края', raion:'Кавказский',password:9647},</v>
+        <f>CONCATENATE("{ username:'",A220,"', raion:'",B220,"',password:",C220,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №4" министерства здравоохранения Краснодарского края', raion:'Кавказский',password:9647,'division':'kadry'},</v>
       </c>
     </row>
     <row r="221" ht="36" spans="1:4">
@@ -6468,8 +6463,8 @@
         <v>484</v>
       </c>
       <c r="D221" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A221,"', raion:'",B221,"',password:",C221,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №6" министерства здравоохранения Краснодарского края', raion:'Белореченский',password:4273},</v>
+        <f>CONCATENATE("{ username:'",A221,"', raion:'",B221,"',password:",C221,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №6" министерства здравоохранения Краснодарского края', raion:'Белореченский',password:4273,'division':'kadry'},</v>
       </c>
     </row>
     <row r="222" ht="36" spans="1:4">
@@ -6483,8 +6478,8 @@
         <v>486</v>
       </c>
       <c r="D222" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A222,"', raion:'",B222,"',password:",C222,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №7" министерства здравоохранения Краснодарского края', raion:'Ейский',password:6568},</v>
+        <f>CONCATENATE("{ username:'",A222,"', raion:'",B222,"',password:",C222,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №7" министерства здравоохранения Краснодарского края', raion:'Ейский',password:6568,'division':'kadry'},</v>
       </c>
     </row>
     <row r="223" ht="36" spans="1:4">
@@ -6498,8 +6493,8 @@
         <v>488</v>
       </c>
       <c r="D223" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A223,"', raion:'",B223,"',password:",C223,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №10" министерства здравоохранения Краснодарского края', raion:'Туапсинский',password:7528},</v>
+        <f>CONCATENATE("{ username:'",A223,"', raion:'",B223,"',password:",C223,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №10" министерства здравоохранения Краснодарского края', raion:'Туапсинский',password:7528,'division':'kadry'},</v>
       </c>
     </row>
     <row r="224" ht="36" spans="1:4">
@@ -6513,8 +6508,8 @@
         <v>490</v>
       </c>
       <c r="D224" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A224,"', raion:'",B224,"',password:",C224,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №12" министерства здравоохранения Краснодарского края', raion:'Славянский',password:2812},</v>
+        <f>CONCATENATE("{ username:'",A224,"', raion:'",B224,"',password:",C224,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №12" министерства здравоохранения Краснодарского края', raion:'Славянский',password:2812,'division':'kadry'},</v>
       </c>
     </row>
     <row r="225" ht="36" spans="1:4">
@@ -6528,8 +6523,8 @@
         <v>492</v>
       </c>
       <c r="D225" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A225,"', raion:'",B225,"',password:",C225,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №13" министерства здравоохранения Краснодарского края', raion:'Выселковский',password:6326},</v>
+        <f>CONCATENATE("{ username:'",A225,"', raion:'",B225,"',password:",C225,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №13" министерства здравоохранения Краснодарского края', raion:'Выселковский',password:6326,'division':'kadry'},</v>
       </c>
     </row>
     <row r="226" ht="36" spans="1:4">
@@ -6543,8 +6538,8 @@
         <v>494</v>
       </c>
       <c r="D226" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A226,"', raion:'",B226,"',password:",C226,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №14" министерства здравоохранения Краснодарского края', raion:'Усть-Лабинский',password:6034},</v>
+        <f>CONCATENATE("{ username:'",A226,"', raion:'",B226,"',password:",C226,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №14" министерства здравоохранения Краснодарского края', raion:'Усть-Лабинский',password:6034,'division':'kadry'},</v>
       </c>
     </row>
     <row r="227" ht="36" spans="1:4">
@@ -6558,8 +6553,8 @@
         <v>449</v>
       </c>
       <c r="D227" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A227,"', raion:'",B227,"',password:",C227,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №16" министерства здравоохранения Краснодарского края', raion:'Староминский',password:9336},</v>
+        <f>CONCATENATE("{ username:'",A227,"', raion:'",B227,"',password:",C227,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №16" министерства здравоохранения Краснодарского края', raion:'Староминский',password:9336,'division':'kadry'},</v>
       </c>
     </row>
     <row r="228" ht="36" spans="1:4">
@@ -6573,8 +6568,8 @@
         <v>497</v>
       </c>
       <c r="D228" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A228,"', raion:'",B228,"',password:",C228,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №18" министерства здравоохранения Краснодарского края', raion:'Кущевский',password:1146},</v>
+        <f>CONCATENATE("{ username:'",A228,"', raion:'",B228,"',password:",C228,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №18" министерства здравоохранения Краснодарского края', raion:'Кущевский',password:1146,'division':'kadry'},</v>
       </c>
     </row>
     <row r="229" ht="36" spans="1:4">
@@ -6588,8 +6583,8 @@
         <v>499</v>
       </c>
       <c r="D229" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A229,"', raion:'",B229,"',password:",C229,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №20" министерства здравоохранения Краснодарского края', raion:'Крымский',password:3808},</v>
+        <f>CONCATENATE("{ username:'",A229,"', raion:'",B229,"',password:",C229,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №20" министерства здравоохранения Краснодарского края', raion:'Крымский',password:3808,'division':'kadry'},</v>
       </c>
     </row>
     <row r="230" ht="36" spans="1:4">
@@ -6603,8 +6598,8 @@
         <v>501</v>
       </c>
       <c r="D230" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A230,"', raion:'",B230,"',password:",C230,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №23" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:9867},</v>
+        <f>CONCATENATE("{ username:'",A230,"', raion:'",B230,"',password:",C230,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №23" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:9867,'division':'kadry'},</v>
       </c>
     </row>
     <row r="231" ht="36" spans="1:4">
@@ -6618,8 +6613,8 @@
         <v>503</v>
       </c>
       <c r="D231" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A231,"', raion:'",B231,"',password:",C231,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №3" министерства здравоохранения Краснодарского края', raion:'Сочи',password:6902},</v>
+        <f>CONCATENATE("{ username:'",A231,"', raion:'",B231,"',password:",C231,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Противотуберкулезный диспансер №3" министерства здравоохранения Краснодарского края', raion:'Сочи',password:6902,'division':'kadry'},</v>
       </c>
     </row>
     <row r="232" ht="36" spans="1:4">
@@ -6633,8 +6628,8 @@
         <v>505</v>
       </c>
       <c r="D232" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A232,"', raion:'",B232,"',password:",C232,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Клинический онкологический диспансер №1" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5474},</v>
+        <f>CONCATENATE("{ username:'",A232,"', raion:'",B232,"',password:",C232,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Клинический онкологический диспансер №1" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5474,'division':'kadry'},</v>
       </c>
     </row>
     <row r="233" ht="36" spans="1:4">
@@ -6648,8 +6643,8 @@
         <v>507</v>
       </c>
       <c r="D233" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A233,"', raion:'",B233,"',password:",C233,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Армавирский онкологический диспансер" министерства здравоохранения Краснодарского края', raion:'Армавир',password:3146},</v>
+        <f>CONCATENATE("{ username:'",A233,"', raion:'",B233,"',password:",C233,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Армавирский онкологический диспансер" министерства здравоохранения Краснодарского края', raion:'Армавир',password:3146,'division':'kadry'},</v>
       </c>
     </row>
     <row r="234" ht="36" spans="1:4">
@@ -6663,8 +6658,8 @@
         <v>509</v>
       </c>
       <c r="D234" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A234,"', raion:'",B234,"',password:",C234,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Онкологический диспансер №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:0873},</v>
+        <f>CONCATENATE("{ username:'",A234,"', raion:'",B234,"',password:",C234,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Онкологический диспансер №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:0873,'division':'kadry'},</v>
       </c>
     </row>
     <row r="235" ht="36" spans="1:4">
@@ -6678,8 +6673,8 @@
         <v>511</v>
       </c>
       <c r="D235" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A235,"', raion:'",B235,"',password:",C235,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Онкологический диспансер №3" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:1771},</v>
+        <f>CONCATENATE("{ username:'",A235,"', raion:'",B235,"',password:",C235,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Онкологический диспансер №3" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:1771,'division':'kadry'},</v>
       </c>
     </row>
     <row r="236" ht="36" spans="1:4">
@@ -6693,8 +6688,8 @@
         <v>513</v>
       </c>
       <c r="D236" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A236,"', raion:'",B236,"',password:",C236,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Онкологический диспансер №4" министерства здравоохранения Краснодарского края', raion:'Ейский',password:8530},</v>
+        <f>CONCATENATE("{ username:'",A236,"', raion:'",B236,"',password:",C236,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Онкологический диспансер №4" министерства здравоохранения Краснодарского края', raion:'Ейский',password:8530,'division':'kadry'},</v>
       </c>
     </row>
     <row r="237" ht="36" spans="1:4">
@@ -6708,8 +6703,8 @@
         <v>515</v>
       </c>
       <c r="D237" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A237,"', raion:'",B237,"',password:",C237,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Клинический кожно-венерологический диспансер" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:0154},</v>
+        <f>CONCATENATE("{ username:'",A237,"', raion:'",B237,"',password:",C237,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Клинический кожно-венерологический диспансер" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:0154,'division':'kadry'},</v>
       </c>
     </row>
     <row r="238" ht="36" spans="1:4">
@@ -6723,8 +6718,8 @@
         <v>517</v>
       </c>
       <c r="D238" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A238,"', raion:'",B238,"',password:",C238,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Кожно-венерологический диспансер №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:1178},</v>
+        <f>CONCATENATE("{ username:'",A238,"', raion:'",B238,"',password:",C238,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Кожно-венерологический диспансер №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:1178,'division':'kadry'},</v>
       </c>
     </row>
     <row r="239" ht="36" spans="1:4">
@@ -6738,8 +6733,8 @@
         <v>519</v>
       </c>
       <c r="D239" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A239,"', raion:'",B239,"',password:",C239,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Кожно-венерологический диспансер №8" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:8069},</v>
+        <f>CONCATENATE("{ username:'",A239,"', raion:'",B239,"',password:",C239,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Кожно-венерологический диспансер №8" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:8069,'division':'kadry'},</v>
       </c>
     </row>
     <row r="240" ht="36" spans="1:4">
@@ -6753,8 +6748,8 @@
         <v>521</v>
       </c>
       <c r="D240" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A240,"', raion:'",B240,"',password:",C240,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Армавирский кожно-венерологический диспансер" министерства здравоохранения Краснодарского края', raion:'Армавир',password:2501},</v>
+        <f>CONCATENATE("{ username:'",A240,"', raion:'",B240,"',password:",C240,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Армавирский кожно-венерологический диспансер" министерства здравоохранения Краснодарского края', raion:'Армавир',password:2501,'division':'kadry'},</v>
       </c>
     </row>
     <row r="241" ht="36" spans="1:4">
@@ -6768,8 +6763,8 @@
         <v>523</v>
       </c>
       <c r="D241" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A241,"', raion:'",B241,"',password:",C241,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Ейский кожно-венерологический диспансер" министерства здравоохранения Краснодарского края', raion:'Ейский',password:0229},</v>
+        <f>CONCATENATE("{ username:'",A241,"', raion:'",B241,"',password:",C241,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Ейский кожно-венерологический диспансер" министерства здравоохранения Краснодарского края', raion:'Ейский',password:0229,'division':'kadry'},</v>
       </c>
     </row>
     <row r="242" ht="36" spans="1:4">
@@ -6783,8 +6778,8 @@
         <v>525</v>
       </c>
       <c r="D242" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A242,"', raion:'",B242,"',password:",C242,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Психоневрологический диспансер №2" министерства здравоохранения Краснодарского края', raion:'Армавир',password:1464},</v>
+        <f>CONCATENATE("{ username:'",A242,"', raion:'",B242,"',password:",C242,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Психоневрологический диспансер №2" министерства здравоохранения Краснодарского края', raion:'Армавир',password:1464,'division':'kadry'},</v>
       </c>
     </row>
     <row r="243" ht="36" spans="1:4">
@@ -6798,8 +6793,8 @@
         <v>527</v>
       </c>
       <c r="D243" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A243,"', raion:'",B243,"',password:",C243,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Психоневрологический диспансер №3" министерства здравоохранения Краснодарского края', raion:'Сочи',password:1246},</v>
+        <f>CONCATENATE("{ username:'",A243,"', raion:'",B243,"',password:",C243,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Психоневрологический диспансер №3" министерства здравоохранения Краснодарского края', raion:'Сочи',password:1246,'division':'kadry'},</v>
       </c>
     </row>
     <row r="244" ht="36" spans="1:4">
@@ -6813,8 +6808,8 @@
         <v>529</v>
       </c>
       <c r="D244" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A244,"', raion:'",B244,"',password:",C244,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Психоневрологический диспансер №4" министерства здравоохранения Краснодарского края', raion:'Туапсинский',password:4776},</v>
+        <f>CONCATENATE("{ username:'",A244,"', raion:'",B244,"',password:",C244,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Психоневрологический диспансер №4" министерства здравоохранения Краснодарского края', raion:'Туапсинский',password:4776,'division':'kadry'},</v>
       </c>
     </row>
     <row r="245" ht="36" spans="1:4">
@@ -6828,8 +6823,8 @@
         <v>531</v>
       </c>
       <c r="D245" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A245,"', raion:'",B245,"',password:",C245,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Геленджикский психоневрологический диспансер" министерства здравоохранения Краснодарского края', raion:'Геленджик',password:9011},</v>
+        <f>CONCATENATE("{ username:'",A245,"', raion:'",B245,"',password:",C245,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Геленджикский психоневрологический диспансер" министерства здравоохранения Краснодарского края', raion:'Геленджик',password:9011,'division':'kadry'},</v>
       </c>
     </row>
     <row r="246" ht="36" spans="1:4">
@@ -6843,8 +6838,8 @@
         <v>533</v>
       </c>
       <c r="D246" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A246,"', raion:'",B246,"',password:",C246,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Ейский психоневрологический диспансер" министерства здравоохранения Краснодарского края', raion:'Ейский',password:3427},</v>
+        <f>CONCATENATE("{ username:'",A246,"', raion:'",B246,"',password:",C246,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Ейский психоневрологический диспансер" министерства здравоохранения Краснодарского края', raion:'Ейский',password:3427,'division':'kadry'},</v>
       </c>
     </row>
     <row r="247" ht="36" spans="1:4">
@@ -6858,8 +6853,8 @@
         <v>535</v>
       </c>
       <c r="D247" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A247,"', raion:'",B247,"',password:",C247,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Наркологический диспансер" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:3459},</v>
+        <f>CONCATENATE("{ username:'",A247,"', raion:'",B247,"',password:",C247,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Наркологический диспансер" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:3459,'division':'kadry'},</v>
       </c>
     </row>
     <row r="248" ht="36" spans="1:4">
@@ -6873,8 +6868,8 @@
         <v>537</v>
       </c>
       <c r="D248" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A248,"', raion:'",B248,"',password:",C248,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Наркологический диспансер №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:7856},</v>
+        <f>CONCATENATE("{ username:'",A248,"', raion:'",B248,"',password:",C248,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Наркологический диспансер №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:7856,'division':'kadry'},</v>
       </c>
     </row>
     <row r="249" ht="36" spans="1:4">
@@ -6888,8 +6883,8 @@
         <v>539</v>
       </c>
       <c r="D249" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A249,"', raion:'",B249,"',password:",C249,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Наркологический диспансер №3" министерства здравоохранения Краснодарского края', raion:'Армавир',password:0632},</v>
+        <f>CONCATENATE("{ username:'",A249,"', raion:'",B249,"',password:",C249,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Наркологический диспансер №3" министерства здравоохранения Краснодарского края', raion:'Армавир',password:0632,'division':'kadry'},</v>
       </c>
     </row>
     <row r="250" ht="36" spans="1:4">
@@ -6903,8 +6898,8 @@
         <v>541</v>
       </c>
       <c r="D250" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A250,"', raion:'",B250,"',password:",C250,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевая клиническая стоматологическая поликлиника" министерства здравоохранения Краснодарского края ', raion:'Краснодар',password:7763},</v>
+        <f>CONCATENATE("{ username:'",A250,"', raion:'",B250,"',password:",C250,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевая клиническая стоматологическая поликлиника" министерства здравоохранения Краснодарского края ', raion:'Краснодар',password:7763,'division':'kadry'},</v>
       </c>
     </row>
     <row r="251" ht="36" spans="1:4">
@@ -6918,8 +6913,8 @@
         <v>543</v>
       </c>
       <c r="D251" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A251,"', raion:'",B251,"',password:",C251,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Клинический центр профилактики и борьбы со СПИД" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:9338},</v>
+        <f>CONCATENATE("{ username:'",A251,"', raion:'",B251,"',password:",C251,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Клинический центр профилактики и борьбы со СПИД" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:9338,'division':'kadry'},</v>
       </c>
     </row>
     <row r="252" ht="36" spans="1:4">
@@ -6933,8 +6928,8 @@
         <v>545</v>
       </c>
       <c r="D252" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A252,"', raion:'",B252,"',password:",C252,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Центр профилактики и борьбы со СПИД №2" министерства здравоохранения Краснодарского края', raion:'Туапсинский',password:8013},</v>
+        <f>CONCATENATE("{ username:'",A252,"', raion:'",B252,"',password:",C252,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Центр профилактики и борьбы со СПИД №2" министерства здравоохранения Краснодарского края', raion:'Туапсинский',password:8013,'division':'kadry'},</v>
       </c>
     </row>
     <row r="253" ht="36" spans="1:4">
@@ -6948,8 +6943,8 @@
         <v>547</v>
       </c>
       <c r="D253" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A253,"', raion:'",B253,"',password:",C253,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Центр профилактики и борьбы со СПИД №3" министерства здравоохранения Краснодарского края', raion:'Сочи',password:6457},</v>
+        <f>CONCATENATE("{ username:'",A253,"', raion:'",B253,"',password:",C253,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Центр профилактики и борьбы со СПИД №3" министерства здравоохранения Краснодарского края', raion:'Сочи',password:6457,'division':'kadry'},</v>
       </c>
     </row>
     <row r="254" ht="36" spans="1:4">
@@ -6963,8 +6958,8 @@
         <v>549</v>
       </c>
       <c r="D254" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A254,"', raion:'",B254,"',password:",C254,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Центр профилактики и борьбы со СПИД №4" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:6585},</v>
+        <f>CONCATENATE("{ username:'",A254,"', raion:'",B254,"',password:",C254,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Центр профилактики и борьбы со СПИД №4" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:6585,'division':'kadry'},</v>
       </c>
     </row>
     <row r="255" ht="36" spans="1:4">
@@ -6978,8 +6973,8 @@
         <v>551</v>
       </c>
       <c r="D255" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A255,"', raion:'",B255,"',password:",C255,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Ейский центр профилактики и борьбы со СПИД" министерства здравоохранения Краснодарского края', raion:'Ейский',password:2645},</v>
+        <f>CONCATENATE("{ username:'",A255,"', raion:'",B255,"',password:",C255,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Ейский центр профилактики и борьбы со СПИД" министерства здравоохранения Краснодарского края', raion:'Ейский',password:2645,'division':'kadry'},</v>
       </c>
     </row>
     <row r="256" ht="36" spans="1:4">
@@ -6993,8 +6988,8 @@
         <v>553</v>
       </c>
       <c r="D256" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A256,"', raion:'",B256,"',password:",C256,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевой детский центр медицинской реабилитации" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5333},</v>
+        <f>CONCATENATE("{ username:'",A256,"', raion:'",B256,"',password:",C256,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевой детский центр медицинской реабилитации" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5333,'division':'kadry'},</v>
       </c>
     </row>
     <row r="257" ht="36" spans="1:4">
@@ -7008,8 +7003,8 @@
         <v>555</v>
       </c>
       <c r="D257" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A257,"', raion:'",B257,"',password:",C257,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский центр медицинской реабилитации №2" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:5761},</v>
+        <f>CONCATENATE("{ username:'",A257,"', raion:'",B257,"',password:",C257,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский центр медицинской реабилитации №2" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:5761,'division':'kadry'},</v>
       </c>
     </row>
     <row r="258" ht="36" spans="1:4">
@@ -7023,8 +7018,8 @@
         <v>557</v>
       </c>
       <c r="D258" s="3" t="str">
-        <f t="shared" ref="D258:D296" si="4">CONCATENATE("{ username:'",A258,"', raion:'",B258,"',password:",C258,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:1795},</v>
+        <f t="shared" ref="D258:D296" si="4">CONCATENATE("{ username:'",A258,"', raion:'",B258,"',password:",C258,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:1795,'division':'kadry'},</v>
       </c>
     </row>
     <row r="259" ht="36" spans="1:4">
@@ -7038,8 +7033,8 @@
         <v>559</v>
       </c>
       <c r="D259" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A259,"', raion:'",B259,"',password:",C259,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №2" министерства здравоохранения Краснодарского края', raion:'Белореченский',password:8448},</v>
+        <f>CONCATENATE("{ username:'",A259,"', raion:'",B259,"',password:",C259,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №2" министерства здравоохранения Краснодарского края', raion:'Белореченский',password:8448,'division':'kadry'},</v>
       </c>
     </row>
     <row r="260" ht="36" spans="1:4">
@@ -7053,8 +7048,8 @@
         <v>561</v>
       </c>
       <c r="D260" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A260,"', raion:'",B260,"',password:",C260,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №3" министерства здравоохранения Краснодарского края', raion:'Кореновский',password:8853},</v>
+        <f>CONCATENATE("{ username:'",A260,"', raion:'",B260,"',password:",C260,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №3" министерства здравоохранения Краснодарского края', raion:'Кореновский',password:8853,'division':'kadry'},</v>
       </c>
     </row>
     <row r="261" ht="36" spans="1:4">
@@ -7068,8 +7063,8 @@
         <v>305</v>
       </c>
       <c r="D261" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A261,"', raion:'",B261,"',password:",C261,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №4" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:2393},</v>
+        <f>CONCATENATE("{ username:'",A261,"', raion:'",B261,"',password:",C261,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №4" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:2393,'division':'kadry'},</v>
       </c>
     </row>
     <row r="262" ht="36" spans="1:4">
@@ -7083,8 +7078,8 @@
         <v>564</v>
       </c>
       <c r="D262" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A262,"', raion:'",B262,"',password:",C262,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №5" министерства здравоохранения Краснодарского края', raion:'Ейский',password:3950},</v>
+        <f>CONCATENATE("{ username:'",A262,"', raion:'",B262,"',password:",C262,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №5" министерства здравоохранения Краснодарского края', raion:'Ейский',password:3950,'division':'kadry'},</v>
       </c>
     </row>
     <row r="263" ht="36" spans="1:4">
@@ -7098,8 +7093,8 @@
         <v>566</v>
       </c>
       <c r="D263" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A263,"', raion:'",B263,"',password:",C263,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №6" министерства здравоохранения Краснодарского края', raion:'Армавир',password:6851},</v>
+        <f>CONCATENATE("{ username:'",A263,"', raion:'",B263,"',password:",C263,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №6" министерства здравоохранения Краснодарского края', raion:'Армавир',password:6851,'division':'kadry'},</v>
       </c>
     </row>
     <row r="264" ht="36" spans="1:4">
@@ -7113,8 +7108,8 @@
         <v>568</v>
       </c>
       <c r="D264" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A264,"', raion:'",B264,"',password:",C264,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №7" министерства здравоохранения Краснодарского края', raion:'Сочи',password:6650},</v>
+        <f>CONCATENATE("{ username:'",A264,"', raion:'",B264,"',password:",C264,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Станция переливания крови №7" министерства здравоохранения Краснодарского края', raion:'Сочи',password:6650,'division':'kadry'},</v>
       </c>
     </row>
     <row r="265" ht="36" spans="1:4">
@@ -7128,8 +7123,8 @@
         <v>570</v>
       </c>
       <c r="D265" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A265,"', raion:'",B265,"',password:",C265,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевой центр охраны здоровья семьи и репродукции" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5229},</v>
+        <f>CONCATENATE("{ username:'",A265,"', raion:'",B265,"',password:",C265,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Краевой центр охраны здоровья семьи и репродукции" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:5229,'division':'kadry'},</v>
       </c>
     </row>
     <row r="266" ht="48" spans="1:4">
@@ -7143,8 +7138,8 @@
         <v>572</v>
       </c>
       <c r="D266" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A266,"', raion:'",B266,"',password:",C266,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дом ребенка специализированный для детей с органическим поражением центральной нервной системы с нарушением психики №1" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:9510},</v>
+        <f>CONCATENATE("{ username:'",A266,"', raion:'",B266,"',password:",C266,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дом ребенка специализированный для детей с органическим поражением центральной нервной системы с нарушением психики №1" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:9510,'division':'kadry'},</v>
       </c>
     </row>
     <row r="267" ht="48" spans="1:4">
@@ -7158,8 +7153,8 @@
         <v>574</v>
       </c>
       <c r="D267" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A267,"', raion:'",B267,"',password:",C267,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дом ребенка специализированный для детей с органическим поражением центральной нервной системы с нарушением психики №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:3927},</v>
+        <f>CONCATENATE("{ username:'",A267,"', raion:'",B267,"',password:",C267,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дом ребенка специализированный для детей с органическим поражением центральной нервной системы с нарушением психики №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:3927,'division':'kadry'},</v>
       </c>
     </row>
     <row r="268" ht="48" spans="1:4">
@@ -7173,8 +7168,8 @@
         <v>576</v>
       </c>
       <c r="D268" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A268,"', raion:'",B268,"',password:",C268,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дом ребенка специализированный для детей с органическим поражением центральной нервной системы с нарушением психики №3" министерства здравоохранения Краснодарского края', raion:'Усть-Лабинский',password:9978},</v>
+        <f>CONCATENATE("{ username:'",A268,"', raion:'",B268,"',password:",C268,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дом ребенка специализированный для детей с органическим поражением центральной нервной системы с нарушением психики №3" министерства здравоохранения Краснодарского края', raion:'Усть-Лабинский',password:9978,'division':'kadry'},</v>
       </c>
     </row>
     <row r="269" ht="48" spans="1:4">
@@ -7188,8 +7183,8 @@
         <v>578</v>
       </c>
       <c r="D269" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A269,"', raion:'",B269,"',password:",C269,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дом ребенка специализированный для детей с органическим поражением центральной нервной системы с нарушением психики №5" министерства здравоохранения Краснодарского края', raion:'Ейский',password:8917},</v>
+        <f>CONCATENATE("{ username:'",A269,"', raion:'",B269,"',password:",C269,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дом ребенка специализированный для детей с органическим поражением центральной нервной системы с нарушением психики №5" министерства здравоохранения Краснодарского края', raion:'Ейский',password:8917,'division':'kadry'},</v>
       </c>
     </row>
     <row r="270" ht="36" spans="1:4">
@@ -7203,8 +7198,8 @@
         <v>580</v>
       </c>
       <c r="D270" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A270,"', raion:'",B270,"',password:",C270,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Армавирский дом ребенка" министерства здравоохранения Краснодарского края', raion:'Армавир',password:3910},</v>
+        <f>CONCATENATE("{ username:'",A270,"', raion:'",B270,"',password:",C270,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Армавирский дом ребенка" министерства здравоохранения Краснодарского края', raion:'Армавир',password:3910,'division':'kadry'},</v>
       </c>
     </row>
     <row r="271" ht="36" spans="1:4">
@@ -7218,8 +7213,8 @@
         <v>582</v>
       </c>
       <c r="D271" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A271,"', raion:'",B271,"',password:",C271,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий для лечения туберкулеза всех форм "ЛАСТОЧКА" министерства здравоохранения Краснодарского края', raion:'Геленджик',password:3258},</v>
+        <f>CONCATENATE("{ username:'",A271,"', raion:'",B271,"',password:",C271,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий для лечения туберкулеза всех форм "ЛАСТОЧКА" министерства здравоохранения Краснодарского края', raion:'Геленджик',password:3258,'division':'kadry'},</v>
       </c>
     </row>
     <row r="272" ht="36" spans="1:4">
@@ -7233,8 +7228,8 @@
         <v>584</v>
       </c>
       <c r="D272" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A272,"', raion:'",B272,"',password:",C272,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий имени Н.И.Пирогова" министерства здравоохранения Краснодарского края', raion:'Геленджик',password:9450},</v>
+        <f>CONCATENATE("{ username:'",A272,"', raion:'",B272,"',password:",C272,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий имени Н.И.Пирогова" министерства здравоохранения Краснодарского края', raion:'Геленджик',password:9450,'division':'kadry'},</v>
       </c>
     </row>
     <row r="273" ht="36" spans="1:4">
@@ -7248,8 +7243,8 @@
         <v>586</v>
       </c>
       <c r="D273" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A273,"', raion:'",B273,"',password:",C273,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий для больных туберкулезом "Горный воздух"" министерства здравоохранения Краснодарского края', raion:'Сочи',password:8206},</v>
+        <f>CONCATENATE("{ username:'",A273,"', raion:'",B273,"',password:",C273,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий для больных туберкулезом "Горный воздух"" министерства здравоохранения Краснодарского края', raion:'Сочи',password:8206,'division':'kadry'},</v>
       </c>
     </row>
     <row r="274" ht="36" spans="1:4">
@@ -7263,8 +7258,8 @@
         <v>588</v>
       </c>
       <c r="D274" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A274,"', raion:'",B274,"',password:",C274,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий для больных туберкулезом "РОМАШКА"" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:2704},</v>
+        <f>CONCATENATE("{ username:'",A274,"', raion:'",B274,"',password:",C274,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий для больных туберкулезом "РОМАШКА"" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:2704,'division':'kadry'},</v>
       </c>
     </row>
     <row r="275" ht="36" spans="1:4">
@@ -7278,8 +7273,8 @@
         <v>590</v>
       </c>
       <c r="D275" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A275,"', raion:'",B275,"',password:",C275,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий для больных и инфицированных туберкулезом "ВАСИЛЕК"" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:9100},</v>
+        <f>CONCATENATE("{ username:'",A275,"', raion:'",B275,"',password:",C275,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий для больных и инфицированных туберкулезом "ВАСИЛЕК"" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:9100,'division':'kadry'},</v>
       </c>
     </row>
     <row r="276" ht="36" spans="1:4">
@@ -7293,8 +7288,8 @@
         <v>592</v>
       </c>
       <c r="D276" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A276,"', raion:'",B276,"',password:",C276,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий "ТОПОЛЕК"" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:8145},</v>
+        <f>CONCATENATE("{ username:'",A276,"', raion:'",B276,"',password:",C276,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Детский санаторий "ТОПОЛЕК"" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:8145,'division':'kadry'},</v>
       </c>
     </row>
     <row r="277" ht="36" spans="1:4">
@@ -7308,8 +7303,8 @@
         <v>594</v>
       </c>
       <c r="D277" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A277,"', raion:'",B277,"',password:",C277,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Медицинский информационно-аналитический центр" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:2284},</v>
+        <f>CONCATENATE("{ username:'",A277,"', raion:'",B277,"',password:",C277,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Медицинский информационно-аналитический центр" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:2284,'division':'kadry'},</v>
       </c>
     </row>
     <row r="278" ht="36" spans="1:4">
@@ -7323,8 +7318,8 @@
         <v>596</v>
       </c>
       <c r="D278" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A278,"', raion:'",B278,"',password:",C278,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Центр медицинской профилактики" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:6168},</v>
+        <f>CONCATENATE("{ username:'",A278,"', raion:'",B278,"',password:",C278,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Центр медицинской профилактики" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:6168,'division':'kadry'},</v>
       </c>
     </row>
     <row r="279" ht="36" spans="1:4">
@@ -7338,8 +7333,8 @@
         <v>598</v>
       </c>
       <c r="D279" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A279,"', raion:'",B279,"',password:",C279,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Региональный центр медицины катастроф" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:7263},</v>
+        <f>CONCATENATE("{ username:'",A279,"', raion:'",B279,"',password:",C279,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Региональный центр медицины катастроф" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:7263,'division':'kadry'},</v>
       </c>
     </row>
     <row r="280" ht="36" spans="1:4">
@@ -7353,8 +7348,8 @@
         <v>600</v>
       </c>
       <c r="D280" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A280,"', raion:'",B280,"',password:",C280,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Бюро судебно-медицинской экспертизы" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:7277},</v>
+        <f>CONCATENATE("{ username:'",A280,"', raion:'",B280,"',password:",C280,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Бюро судебно-медицинской экспертизы" министерства здравоохранения Краснодарского края', raion:'Краснодар',password:7277,'division':'kadry'},</v>
       </c>
     </row>
     <row r="281" ht="36" spans="1:4">
@@ -7368,8 +7363,8 @@
         <v>602</v>
       </c>
       <c r="D281" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A281,"', raion:'",B281,"',password:",C281,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Бюро судебно-медицинской экспертизы №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:9179},</v>
+        <f>CONCATENATE("{ username:'",A281,"', raion:'",B281,"',password:",C281,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Бюро судебно-медицинской экспертизы №2" министерства здравоохранения Краснодарского края', raion:'Сочи',password:9179,'division':'kadry'},</v>
       </c>
     </row>
     <row r="282" ht="36" spans="1:4">
@@ -7383,8 +7378,8 @@
         <v>604</v>
       </c>
       <c r="D282" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A282,"', raion:'",B282,"',password:",C282,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дезинфекционная станция города Новороссийска" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:8828},</v>
+        <f>CONCATENATE("{ username:'",A282,"', raion:'",B282,"',password:",C282,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дезинфекционная станция города Новороссийска" министерства здравоохранения Краснодарского края', raion:'Новороссийск',password:8828,'division':'kadry'},</v>
       </c>
     </row>
     <row r="283" ht="36" spans="1:4">
@@ -7398,8 +7393,8 @@
         <v>606</v>
       </c>
       <c r="D283" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A283,"', raion:'",B283,"',password:",C283,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дезинфекционная станция города Сочи" министерства здравоохранения Краснодарского края', raion:'Сочи',password:3806},</v>
+        <f>CONCATENATE("{ username:'",A283,"', raion:'",B283,"',password:",C283,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение здравоохранения "Дезинфекционная станция города Сочи" министерства здравоохранения Краснодарского края', raion:'Сочи',password:3806,'division':'kadry'},</v>
       </c>
     </row>
     <row r="284" ht="24" spans="1:4">
@@ -7413,8 +7408,8 @@
         <v>608</v>
       </c>
       <c r="D284" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A284,"', raion:'",B284,"',password:",C284,"},")</f>
-        <v>{ username:'Государственное казенное учреждение Краснодарского края "Медицина Кубани"', raion:'Краснодар',password:7934},</v>
+        <f>CONCATENATE("{ username:'",A284,"', raion:'",B284,"',password:",C284,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное казенное учреждение Краснодарского края "Медицина Кубани"', raion:'Краснодар',password:7934,'division':'kadry'},</v>
       </c>
     </row>
     <row r="285" ht="24" spans="1:4">
@@ -7428,8 +7423,8 @@
         <v>610</v>
       </c>
       <c r="D285" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A285,"', raion:'",B285,"',password:",C285,"},")</f>
-        <v>{ username:'Государственное бюджетное учреждение Краснодарского края "Фармацевтический центр"', raion:'Краснодар',password:3737},</v>
+        <f>CONCATENATE("{ username:'",A285,"', raion:'",B285,"',password:",C285,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное бюджетное учреждение Краснодарского края "Фармацевтический центр"', raion:'Краснодар',password:3737,'division':'kadry'},</v>
       </c>
     </row>
     <row r="286" ht="24" spans="1:4">
@@ -7443,8 +7438,8 @@
         <v>612</v>
       </c>
       <c r="D286" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A286,"', raion:'",B286,"',password:",C286,"},")</f>
-        <v>{ username:'Государственное казенное учреждение Краснодарского края "Централизованная бухгалтерия МЗ"', raion:'Краснодар',password:1359},</v>
+        <f>CONCATENATE("{ username:'",A286,"', raion:'",B286,"',password:",C286,",'division':'kadry'},")</f>
+        <v>{ username:'Государственное казенное учреждение Краснодарского края "Централизованная бухгалтерия МЗ"', raion:'Краснодар',password:1359,'division':'kadry'},</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7456,8 +7451,8 @@
         <v>614</v>
       </c>
       <c r="D287" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A287,"', raion:'",B287,"',password:",C287,"},")</f>
-        <v>{ username:'ГБОУ СПО Армавирский медколледж', raion:'',password:0143},</v>
+        <f>CONCATENATE("{ username:'",A287,"', raion:'",B287,"',password:",C287,",'division':'kadry'},")</f>
+        <v>{ username:'ГБОУ СПО Армавирский медколледж', raion:'',password:0143,'division':'kadry'},</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7469,8 +7464,8 @@
         <v>616</v>
       </c>
       <c r="D288" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A288,"', raion:'",B288,"',password:",C288,"},")</f>
-        <v>{ username:'ГБОУ СПО Белореченский медколледж', raion:'',password:9916},</v>
+        <f>CONCATENATE("{ username:'",A288,"', raion:'",B288,"',password:",C288,",'division':'kadry'},")</f>
+        <v>{ username:'ГБОУ СПО Белореченский медколледж', raion:'',password:9916,'division':'kadry'},</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7482,8 +7477,8 @@
         <v>618</v>
       </c>
       <c r="D289" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A289,"', raion:'",B289,"',password:",C289,"},")</f>
-        <v>{ username:'ГБОУ СПО Горячеключеской медколледж', raion:'',password:2226},</v>
+        <f>CONCATENATE("{ username:'",A289,"', raion:'",B289,"',password:",C289,",'division':'kadry'},")</f>
+        <v>{ username:'ГБОУ СПО Горячеключеской медколледж', raion:'',password:2226,'division':'kadry'},</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7495,8 +7490,8 @@
         <v>620</v>
       </c>
       <c r="D290" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A290,"', raion:'",B290,"',password:",C290,"},")</f>
-        <v>{ username:'ГБОУ СПО Ейский медколледж', raion:'',password:3010},</v>
+        <f>CONCATENATE("{ username:'",A290,"', raion:'",B290,"',password:",C290,",'division':'kadry'},")</f>
+        <v>{ username:'ГБОУ СПО Ейский медколледж', raion:'',password:3010,'division':'kadry'},</v>
       </c>
     </row>
     <row r="291" ht="24" spans="1:4">
@@ -7510,8 +7505,8 @@
         <v>622</v>
       </c>
       <c r="D291" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A291,"', raion:'",B291,"',password:",C291,"},")</f>
-        <v>{ username:'ГБОУ СПО Краснодарский краевой базовый медицинский колледж', raion:'Краснодар',password:1578},</v>
+        <f>CONCATENATE("{ username:'",A291,"', raion:'",B291,"',password:",C291,",'division':'kadry'},")</f>
+        <v>{ username:'ГБОУ СПО Краснодарский краевой базовый медицинский колледж', raion:'Краснодар',password:1578,'division':'kadry'},</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7523,8 +7518,8 @@
         <v>624</v>
       </c>
       <c r="D292" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A292,"', raion:'",B292,"',password:",C292,"},")</f>
-        <v>{ username:'ГБОУ СПО Кропоткинский медколледж', raion:'',password:7928},</v>
+        <f>CONCATENATE("{ username:'",A292,"', raion:'",B292,"',password:",C292,",'division':'kadry'},")</f>
+        <v>{ username:'ГБОУ СПО Кропоткинский медколледж', raion:'',password:7928,'division':'kadry'},</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7536,8 +7531,8 @@
         <v>626</v>
       </c>
       <c r="D293" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A293,"', raion:'",B293,"',password:",C293,"},")</f>
-        <v>{ username:'ГБОУ СПО Кущевский медколледж', raion:'',password:9781},</v>
+        <f>CONCATENATE("{ username:'",A293,"', raion:'",B293,"',password:",C293,",'division':'kadry'},")</f>
+        <v>{ username:'ГБОУ СПО Кущевский медколледж', raion:'',password:9781,'division':'kadry'},</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7549,8 +7544,8 @@
         <v>628</v>
       </c>
       <c r="D294" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A294,"', raion:'",B294,"',password:",C294,"},")</f>
-        <v>{ username:'ГБОУ СПО Лабинский медколледж', raion:'',password:2435},</v>
+        <f>CONCATENATE("{ username:'",A294,"', raion:'",B294,"',password:",C294,",'division':'kadry'},")</f>
+        <v>{ username:'ГБОУ СПО Лабинский медколледж', raion:'',password:2435,'division':'kadry'},</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7562,8 +7557,8 @@
         <v>630</v>
       </c>
       <c r="D295" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A295,"', raion:'",B295,"',password:",C295,"},")</f>
-        <v>{ username:'ГБОУ СПО Новороссийский медколледж', raion:'',password:0089},</v>
+        <f>CONCATENATE("{ username:'",A295,"', raion:'",B295,"',password:",C295,",'division':'kadry'},")</f>
+        <v>{ username:'ГБОУ СПО Новороссийский медколледж', raion:'',password:0089,'division':'kadry'},</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7575,15 +7570,15 @@
         <v>632</v>
       </c>
       <c r="D296" s="3" t="str">
-        <f>CONCATENATE("{ username:'",A296,"', raion:'",B296,"',password:",C296,"},")</f>
-        <v>{ username:'ГБОУ СПО Сочинский медколледж', raion:'',password:7390},</v>
+        <f>CONCATENATE("{ username:'",A296,"', raion:'",B296,"',password:",C296,",'division':'kadry'},")</f>
+        <v>{ username:'ГБОУ СПО Сочинский медколледж', raion:'',password:7390,'division':'kadry'},</v>
       </c>
     </row>
   </sheetData>
   <sortState caseSensitive="0" columnSort="0" ref="A299:B308">
     <sortCondition descending="0" ref="A299:A308"/>
   </sortState>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.707638888888889" right="0.707638888888889" top="0.747916666666667" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
